--- a/legendre_out/DATA/p2/p2Fits.xlsx
+++ b/legendre_out/DATA/p2/p2Fits.xlsx
@@ -388,7 +388,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.99602</v>
       </c>
       <c r="B2" t="n">
         <v>8.113268794593698e-06</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.00097</v>
       </c>
       <c r="B3" t="n">
         <v>1.255631762718978e-05</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
         <v>1.488798819719439e-05</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.00697</v>
       </c>
       <c r="B5" t="n">
         <v>2.149721238313961e-05</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.00909</v>
       </c>
       <c r="B6" t="n">
         <v>2.286385637455729e-05</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.01003</v>
       </c>
       <c r="B7" t="n">
         <v>2.317333874030765e-05</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
         <v>2.642134738725539e-05</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.01911</v>
       </c>
       <c r="B9" t="n">
         <v>2.602101500302434e-05</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.01992</v>
       </c>
       <c r="B10" t="n">
         <v>2.371628480881717e-05</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.02504</v>
       </c>
       <c r="B11" t="n">
         <v>2.352088281438321e-05</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.02998</v>
       </c>
       <c r="B12" t="n">
         <v>2.018631568601688e-05</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.03514</v>
       </c>
       <c r="B13" t="n">
         <v>1.53088389176712e-05</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.26996</v>
       </c>
       <c r="B14" t="n">
         <v>8.903510383757638e-06</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.29005</v>
       </c>
       <c r="B15" t="n">
         <v>1.257194803055668e-05</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="B16" t="n">
         <v>1.718842755372549e-05</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.29319</v>
       </c>
       <c r="B17" t="n">
         <v>2.008277275412086e-05</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.2942</v>
       </c>
       <c r="B18" t="n">
         <v>2.359507167888329e-05</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.29515</v>
       </c>
       <c r="B19" t="n">
         <v>2.855669060265166e-05</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.29615</v>
       </c>
       <c r="B20" t="n">
         <v>3.174475746026563e-05</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
         <v>4.853126916167463e-05</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="B22" t="n">
         <v>0.0001385392563365003</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="B23" t="n">
         <v>0.0002172017375684555</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.30105</v>
       </c>
       <c r="B24" t="n">
         <v>0.0003267242326053165</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.3031</v>
       </c>
       <c r="B25" t="n">
         <v>0.0003315311776284231</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.30523</v>
       </c>
       <c r="B26" t="n">
         <v>0.0003070368430431036</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
         <v>0.0002924368623851435</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.3093</v>
       </c>
       <c r="B28" t="n">
         <v>0.0002936232125012682</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.30996</v>
       </c>
       <c r="B29" t="n">
         <v>0.000298227821964963</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.31117</v>
       </c>
       <c r="B30" t="n">
         <v>0.000287447617467634</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.31311</v>
       </c>
       <c r="B31" t="n">
         <v>0.0002902475973755522</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.31513</v>
       </c>
       <c r="B32" t="n">
         <v>0.0002875153780151965</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.3172</v>
       </c>
       <c r="B33" t="n">
         <v>0.0002815379351541154</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.31917</v>
       </c>
       <c r="B34" t="n">
         <v>0.0002758098166696309</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
         <v>0.0002543289320453458</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
         <v>0.0002311014576631897</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.32521</v>
       </c>
       <c r="B37" t="n">
         <v>0.0001881065413277511</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.32711</v>
       </c>
       <c r="B38" t="n">
         <v>0.0001507538904569764</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.32908</v>
       </c>
       <c r="B39" t="n">
         <v>0.0001007533066530208</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.33012</v>
       </c>
       <c r="B40" t="n">
         <v>0.0001437785054931939</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.33119</v>
       </c>
       <c r="B41" t="n">
         <v>7.142307116721306e-05</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.33324</v>
       </c>
       <c r="B42" t="n">
         <v>4.90911907582069e-05</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.33515</v>
       </c>
       <c r="B43" t="n">
         <v>3.719163979242035e-05</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.34004</v>
       </c>
       <c r="B44" t="n">
         <v>2.281098860483391e-05</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.34488</v>
       </c>
       <c r="B45" t="n">
         <v>2.009910944117843e-05</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.34998</v>
       </c>
       <c r="B46" t="n">
         <v>1.942661468846525e-05</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.37005</v>
       </c>
       <c r="B47" t="n">
         <v>2.134873142683934e-05</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.39015</v>
       </c>
       <c r="B48" t="n">
         <v>2.696075041649824e-05</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.41003</v>
       </c>
       <c r="B49" t="n">
         <v>3.718886090500032e-05</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.42024</v>
       </c>
       <c r="B50" t="n">
         <v>5.38727348019823e-05</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.43018</v>
       </c>
       <c r="B51" t="n">
         <v>6.767823486783382e-05</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.44004</v>
       </c>
       <c r="B52" t="n">
         <v>0.0001271218455632619</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.44994</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001996715335227166</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.45499</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004676636448372147</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.46012</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006993921326251547</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007376180551618678</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005436608153274348</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.48613</v>
       </c>
       <c r="B58" t="n">
         <v>0.0002582132325547984</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.48819</v>
       </c>
       <c r="B59" t="n">
         <v>0.0001901613894313775</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002537065531717815</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.49222</v>
       </c>
       <c r="B61" t="n">
         <v>9.784723319493234e-05</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.49499</v>
       </c>
       <c r="B62" t="n">
         <v>6.541627210901147e-05</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="B63" t="n">
         <v>3.701413748868466e-05</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.51021</v>
       </c>
       <c r="B64" t="n">
         <v>2.804340436455082e-05</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.51218</v>
       </c>
       <c r="B65" t="n">
         <v>6.238147328990049e-05</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.51508</v>
       </c>
       <c r="B66" t="n">
         <v>0.0001832719352931785</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.52007</v>
       </c>
       <c r="B67" t="n">
         <v>0.00032238499165387</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.52524</v>
       </c>
       <c r="B68" t="n">
         <v>0.0005859235168474056</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="B69" t="n">
         <v>0.0005868989744979476</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.53506</v>
       </c>
       <c r="B70" t="n">
         <v>0.001022200504480621</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.54024</v>
       </c>
       <c r="B71" t="n">
         <v>0.001134721938662179</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.5498</v>
       </c>
       <c r="B72" t="n">
         <v>0.001471331078209042</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.56018</v>
       </c>
       <c r="B73" t="n">
         <v>0.002230034727262287</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="B74" t="n">
         <v>0.002058648418763841</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="B75" t="n">
         <v>0.001047782911722176</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.59008</v>
       </c>
       <c r="B76" t="n">
         <v>0.0005624094306173774</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.60027</v>
       </c>
       <c r="B77" t="n">
         <v>0.0004521324627078339</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.60999</v>
       </c>
       <c r="B78" t="n">
         <v>0.001016899017008687</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.62023</v>
       </c>
       <c r="B79" t="n">
         <v>0.001140687492383807</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.62994</v>
       </c>
       <c r="B80" t="n">
         <v>0.0008266202971454033</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.63517</v>
       </c>
       <c r="B81" t="n">
         <v>0.0004393823180324891</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
         <v>0.000259675847708712</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.64996</v>
       </c>
       <c r="B83" t="n">
         <v>0.0002163196531739345</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.67012</v>
       </c>
       <c r="B84" t="n">
         <v>0.0001134891134144898</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.68015</v>
       </c>
       <c r="B85" t="n">
         <v>5.967238544210427e-05</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.68993</v>
       </c>
       <c r="B86" t="n">
         <v>4.542291754971085e-05</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
         <v>3.646682054734993e-05</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.73</v>
       </c>
       <c r="B88" t="n">
         <v>3.374308830791889e-05</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.75</v>
       </c>
       <c r="B89" t="n">
         <v>4.578264435611982e-05</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.75518</v>
       </c>
       <c r="B90" t="n">
         <v>8.258918217296961e-05</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.75888</v>
       </c>
       <c r="B91" t="n">
         <v>9.31073538882677e-05</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.77004</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001134628303897611</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.77502</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001721244182282583</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="B94" t="n">
         <v>0.0003605671229224687</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.79012</v>
       </c>
       <c r="B95" t="n">
         <v>0.0004547168192098397</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="B96" t="n">
         <v>0.0003766486701619357</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.81003</v>
       </c>
       <c r="B97" t="n">
         <v>0.0001809709834906233</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
         <v>8.65702136208824e-05</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
         <v>5.373210302611565e-05</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.82006</v>
       </c>
       <c r="B100" t="n">
         <v>2.952423795346807e-05</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.82989</v>
       </c>
       <c r="B101" t="n">
         <v>1.93027159083966e-05</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
         <v>1.317196879832352e-05</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.86629</v>
       </c>
       <c r="B103" t="n">
         <v>1.272617643565598e-05</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.88989</v>
       </c>
       <c r="B104" t="n">
         <v>1.550273045835626e-05</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.89991</v>
       </c>
       <c r="B105" t="n">
         <v>2.901809408480575e-05</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
         <v>4.155044961077943e-05</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.91996</v>
       </c>
       <c r="B107" t="n">
         <v>5.309462698797256e-05</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.92615</v>
       </c>
       <c r="B108" t="n">
         <v>5.40466469083233e-05</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="B109" t="n">
         <v>5.47251312330563e-05</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.93692</v>
       </c>
       <c r="B110" t="n">
         <v>5.242434920457305e-05</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.94675</v>
       </c>
       <c r="B111" t="n">
         <v>5.420538810289613e-05</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.95027</v>
       </c>
       <c r="B112" t="n">
         <v>5.484264083253762e-05</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.95676</v>
       </c>
       <c r="B113" t="n">
         <v>5.80642906835599e-05</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="B114" t="n">
         <v>6.061715327858496e-05</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.96475</v>
       </c>
       <c r="B115" t="n">
         <v>6.494491923059329e-05</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.96787</v>
       </c>
       <c r="B116" t="n">
         <v>6.554929558358417e-05</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.97004</v>
       </c>
       <c r="B117" t="n">
         <v>6.690475785273653e-05</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
         <v>6.555374177266117e-05</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.97463</v>
       </c>
       <c r="B119" t="n">
         <v>6.52453816116822e-05</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.98471</v>
       </c>
       <c r="B120" t="n">
         <v>5.429408313533508e-05</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="B121" t="n">
         <v>5.304155267864307e-05</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="B122" t="n">
         <v>4.267330334823559e-05</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.00464</v>
       </c>
       <c r="B123" t="n">
         <v>3.410170449493718e-05</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
         <v>3.615465248128747e-05</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.01484</v>
       </c>
       <c r="B125" t="n">
         <v>4.576642328192917e-05</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.01774</v>
       </c>
       <c r="B126" t="n">
         <v>6.232206198584971e-05</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.01786</v>
       </c>
       <c r="B127" t="n">
         <v>6.031488348511882e-05</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="B128" t="n">
         <v>9.701395171569707e-05</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.0248</v>
       </c>
       <c r="B129" t="n">
         <v>0.0001790724762100528</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="B130" t="n">
         <v>0.0001959134677370861</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.0301</v>
       </c>
       <c r="B131" t="n">
         <v>0.0002059973343063441</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="B132" t="n">
         <v>0.0002357433705071552</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.0359</v>
       </c>
       <c r="B133" t="n">
         <v>0.0002681366793096546</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.03871</v>
       </c>
       <c r="B134" t="n">
         <v>0.0002823949404465356</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="B135" t="n">
         <v>0.0002729044165321484</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.04479</v>
       </c>
       <c r="B136" t="n">
         <v>0.000248191843915478</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.04997</v>
       </c>
       <c r="B137" t="n">
         <v>0.0001986155288190323</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.05484</v>
       </c>
       <c r="B138" t="n">
         <v>0.0001397712277168646</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.06488</v>
       </c>
       <c r="B139" t="n">
         <v>9.598496097773475e-05</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.06991</v>
       </c>
       <c r="B140" t="n">
         <v>7.799520302221238e-05</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.07448</v>
       </c>
       <c r="B141" t="n">
         <v>6.357353435406461e-05</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.08419</v>
       </c>
       <c r="B142" t="n">
         <v>5.344779186371237e-05</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.08999</v>
       </c>
       <c r="B143" t="n">
         <v>5.964991071525563e-05</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="B144" t="n">
         <v>0.0002225641007911923</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
         <v>0.0004213239301090198</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.09889</v>
       </c>
       <c r="B146" t="n">
         <v>0.0004679420490699201</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.09999</v>
       </c>
       <c r="B147" t="n">
         <v>0.0004920633945198861</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.10043</v>
       </c>
       <c r="B148" t="n">
         <v>0.0004812295019451203</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="B149" t="n">
         <v>0.0004814533068235167</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.10288</v>
       </c>
       <c r="B150" t="n">
         <v>0.0005958336363486988</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.10486</v>
       </c>
       <c r="B151" t="n">
         <v>0.0006212640943447996</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.1069</v>
       </c>
       <c r="B152" t="n">
         <v>0.0006218709723196476</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.10878</v>
       </c>
       <c r="B153" t="n">
         <v>0.0006268895006585215</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="B154" t="n">
         <v>0.0006374594663919428</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
         <v>0.0006286156524217504</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.11384</v>
       </c>
       <c r="B156" t="n">
         <v>0.000617223708246716</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.1188</v>
       </c>
       <c r="B157" t="n">
         <v>0.0005147397089845236</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="B158" t="n">
         <v>0.0003791896666909078</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.12852</v>
       </c>
       <c r="B159" t="n">
         <v>0.0002767524166901385</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.12994</v>
       </c>
       <c r="B160" t="n">
         <v>0.0002883086033306753</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.13381</v>
       </c>
       <c r="B161" t="n">
         <v>0.0002221198303384071</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.13888</v>
       </c>
       <c r="B162" t="n">
         <v>0.0002220386951991223</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.14165</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002139780056771204</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="B164" t="n">
         <v>0.000197328803071349</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.14799</v>
       </c>
       <c r="B165" t="n">
         <v>0.000183419839739366</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.15001</v>
       </c>
       <c r="B166" t="n">
         <v>0.0001747737959840143</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="B167" t="n">
         <v>0.0001675593141011447</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
         <v>0.000140476862647785</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.15937</v>
       </c>
       <c r="B169" t="n">
         <v>0.0001269106507144066</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.17005</v>
       </c>
       <c r="B170" t="n">
         <v>8.071646996762628e-05</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.18984</v>
       </c>
       <c r="B171" t="n">
         <v>5.983802948090401e-05</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="B172" t="n">
         <v>6.600497163521159e-05</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.23003</v>
       </c>
       <c r="B173" t="n">
         <v>8.821880339716936e-05</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.2395</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001137205254380706</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.24306</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001261335720527543</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.25013</v>
       </c>
       <c r="B176" t="n">
         <v>0.0001728089850224592</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
         <v>0.0002587386491283566</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003073466811827899</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.26998</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003755769911170359</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
         <v>0.0005019030911133385</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.27502</v>
       </c>
       <c r="B181" t="n">
         <v>0.0004989993897634522</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279809999999999</v>
       </c>
       <c r="B182" t="n">
         <v>0.0007526894261568073</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.28495</v>
       </c>
       <c r="B183" t="n">
         <v>0.0009633180133935657</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.29016</v>
       </c>
       <c r="B184" t="n">
         <v>0.001262488129173153</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.29294</v>
       </c>
       <c r="B185" t="n">
         <v>0.001478420066147818</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.29767</v>
       </c>
       <c r="B186" t="n">
         <v>0.001438395614859874</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.29972</v>
       </c>
       <c r="B187" t="n">
         <v>0.001416300026610696</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.30238</v>
       </c>
       <c r="B188" t="n">
         <v>0.001331046342980817</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.30823</v>
       </c>
       <c r="B189" t="n">
         <v>0.001156262864688409</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312880000000001</v>
       </c>
       <c r="B190" t="n">
         <v>0.001098426443494892</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.31752</v>
       </c>
       <c r="B191" t="n">
         <v>0.0009416419643730322</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.32281</v>
       </c>
       <c r="B192" t="n">
         <v>0.0007494748804475219</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.32768</v>
       </c>
       <c r="B193" t="n">
         <v>0.0006324374409487314</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
         <v>0.0004651002747750747</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.33291</v>
       </c>
       <c r="B195" t="n">
         <v>0.0004799837591596374</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.33747</v>
       </c>
       <c r="B196" t="n">
         <v>0.000323596511585794</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.34274</v>
       </c>
       <c r="B197" t="n">
         <v>0.0001995063779418909</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.34293</v>
       </c>
       <c r="B198" t="n">
         <v>0.0002016900827205353</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.34694</v>
       </c>
       <c r="B199" t="n">
         <v>0.000152128640339068</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.34826</v>
       </c>
       <c r="B200" t="n">
         <v>0.0001443806652850121</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.34858</v>
       </c>
       <c r="B201" t="n">
         <v>0.0001353433368086314</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.35205</v>
       </c>
       <c r="B202" t="n">
         <v>0.0002271618673591836</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.3536</v>
       </c>
       <c r="B203" t="n">
         <v>0.0001759104720207768</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.3579</v>
       </c>
       <c r="B204" t="n">
         <v>0.0002766682990923271</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359830000000001</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002628376208242592</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.36189</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002523913228537872</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.36386</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002499664822982917</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.36605</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002434515212549926</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368040000000001</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002309700224348668</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.36965</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002342281548205718</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.3748</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001380192483883197</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.38009</v>
       </c>
       <c r="B212" t="n">
         <v>6.049833045594503e-05</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382919999999999</v>
       </c>
       <c r="B213" t="n">
         <v>3.908058341291929e-05</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.38334</v>
       </c>
       <c r="B214" t="n">
         <v>5.452532710797551e-05</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383859999999999</v>
       </c>
       <c r="B215" t="n">
         <v>3.415019850698269e-05</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.38596</v>
       </c>
       <c r="B216" t="n">
         <v>2.663972797194945e-05</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.38986</v>
       </c>
       <c r="B217" t="n">
         <v>2.327815611840813e-05</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.39308</v>
       </c>
       <c r="B218" t="n">
         <v>2.147164096995571e-05</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.40341</v>
       </c>
       <c r="B219" t="n">
         <v>2.08598680768509e-05</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.41408</v>
       </c>
       <c r="B220" t="n">
         <v>2.574043296857423e-05</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.42436</v>
       </c>
       <c r="B221" t="n">
         <v>2.559400661006807e-05</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.43541</v>
       </c>
       <c r="B222" t="n">
         <v>2.884235041808614e-05</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.43926</v>
       </c>
       <c r="B223" t="n">
         <v>3.3164831435499e-05</v>

--- a/legendre_out/DATA/p2/p2Fits.xlsx
+++ b/legendre_out/DATA/p2/p2Fits.xlsx
@@ -388,7 +388,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.99602</v>
+        <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
         <v>8.113268794593698e-06</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.00097</v>
+        <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
         <v>1.255631762718978e-05</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
         <v>1.488798819719439e-05</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.00697</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
         <v>2.149721238313961e-05</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.00909</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
         <v>2.286385637455729e-05</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.01003</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
         <v>2.317333874030765e-05</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
         <v>2.642134738725539e-05</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.01911</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
         <v>2.602101500302434e-05</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.01992</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
         <v>2.371628480881717e-05</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.02504</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
         <v>2.352088281438321e-05</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.02998</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
         <v>2.018631568601688e-05</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.03514</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
         <v>1.53088389176712e-05</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.26996</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
         <v>8.903510383757638e-06</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.29005</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
         <v>1.257194803055668e-05</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291119999999999</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
         <v>1.718842755372549e-05</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.29319</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
         <v>2.008277275412086e-05</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.2942</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
         <v>2.359507167888329e-05</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.29515</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
         <v>2.855669060265166e-05</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.29615</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
         <v>3.174475746026563e-05</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
         <v>4.853126916167463e-05</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298080000000001</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
         <v>0.0001385392563365003</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299090000000001</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
         <v>0.0002172017375684555</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.30105</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
         <v>0.0003267242326053165</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.3031</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
         <v>0.0003315311776284231</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.30523</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
         <v>0.0003070368430431036</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
         <v>0.0002924368623851435</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.3093</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
         <v>0.0002936232125012682</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.30996</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
         <v>0.000298227821964963</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.31117</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
         <v>0.000287447617467634</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.31311</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
         <v>0.0002902475973755522</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.31513</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
         <v>0.0002875153780151965</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.3172</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
         <v>0.0002815379351541154</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.31917</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
         <v>0.0002758098166696309</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
         <v>0.0002543289320453458</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
         <v>0.0002311014576631897</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.32521</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
         <v>0.0001881065413277511</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.32711</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
         <v>0.0001507538904569764</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.32908</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
         <v>0.0001007533066530208</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.33012</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
         <v>0.0001437785054931939</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.33119</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
         <v>7.142307116721306e-05</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.33324</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
         <v>4.90911907582069e-05</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.33515</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
         <v>3.719163979242035e-05</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.34004</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
         <v>2.281098860483391e-05</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.34488</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
         <v>2.009910944117843e-05</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.34998</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
         <v>1.942661468846525e-05</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.37005</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
         <v>2.134873142683934e-05</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.39015</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
         <v>2.696075041649824e-05</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.41003</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
         <v>3.718886090500032e-05</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.42024</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
         <v>5.38727348019823e-05</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.43018</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
         <v>6.767823486783382e-05</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.44004</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
         <v>0.0001271218455632619</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.44994</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001996715335227166</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.45499</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004676636448372147</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.46012</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006993921326251547</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469959999999999</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007376180551618678</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477980000000001</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005436608153274348</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.48613</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
         <v>0.0002582132325547984</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.48819</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
         <v>0.0001901613894313775</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490069999999999</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002537065531717815</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.49222</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
         <v>9.784723319493234e-05</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.49499</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
         <v>6.541627210901147e-05</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499969999999999</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
         <v>3.701413748868466e-05</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.51021</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
         <v>2.804340436455082e-05</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.51218</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
         <v>6.238147328990049e-05</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.51508</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
         <v>0.0001832719352931785</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.52007</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
         <v>0.00032238499165387</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.52524</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
         <v>0.0005859235168474056</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529409999999999</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
         <v>0.0005868989744979476</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.53506</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
         <v>0.001022200504480621</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.54024</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
         <v>0.001134721938662179</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5498</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
         <v>0.001471331078209042</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.56018</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
         <v>0.002230034727262287</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570130000000001</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
         <v>0.002058648418763841</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580030000000001</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
         <v>0.001047782911722176</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.59008</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
         <v>0.0005624094306173774</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.60027</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
         <v>0.0004521324627078339</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.60999</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
         <v>0.001016899017008687</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.62023</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
         <v>0.001140687492383807</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.62994</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
         <v>0.0008266202971454033</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.63517</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
         <v>0.0004393823180324891</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
         <v>0.000259675847708712</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.64996</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
         <v>0.0002163196531739345</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.67012</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
         <v>0.0001134891134144898</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.68015</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
         <v>5.967238544210427e-05</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.68993</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
         <v>4.542291754971085e-05</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
         <v>3.646682054734993e-05</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.73</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
         <v>3.374308830791889e-05</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.75</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
         <v>4.578264435611982e-05</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.75518</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
         <v>8.258918217296961e-05</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.75888</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
         <v>9.31073538882677e-05</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.77004</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001134628303897611</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.77502</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001721244182282583</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780180000000001</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
         <v>0.0003605671229224687</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.79012</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
         <v>0.0004547168192098397</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799919999999999</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
         <v>0.0003766486701619357</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.81003</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
         <v>0.0001809709834906233</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
         <v>8.65702136208824e-05</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
         <v>5.373210302611565e-05</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.82006</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
         <v>2.952423795346807e-05</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.82989</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
         <v>1.93027159083966e-05</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
         <v>1.317196879832352e-05</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.86629</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
         <v>1.272617643565598e-05</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.88989</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
         <v>1.550273045835626e-05</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.89991</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
         <v>2.901809408480575e-05</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
         <v>4.155044961077943e-05</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.91996</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
         <v>5.309462698797256e-05</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.92615</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
         <v>5.40466469083233e-05</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930190000000001</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
         <v>5.47251312330563e-05</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.93692</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
         <v>5.242434920457305e-05</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.94675</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
         <v>5.420538810289613e-05</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.95027</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
         <v>5.484264083253762e-05</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.95676</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
         <v>5.80642906835599e-05</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
         <v>6.061715327858496e-05</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.96475</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
         <v>6.494491923059329e-05</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.96787</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
         <v>6.554929558358417e-05</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.97004</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
         <v>6.690475785273653e-05</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
         <v>6.555374177266117e-05</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.97463</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
         <v>6.52453816116822e-05</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.98471</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
         <v>5.429408313533508e-05</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990069999999999</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
         <v>5.304155267864307e-05</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669999999999</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
         <v>4.267330334823559e-05</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.00464</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
         <v>3.410170449493718e-05</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
         <v>3.615465248128747e-05</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.01484</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
         <v>4.576642328192917e-05</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.01774</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
         <v>6.232206198584971e-05</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.01786</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
         <v>6.031488348511882e-05</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019819999999999</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
         <v>9.701395171569707e-05</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0248</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
         <v>0.0001790724762100528</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027830000000001</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
         <v>0.0001959134677370861</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0301</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
         <v>0.0002059973343063441</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032780000000001</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
         <v>0.0002357433705071552</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0359</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
         <v>0.0002681366793096546</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.03871</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
         <v>0.0002823949404465356</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041980000000001</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
         <v>0.0002729044165321484</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.04479</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
         <v>0.000248191843915478</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.04997</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
         <v>0.0001986155288190323</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.05484</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
         <v>0.0001397712277168646</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.06488</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
         <v>9.598496097773475e-05</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.06991</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
         <v>7.799520302221238e-05</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.07448</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
         <v>6.357353435406461e-05</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.08419</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
         <v>5.344779186371237e-05</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.08999</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
         <v>5.964991071525563e-05</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093719999999999</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
         <v>0.0002225641007911923</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
         <v>0.0004213239301090198</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.09889</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
         <v>0.0004679420490699201</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.09999</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
         <v>0.0004920633945198861</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.10043</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
         <v>0.0004812295019451203</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100709999999999</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
         <v>0.0004814533068235167</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.10288</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
         <v>0.0005958336363486988</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.10486</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
         <v>0.0006212640943447996</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1069</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
         <v>0.0006218709723196476</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.10878</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
         <v>0.0006268895006585215</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110040000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
         <v>0.0006374594663919428</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
         <v>0.0006286156524217504</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.11384</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
         <v>0.000617223708246716</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1188</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
         <v>0.0005147397089845236</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123769999999999</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
         <v>0.0003791896666909078</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.12852</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
         <v>0.0002767524166901385</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.12994</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
         <v>0.0002883086033306753</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.13381</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
         <v>0.0002221198303384071</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.13888</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
         <v>0.0002220386951991223</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.14165</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002139780056771204</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144740000000001</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
         <v>0.000197328803071349</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.14799</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
         <v>0.000183419839739366</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.15001</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
         <v>0.0001747737959840143</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150980000000001</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
         <v>0.0001675593141011447</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
         <v>0.000140476862647785</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.15937</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
         <v>0.0001269106507144066</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.17005</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
         <v>8.071646996762628e-05</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.18984</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
         <v>5.983802948090401e-05</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210030000000001</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
         <v>6.600497163521159e-05</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.23003</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
         <v>8.821880339716936e-05</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2395</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001137205254380706</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.24306</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001261335720527543</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.25013</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
         <v>0.0001728089850224592</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
         <v>0.0002587386491283566</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003073466811827899</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.26998</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003755769911170359</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
         <v>0.0005019030911133385</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.27502</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
         <v>0.0004989993897634522</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279809999999999</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
         <v>0.0007526894261568073</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.28495</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
         <v>0.0009633180133935657</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.29016</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
         <v>0.001262488129173153</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.29294</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
         <v>0.001478420066147818</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.29767</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
         <v>0.001438395614859874</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.29972</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
         <v>0.001416300026610696</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.30238</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
         <v>0.001331046342980817</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.30823</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
         <v>0.001156262864688409</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312880000000001</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
         <v>0.001098426443494892</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.31752</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
         <v>0.0009416419643730322</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.32281</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
         <v>0.0007494748804475219</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.32768</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
         <v>0.0006324374409487314</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
         <v>0.0004651002747750747</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.33291</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
         <v>0.0004799837591596374</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.33747</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
         <v>0.000323596511585794</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.34274</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
         <v>0.0001995063779418909</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.34293</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
         <v>0.0002016900827205353</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.34694</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
         <v>0.000152128640339068</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.34826</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
         <v>0.0001443806652850121</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.34858</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
         <v>0.0001353433368086314</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.35205</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
         <v>0.0002271618673591836</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3536</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
         <v>0.0001759104720207768</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3579</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
         <v>0.0002766682990923271</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359830000000001</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002628376208242592</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.36189</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002523913228537872</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.36386</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002499664822982917</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.36605</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002434515212549926</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368040000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002309700224348668</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.36965</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002342281548205718</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3748</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001380192483883197</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.38009</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
         <v>6.049833045594503e-05</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382919999999999</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
         <v>3.908058341291929e-05</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.38334</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
         <v>5.452532710797551e-05</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383859999999999</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
         <v>3.415019850698269e-05</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.38596</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
         <v>2.663972797194945e-05</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.38986</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
         <v>2.327815611840813e-05</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.39308</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
         <v>2.147164096995571e-05</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.40341</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
         <v>2.08598680768509e-05</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.41408</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
         <v>2.574043296857423e-05</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.42436</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
         <v>2.559400661006807e-05</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>5.43541</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
         <v>2.884235041808614e-05</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>5.43926</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
         <v>3.3164831435499e-05</v>

--- a/legendre_out/DATA/p2/p2Fits.xlsx
+++ b/legendre_out/DATA/p2/p2Fits.xlsx
@@ -388,16 +388,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>8.113268794593698e-06</v>
+        <v>7721386813473.623</v>
       </c>
       <c r="C2" t="n">
-        <v>2.557230444141357e-07</v>
+        <v>239236038712.9319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001135979746663432</v>
+        <v>0.0238275089888393</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -407,16 +407,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>1.255631762718978e-05</v>
+        <v>11994793614376.07</v>
       </c>
       <c r="C3" t="n">
-        <v>3.941466168350198e-07</v>
+        <v>365106760435.7393</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007757180356660202</v>
+        <v>0.4856764722443805</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -426,16 +426,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>1.488798819719439e-05</v>
+        <v>14325514672425.17</v>
       </c>
       <c r="C4" t="n">
-        <v>4.437730195637492e-07</v>
+        <v>416588675094.7449</v>
       </c>
       <c r="D4" t="n">
-        <v>5.470043599398945e-05</v>
+        <v>0.1091659497740987</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -445,16 +445,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>2.149721238313961e-05</v>
+        <v>20152150038701.33</v>
       </c>
       <c r="C5" t="n">
-        <v>5.948598376751771e-07</v>
+        <v>550163154280.5787</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3560621985663437</v>
+        <v>0.6032142098632453</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -464,16 +464,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>2.286385637455729e-05</v>
+        <v>21517745256050.07</v>
       </c>
       <c r="C6" t="n">
-        <v>6.618932931825402e-07</v>
+        <v>613206389594.0001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07607722498501814</v>
+        <v>0.4069823200112702</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -483,16 +483,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>2.317333874030765e-05</v>
+        <v>21671025141120.91</v>
       </c>
       <c r="C7" t="n">
-        <v>6.694929422575146e-07</v>
+        <v>616319582356.4357</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5915908244030197</v>
+        <v>0.7512638513734603</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -502,16 +502,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>2.642134738725539e-05</v>
+        <v>24795634391420.55</v>
       </c>
       <c r="C8" t="n">
-        <v>6.950634920780321e-07</v>
+        <v>644437813168.057</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0882505825554853</v>
+        <v>0.4355799287151366</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -521,16 +521,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>2.602101500302434e-05</v>
+        <v>24307513087251.76</v>
       </c>
       <c r="C9" t="n">
-        <v>6.664420235472989e-07</v>
+        <v>616762311806.2173</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7231064621019161</v>
+        <v>0.8227128937046537</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -540,16 +540,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>2.371628480881717e-05</v>
+        <v>22189333396202.77</v>
       </c>
       <c r="C10" t="n">
-        <v>6.608296355423959e-07</v>
+        <v>610847826935.4426</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2681823246143515</v>
+        <v>0.1902575113799557</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -559,16 +559,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>2.352088281438321e-05</v>
+        <v>22066215508454.26</v>
       </c>
       <c r="C11" t="n">
-        <v>6.585903892335093e-07</v>
+        <v>609796139766.0254</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1364268197868128</v>
+        <v>0.5907837036648138</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -578,16 +578,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>2.018631568601688e-05</v>
+        <v>18880247321605.98</v>
       </c>
       <c r="C12" t="n">
-        <v>5.570595952378164e-07</v>
+        <v>514436201284.6808</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4710190071379167</v>
+        <v>0.3462034779970451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -597,16 +597,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>1.53088389176712e-05</v>
+        <v>14406834764860.3</v>
       </c>
       <c r="C13" t="n">
-        <v>4.452429949146363e-07</v>
+        <v>415508678488.1277</v>
       </c>
       <c r="D13" t="n">
-        <v>0.006079708841971235</v>
+        <v>0.001537676976930648</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -616,16 +616,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>8.903510383757638e-06</v>
+        <v>8252738679750.604</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166507770211279e-07</v>
+        <v>282887661643.1622</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7042586585512264</v>
+        <v>0.6991947818087452</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -635,16 +635,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>1.257194803055668e-05</v>
+        <v>11764960184231.79</v>
       </c>
       <c r="C15" t="n">
-        <v>4.06059402603759e-07</v>
+        <v>372739987562.4401</v>
       </c>
       <c r="D15" t="n">
-        <v>0.688494701061301</v>
+        <v>0.8693708022327562</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -654,16 +654,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>1.718842755372549e-05</v>
+        <v>16134371794105.88</v>
       </c>
       <c r="C16" t="n">
-        <v>5.416516277063854e-07</v>
+        <v>498409272925.429</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2755346815861191</v>
+        <v>0.6635164987351125</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -673,16 +673,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>2.008277275412086e-05</v>
+        <v>18869094791278.29</v>
       </c>
       <c r="C17" t="n">
-        <v>6.094914618358822e-07</v>
+        <v>559778860828.7219</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09318718902122</v>
+        <v>0.1453569878480484</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>2.359507167888329e-05</v>
+        <v>22281069479169.2</v>
       </c>
       <c r="C18" t="n">
-        <v>7.03992283865722e-07</v>
+        <v>648092638740.4064</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002526890936937979</v>
+        <v>0.007473111672536711</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -711,16 +711,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>2.855669060265166e-05</v>
+        <v>26817480783008.19</v>
       </c>
       <c r="C19" t="n">
-        <v>8.100798182396709e-07</v>
+        <v>744477538379.8451</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2445512203618972</v>
+        <v>0.7374692587798745</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -730,16 +730,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>3.174475746026563e-05</v>
+        <v>30101472295370.13</v>
       </c>
       <c r="C20" t="n">
-        <v>9.189091481342365e-07</v>
+        <v>846753201601.6395</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006465984765300221</v>
+        <v>0.4305095795894317</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -749,16 +749,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>4.853126916167463e-05</v>
+        <v>45565028077914.12</v>
       </c>
       <c r="C21" t="n">
-        <v>1.313844181883831e-06</v>
+        <v>1212709026389.855</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2691482970854593</v>
+        <v>0.7156220230942377</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -768,16 +768,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001385392563365003</v>
+        <v>130451912951058.1</v>
       </c>
       <c r="C22" t="n">
-        <v>3.592253293287639e-06</v>
+        <v>3320769156975.773</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1677572298106549</v>
+        <v>0.8900079704188313</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002172017375684555</v>
+        <v>206108230748798.1</v>
       </c>
       <c r="C23" t="n">
-        <v>5.560938329378597e-06</v>
+        <v>5192411678617.655</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01152866570795437</v>
+        <v>0.5056333230999506</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -806,16 +806,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003267242326053165</v>
+        <v>308723361594694.8</v>
       </c>
       <c r="C24" t="n">
-        <v>8.231237033102889e-06</v>
+        <v>7662180814845.796</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01794837767334848</v>
+        <v>0.6951828194518205</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -825,16 +825,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0003315311776284231</v>
+        <v>312630571053684.5</v>
       </c>
       <c r="C25" t="n">
-        <v>8.120205811888306e-06</v>
+        <v>7566305287909.939</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03302149517341597</v>
+        <v>0.6383221809720363</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -844,16 +844,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0003070368430431036</v>
+        <v>290648201353995.6</v>
       </c>
       <c r="C26" t="n">
-        <v>7.670343780992542e-06</v>
+        <v>7190111285742.86</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02441852310646846</v>
+        <v>0.4078501255624862</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -863,16 +863,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0002924368623851435</v>
+        <v>276251723586837.3</v>
       </c>
       <c r="C27" t="n">
-        <v>7.505426102205581e-06</v>
+        <v>6977489233526.492</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02752626009733442</v>
+        <v>0.4175990302027284</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -882,16 +882,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0002936232125012682</v>
+        <v>277584891121239.9</v>
       </c>
       <c r="C28" t="n">
-        <v>7.522188443587795e-06</v>
+        <v>7010503354756.363</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03368518669334894</v>
+        <v>0.5274913633996021</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -901,16 +901,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>0.000298227821964963</v>
+        <v>281989341898140.6</v>
       </c>
       <c r="C29" t="n">
-        <v>7.465839098660281e-06</v>
+        <v>6984895668969.661</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04211031861805519</v>
+        <v>0.6381246766087277</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -920,16 +920,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>0.000287447617467634</v>
+        <v>271929484020871.6</v>
       </c>
       <c r="C30" t="n">
-        <v>7.222299348343078e-06</v>
+        <v>6763036136712.661</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02606717700862815</v>
+        <v>0.309762599240295</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0002902475973755522</v>
+        <v>274564814277344.2</v>
       </c>
       <c r="C31" t="n">
-        <v>7.321313976229263e-06</v>
+        <v>6836366360803.684</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02351600873516738</v>
+        <v>0.5565556921959443</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -958,16 +958,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0002875153780151965</v>
+        <v>273330254402903.6</v>
       </c>
       <c r="C32" t="n">
-        <v>7.351902158173862e-06</v>
+        <v>6885387149617.343</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006911752859434919</v>
+        <v>0.3371356074201325</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -977,16 +977,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0002815379351541154</v>
+        <v>265438540401236.5</v>
       </c>
       <c r="C33" t="n">
-        <v>7.057457993535474e-06</v>
+        <v>6567936383560.923</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06996135339401825</v>
+        <v>0.5039940869082669</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0002758098166696309</v>
+        <v>259034761724710.1</v>
       </c>
       <c r="C34" t="n">
-        <v>7.116230327939352e-06</v>
+        <v>6556962223495.88</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1048410347493473</v>
+        <v>0.711876952570843</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1015,16 +1015,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0002543289320453458</v>
+        <v>241323014178667.2</v>
       </c>
       <c r="C35" t="n">
-        <v>6.438335614329267e-06</v>
+        <v>6033334358583.57</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01113391623520547</v>
+        <v>0.2669214855857543</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0002311014576631897</v>
+        <v>219563859687977.3</v>
       </c>
       <c r="C36" t="n">
-        <v>5.826401056146153e-06</v>
+        <v>5476856551986.388</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00880616202681923</v>
+        <v>0.1984855158733536</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1053,16 +1053,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0001881065413277511</v>
+        <v>178422696843763.6</v>
       </c>
       <c r="C37" t="n">
-        <v>4.709668221128742e-06</v>
+        <v>4410945949236.481</v>
       </c>
       <c r="D37" t="n">
-        <v>0.009908833682270159</v>
+        <v>0.5153941074098113</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1072,16 +1072,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0001507538904569764</v>
+        <v>142323757112282.2</v>
       </c>
       <c r="C38" t="n">
-        <v>3.760565617795579e-06</v>
+        <v>3507119036631.457</v>
       </c>
       <c r="D38" t="n">
-        <v>0.04221445195654756</v>
+        <v>0.6146483631476474</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0001007533066530208</v>
+        <v>95725341402996.52</v>
       </c>
       <c r="C39" t="n">
-        <v>2.5370039273538e-06</v>
+        <v>2387160426518.613</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0196084262507758</v>
+        <v>0.3263978973492176</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001437785054931939</v>
+        <v>135459738729064.9</v>
       </c>
       <c r="C40" t="n">
-        <v>3.673364624470947e-06</v>
+        <v>3405256979896.177</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08708673399798898</v>
+        <v>0.7781152840198553</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1129,16 +1129,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>7.142307116721306e-05</v>
+        <v>67707278445691.77</v>
       </c>
       <c r="C41" t="n">
-        <v>1.862520336095129e-06</v>
+        <v>1735815129098.486</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01627108776894703</v>
+        <v>0.5232461035710634</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>4.90911907582069e-05</v>
+        <v>46001316239469.5</v>
       </c>
       <c r="C42" t="n">
-        <v>1.299337472379027e-06</v>
+        <v>1194169898247.184</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2813108169988172</v>
+        <v>0.7947560850891799</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>3.719163979242035e-05</v>
+        <v>35157113130996.13</v>
       </c>
       <c r="C43" t="n">
-        <v>9.984579482633211e-07</v>
+        <v>927143338401.3923</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03066795245965427</v>
+        <v>0.3019025694815825</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>2.281098860483391e-05</v>
+        <v>21340838477139.95</v>
       </c>
       <c r="C44" t="n">
-        <v>6.662927595243442e-07</v>
+        <v>608650404720.1685</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1524306638700331</v>
+        <v>0.3155408705599239</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1205,16 +1205,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>2.009910944117843e-05</v>
+        <v>18937513786009.22</v>
       </c>
       <c r="C45" t="n">
-        <v>6.177982581813627e-07</v>
+        <v>568799855405.0635</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02741199287326768</v>
+        <v>0.05872018841558982</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1224,16 +1224,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>1.942661468846525e-05</v>
+        <v>18074694999434.38</v>
       </c>
       <c r="C46" t="n">
-        <v>5.863931837926556e-07</v>
+        <v>531478944070.1121</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4518256160490223</v>
+        <v>0.6494043536255441</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>2.134873142683934e-05</v>
+        <v>19768434244162.53</v>
       </c>
       <c r="C47" t="n">
-        <v>6.117562947159795e-07</v>
+        <v>555908761365.5531</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5098212428883679</v>
+        <v>0.4858327291408072</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>2.696075041649824e-05</v>
+        <v>25150014226828.13</v>
       </c>
       <c r="C48" t="n">
-        <v>7.382519707909985e-07</v>
+        <v>678399228897.358</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5253083476423703</v>
+        <v>0.8821625247693849</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>3.718886090500032e-05</v>
+        <v>34674509981723.06</v>
       </c>
       <c r="C49" t="n">
-        <v>9.847910836932516e-07</v>
+        <v>909086920938.3792</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5530397159259903</v>
+        <v>0.3567249890726178</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>5.38727348019823e-05</v>
+        <v>50227451751363.61</v>
       </c>
       <c r="C50" t="n">
-        <v>1.393633358394333e-06</v>
+        <v>1289212343673.363</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4452570262132987</v>
+        <v>0.2528410721965829</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1319,16 +1319,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>6.767823486783382e-05</v>
+        <v>63020350522555.77</v>
       </c>
       <c r="C51" t="n">
-        <v>1.686011172514885e-06</v>
+        <v>1558882559699.772</v>
       </c>
       <c r="D51" t="n">
-        <v>0.882985476623214</v>
+        <v>0.7626982400964577</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1338,16 +1338,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0001271218455632619</v>
+        <v>118410349359121.3</v>
       </c>
       <c r="C52" t="n">
-        <v>3.288516673558152e-06</v>
+        <v>3033495058022.745</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6114484348054642</v>
+        <v>0.5344088787050966</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001996715335227166</v>
+        <v>185822818651899.6</v>
       </c>
       <c r="C53" t="n">
-        <v>5.006545085914123e-06</v>
+        <v>4628172195518.131</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9450158751071185</v>
+        <v>0.8954712625086172</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1376,16 +1376,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004676636448372147</v>
+        <v>435309024868020.1</v>
       </c>
       <c r="C54" t="n">
-        <v>1.194818789396906e-05</v>
+        <v>11022384846324.28</v>
       </c>
       <c r="D54" t="n">
-        <v>0.907637615774083</v>
+        <v>0.965296859023698</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1395,16 +1395,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006993921326251547</v>
+        <v>651251046209255.5</v>
       </c>
       <c r="C55" t="n">
-        <v>1.740682342983751e-05</v>
+        <v>16105033435649.56</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6623467134632012</v>
+        <v>0.4944855728484546</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007376180551618678</v>
+        <v>686727331313491.8</v>
       </c>
       <c r="C56" t="n">
-        <v>1.801233384675751e-05</v>
+        <v>16704426697146.81</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6153667732850375</v>
+        <v>0.314940785417221</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005436608153274348</v>
+        <v>506365703660203.8</v>
       </c>
       <c r="C57" t="n">
-        <v>1.360651050198318e-05</v>
+        <v>12588089183374.41</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6321300043500573</v>
+        <v>0.5379140204377246</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002582132325547984</v>
+        <v>240624732518166.8</v>
       </c>
       <c r="C58" t="n">
-        <v>6.550463018530956e-06</v>
+        <v>6073561306637.576</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7715391007880659</v>
+        <v>0.3683576322096381</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1471,16 +1471,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0001901613894313775</v>
+        <v>177043151214137.3</v>
       </c>
       <c r="C59" t="n">
-        <v>4.880913394549753e-06</v>
+        <v>4508246845011.298</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7899943635303733</v>
+        <v>0.6820647253602583</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1490,16 +1490,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002537065531717815</v>
+        <v>236298048818852.2</v>
       </c>
       <c r="C60" t="n">
-        <v>6.34555455798798e-06</v>
+        <v>5874441312859.572</v>
       </c>
       <c r="D60" t="n">
-        <v>0.635892308681192</v>
+        <v>0.4511047694178517</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1509,16 +1509,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>9.784723319493234e-05</v>
+        <v>91220258369202.84</v>
       </c>
       <c r="C61" t="n">
-        <v>2.568396732861742e-06</v>
+        <v>2369997602701.934</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5289488599952421</v>
+        <v>0.3336981436796406</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1528,16 +1528,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>6.541627210901147e-05</v>
+        <v>61030555255486.98</v>
       </c>
       <c r="C62" t="n">
-        <v>1.681627057219709e-06</v>
+        <v>1557914301851.195</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7029745548012858</v>
+        <v>0.3464619834988116</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1547,16 +1547,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>3.701413748868466e-05</v>
+        <v>34677756908311.16</v>
       </c>
       <c r="C63" t="n">
-        <v>1.020005218294928e-06</v>
+        <v>941567629609.6213</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3899996201893676</v>
+        <v>0.4640283703715926</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1566,16 +1566,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>2.804340436455082e-05</v>
+        <v>26025557824001.81</v>
       </c>
       <c r="C64" t="n">
-        <v>7.85476726273211e-07</v>
+        <v>712127432432.0382</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5397074276810849</v>
+        <v>0.5423432334602291</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1585,16 +1585,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>6.238147328990049e-05</v>
+        <v>58457265368013.01</v>
       </c>
       <c r="C65" t="n">
-        <v>1.681617217126348e-06</v>
+        <v>1545710814635.071</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3995445314563142</v>
+        <v>0.7583844001199989</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0001832719352931785</v>
+        <v>173329757763573.6</v>
       </c>
       <c r="C66" t="n">
-        <v>4.750635583020969e-06</v>
+        <v>4425875572742.378</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02292841882473371</v>
+        <v>0.3006192660148261</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00032238499165387</v>
+        <v>302361764295271.9</v>
       </c>
       <c r="C67" t="n">
-        <v>8.005853936710199e-06</v>
+        <v>7419820741808.447</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2982276423193541</v>
+        <v>0.7189062298905355</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1642,16 +1642,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0005859235168474056</v>
+        <v>550625864174920.3</v>
       </c>
       <c r="C68" t="n">
-        <v>1.457699691344295e-05</v>
+        <v>13558679259940.72</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07822179506586444</v>
+        <v>0.340688952596323</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0005868989744979476</v>
+        <v>551069918138956.3</v>
       </c>
       <c r="C69" t="n">
-        <v>1.39787030335255e-05</v>
+        <v>13039766264075.38</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2178641100522103</v>
+        <v>0.7181191576319998</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1680,16 +1680,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001022200504480621</v>
+        <v>956671828456326.1</v>
       </c>
       <c r="C70" t="n">
-        <v>2.464978196397956e-05</v>
+        <v>22868202711675.12</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4007788560893277</v>
+        <v>0.8020295622882458</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1699,16 +1699,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001134721938662179</v>
+        <v>1061943690844194</v>
       </c>
       <c r="C71" t="n">
-        <v>2.826983603421669e-05</v>
+        <v>26170711057983.45</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2512628661568325</v>
+        <v>0.5511694105367935</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1718,16 +1718,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001471331078209042</v>
+        <v>1372064736075229</v>
       </c>
       <c r="C72" t="n">
-        <v>3.286615423170997e-05</v>
+        <v>30625503006842.43</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7637090891437074</v>
+        <v>0.8740839044171624</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002230034727262287</v>
+        <v>2075767865757876</v>
       </c>
       <c r="C73" t="n">
-        <v>5.121819967557001e-05</v>
+        <v>47572888726881.52</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5554465354415263</v>
+        <v>0.3747265236344364</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002058648418763841</v>
+        <v>1914674979672317</v>
       </c>
       <c r="C74" t="n">
-        <v>4.778310301156161e-05</v>
+        <v>44251229820684.24</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4779011592827039</v>
+        <v>0.4181759540064321</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001047782911722176</v>
+        <v>976362044059050.1</v>
       </c>
       <c r="C75" t="n">
-        <v>2.585302723973293e-05</v>
+        <v>23969926327775.01</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5912268479357019</v>
+        <v>0.3112989396897213</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1794,16 +1794,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005624094306173774</v>
+        <v>522794302397261.1</v>
       </c>
       <c r="C76" t="n">
-        <v>1.379001819556206e-05</v>
+        <v>12708633280859.71</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8463679913635305</v>
+        <v>0.8654547575205922</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0004521324627078339</v>
+        <v>422852538469050.4</v>
       </c>
       <c r="C77" t="n">
-        <v>1.129227565254528e-05</v>
+        <v>10453840585745.69</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3829438386066184</v>
+        <v>0.6048412305551103</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1832,16 +1832,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001016899017008687</v>
+        <v>954769503794769.4</v>
       </c>
       <c r="C78" t="n">
-        <v>2.412650397858534e-05</v>
+        <v>22517531488639.72</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1671069586696195</v>
+        <v>0.6632898660436395</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001140687492383807</v>
+        <v>1073977293364180</v>
       </c>
       <c r="C79" t="n">
-        <v>2.78693451757911e-05</v>
+        <v>26027524073822.77</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07217076442175284</v>
+        <v>0.5121406268370108</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1870,16 +1870,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0008266202971454033</v>
+        <v>780797843178695.1</v>
       </c>
       <c r="C80" t="n">
-        <v>1.97146962718741e-05</v>
+        <v>18497969222870.25</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0549690453164872</v>
+        <v>0.9502499502887795</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -1889,16 +1889,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0004393823180324891</v>
+        <v>414024909323293.8</v>
       </c>
       <c r="C81" t="n">
-        <v>1.097098104393626e-05</v>
+        <v>10237841293784.14</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0852462338630742</v>
+        <v>0.6735633845863972</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -1908,16 +1908,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>0.000259675847708712</v>
+        <v>244375841450667</v>
       </c>
       <c r="C82" t="n">
-        <v>6.643937525526997e-06</v>
+        <v>6188130828963.411</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1538228534508106</v>
+        <v>0.7083616275695386</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0002163196531739345</v>
+        <v>201893492396413.4</v>
       </c>
       <c r="C83" t="n">
-        <v>5.583659205804975e-06</v>
+        <v>5153284961550.874</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4876655166810592</v>
+        <v>0.3916035650403735</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001134891134144898</v>
+        <v>105951999445656.5</v>
       </c>
       <c r="C84" t="n">
-        <v>2.995739793938198e-06</v>
+        <v>2762522561280.733</v>
       </c>
       <c r="D84" t="n">
-        <v>0.677544515785681</v>
+        <v>0.9896694407632796</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -1965,16 +1965,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>5.967238544210427e-05</v>
+        <v>55716435845718.8</v>
       </c>
       <c r="C85" t="n">
-        <v>1.695976422283584e-06</v>
+        <v>1554383153958.386</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2257398936308125</v>
+        <v>0.4446112441243506</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -1984,16 +1984,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>4.542291754971085e-05</v>
+        <v>42513730921553.62</v>
       </c>
       <c r="C86" t="n">
-        <v>1.292291519104755e-06</v>
+        <v>1186258002945.849</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2039043513689431</v>
+        <v>0.2653305882766535</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>3.646682054734993e-05</v>
+        <v>33955806463695.47</v>
       </c>
       <c r="C87" t="n">
-        <v>9.790296885042794e-07</v>
+        <v>897390687216.3076</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9866781725335718</v>
+        <v>0.9858930861235287</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2022,16 +2022,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>3.374308830791889e-05</v>
+        <v>31521315801315.64</v>
       </c>
       <c r="C88" t="n">
-        <v>9.834808259294685e-07</v>
+        <v>902265495665.1029</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5698535209549813</v>
+        <v>0.8607210074094543</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2041,16 +2041,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>4.578264435611982e-05</v>
+        <v>42705068160589.98</v>
       </c>
       <c r="C89" t="n">
-        <v>1.342401386866001e-06</v>
+        <v>1223484906056.736</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5974760878946505</v>
+        <v>0.6500675743993414</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2060,16 +2060,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>8.258918217296961e-05</v>
+        <v>76697060813822.81</v>
       </c>
       <c r="C90" t="n">
-        <v>2.392004807783405e-06</v>
+        <v>2183223525044.124</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6740198378736271</v>
+        <v>0.6812357782402702</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>9.31073538882677e-05</v>
+        <v>87199656972113.02</v>
       </c>
       <c r="C91" t="n">
-        <v>2.624241214212975e-06</v>
+        <v>2426730883603.741</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5878897559979286</v>
+        <v>0.7815022229347797</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2098,16 +2098,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001134628303897611</v>
+        <v>106265704200534.6</v>
       </c>
       <c r="C92" t="n">
-        <v>3.107192959660507e-06</v>
+        <v>2874446300578.66</v>
       </c>
       <c r="D92" t="n">
-        <v>0.759076852270911</v>
+        <v>0.7063956805917202</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001721244182282583</v>
+        <v>161112850921255.9</v>
       </c>
       <c r="C93" t="n">
-        <v>4.510016055079844e-06</v>
+        <v>4170988766376.846</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5580722958826894</v>
+        <v>0.8247446823450122</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2136,16 +2136,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0003605671229224687</v>
+        <v>341957939031623.5</v>
       </c>
       <c r="C94" t="n">
-        <v>9.274771666164085e-06</v>
+        <v>8685202006332.952</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00979704124220333</v>
+        <v>0.5310273199327399</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0004547168192098397</v>
+        <v>425713080858664.2</v>
       </c>
       <c r="C95" t="n">
-        <v>1.109931545938608e-05</v>
+        <v>10274040939927.38</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2319330598977328</v>
+        <v>0.6507250775716962</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0003766486701619357</v>
+        <v>351880136982225.1</v>
       </c>
       <c r="C96" t="n">
-        <v>9.170928849166195e-06</v>
+        <v>8477536181473.931</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3541305954114504</v>
+        <v>0.8475576941039693</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2193,16 +2193,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001809709834906233</v>
+        <v>168972558604918.4</v>
       </c>
       <c r="C97" t="n">
-        <v>4.883613531999857e-06</v>
+        <v>4467592437208.807</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5311516256198422</v>
+        <v>0.735228066111518</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2212,16 +2212,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>8.65702136208824e-05</v>
+        <v>81142879029885.78</v>
       </c>
       <c r="C98" t="n">
-        <v>2.515880366036001e-06</v>
+        <v>2296807585778.064</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3990483741266974</v>
+        <v>0.9912726369878153</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>5.373210302611565e-05</v>
+        <v>50213177080886.31</v>
       </c>
       <c r="C99" t="n">
-        <v>1.594643337907183e-06</v>
+        <v>1455148652029.459</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6814335293880256</v>
+        <v>0.9028641849820261</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>2.952423795346807e-05</v>
+        <v>27586286573379.54</v>
       </c>
       <c r="C100" t="n">
-        <v>9.256554581597477e-07</v>
+        <v>839458596492.075</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3245332421600774</v>
+        <v>0.9895345924394137</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2269,16 +2269,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>1.93027159083966e-05</v>
+        <v>17857465209026.25</v>
       </c>
       <c r="C101" t="n">
-        <v>5.971067287116709e-07</v>
+        <v>536154916131.5477</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6573542798385497</v>
+        <v>0.6887621731907905</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2288,16 +2288,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>1.317196879832352e-05</v>
+        <v>12307126274714.89</v>
       </c>
       <c r="C102" t="n">
-        <v>4.64878216080537e-07</v>
+        <v>425044675550.1993</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4596081227050348</v>
+        <v>0.3789929453876786</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2307,16 +2307,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>1.272617643565598e-05</v>
+        <v>11900875142676.17</v>
       </c>
       <c r="C103" t="n">
-        <v>4.935250010320531e-07</v>
+        <v>439926667464.5685</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3298205585865168</v>
+        <v>0.3427072233092791</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>1.550273045835626e-05</v>
+        <v>14370237766893.13</v>
       </c>
       <c r="C104" t="n">
-        <v>4.858261777529835e-07</v>
+        <v>439361402780.9331</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2891957559139359</v>
+        <v>0.2844324879737629</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2345,16 +2345,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>2.901809408480575e-05</v>
+        <v>27122202399583.24</v>
       </c>
       <c r="C105" t="n">
-        <v>9.37512179679572e-07</v>
+        <v>856463098542.0408</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5937637574404235</v>
+        <v>0.7360349239117021</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2364,16 +2364,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>4.155044961077943e-05</v>
+        <v>38716969986331.7</v>
       </c>
       <c r="C106" t="n">
-        <v>1.162247696556665e-06</v>
+        <v>1066228690999.274</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6641236682971954</v>
+        <v>0.5798746938516317</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>5.309462698797256e-05</v>
+        <v>49473146902110.71</v>
       </c>
       <c r="C107" t="n">
-        <v>1.498882524345083e-06</v>
+        <v>1378557575126.46</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7919798705078778</v>
+        <v>0.6912587755869049</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2402,16 +2402,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>5.40466469083233e-05</v>
+        <v>50239816804044.71</v>
       </c>
       <c r="C108" t="n">
-        <v>1.371986482688066e-06</v>
+        <v>1261086195440.589</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8382083083129486</v>
+        <v>0.8336744161752354</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>5.47251312330563e-05</v>
+        <v>50830184232776.69</v>
       </c>
       <c r="C109" t="n">
-        <v>1.511443846625376e-06</v>
+        <v>1373458650002.104</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4501959152442823</v>
+        <v>0.4589630309051889</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2440,16 +2440,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>5.242434920457305e-05</v>
+        <v>48786039908561.75</v>
       </c>
       <c r="C110" t="n">
-        <v>1.33844540259382e-06</v>
+        <v>1230617375978.162</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5084762766801751</v>
+        <v>0.4761066517405459</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2459,16 +2459,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>5.420538810289613e-05</v>
+        <v>50400979428113.06</v>
       </c>
       <c r="C111" t="n">
-        <v>1.394515357364506e-06</v>
+        <v>1279719046220.398</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1721331392491708</v>
+        <v>0.1683015623211329</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>5.484264083253762e-05</v>
+        <v>51101034994360.48</v>
       </c>
       <c r="C112" t="n">
-        <v>1.509048478153629e-06</v>
+        <v>1380888823812.116</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1481188726259937</v>
+        <v>0.1491617061292226</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>5.80642906835599e-05</v>
+        <v>53963976321040.19</v>
       </c>
       <c r="C113" t="n">
-        <v>1.487697190793486e-06</v>
+        <v>1364987681141.782</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9382351392026163</v>
+        <v>0.9395528079290754</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>6.061715327858496e-05</v>
+        <v>56432746220125.48</v>
       </c>
       <c r="C114" t="n">
-        <v>1.530944978679094e-06</v>
+        <v>1410860697162.061</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7306384951152215</v>
+        <v>0.7381795549240924</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2535,16 +2535,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>6.494491923059329e-05</v>
+        <v>60312594215350.2</v>
       </c>
       <c r="C115" t="n">
-        <v>1.650757068658758e-06</v>
+        <v>1513403641465.711</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8795863662921395</v>
+        <v>0.8822730435111279</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2554,16 +2554,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>6.554929558358417e-05</v>
+        <v>61057455891530.29</v>
       </c>
       <c r="C116" t="n">
-        <v>1.676670065365667e-06</v>
+        <v>1543352260915.349</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6173806167305167</v>
+        <v>0.6077079495271462</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>6.690475785273653e-05</v>
+        <v>62698502585171.28</v>
       </c>
       <c r="C117" t="n">
-        <v>1.798612415545321e-06</v>
+        <v>1665265396564.116</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1552058865673046</v>
+        <v>0.1577311692348331</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2592,16 +2592,16 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>6.555374177266117e-05</v>
+        <v>60991508652065.77</v>
       </c>
       <c r="C118" t="n">
-        <v>1.605037638285001e-06</v>
+        <v>1476702498943.505</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6774643131078739</v>
+        <v>0.6581786312111588</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2611,16 +2611,16 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>6.52453816116822e-05</v>
+        <v>60872386303325.45</v>
       </c>
       <c r="C119" t="n">
-        <v>1.675042084427731e-06</v>
+        <v>1545054216166.909</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3789721642783854</v>
+        <v>0.5803495286029492</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2630,16 +2630,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>5.429408313533508e-05</v>
+        <v>50586429184858.24</v>
       </c>
       <c r="C120" t="n">
-        <v>1.400812293080256e-06</v>
+        <v>1288058954387.012</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9528053908682149</v>
+        <v>0.8887039147383837</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2649,16 +2649,16 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>5.304155267864307e-05</v>
+        <v>49663933750784.97</v>
       </c>
       <c r="C121" t="n">
-        <v>1.486367819390085e-06</v>
+        <v>1367169611456.58</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1174164297064213</v>
+        <v>0.1873751917764018</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2668,16 +2668,16 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>4.267330334823559e-05</v>
+        <v>39546084855923.79</v>
       </c>
       <c r="C122" t="n">
-        <v>1.131153336944135e-06</v>
+        <v>1031267314702.86</v>
       </c>
       <c r="D122" t="n">
-        <v>0.362397588249945</v>
+        <v>0.3451791521255627</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2687,16 +2687,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>3.410170449493718e-05</v>
+        <v>31693747201348.93</v>
       </c>
       <c r="C123" t="n">
-        <v>9.067567440549036e-07</v>
+        <v>829230355093.1722</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9803829253662655</v>
+        <v>0.9898421537082488</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2706,16 +2706,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>3.615465248128747e-05</v>
+        <v>33681919491480.3</v>
       </c>
       <c r="C124" t="n">
-        <v>1.108250815058388e-06</v>
+        <v>1009877186217.933</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7585889656209261</v>
+        <v>0.7272904124261397</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2725,16 +2725,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>4.576642328192917e-05</v>
+        <v>42692819957290.62</v>
       </c>
       <c r="C125" t="n">
-        <v>1.232442697413956e-06</v>
+        <v>1126629865106.597</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5251695417006488</v>
+        <v>0.5969613210761111</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>6.232206198584971e-05</v>
+        <v>58094997114667.94</v>
       </c>
       <c r="C126" t="n">
-        <v>1.602885569635111e-06</v>
+        <v>1475958271404.957</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8307941174865389</v>
+        <v>0.8137418492370063</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2763,16 +2763,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>6.031488348511882e-05</v>
+        <v>56141366709886.98</v>
       </c>
       <c r="C127" t="n">
-        <v>1.554198396858351e-06</v>
+        <v>1427645512936.019</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9253344467044723</v>
+        <v>0.9997581434278008</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2782,16 +2782,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>9.701395171569707e-05</v>
+        <v>90650940040291.53</v>
       </c>
       <c r="C128" t="n">
-        <v>2.460382306298626e-06</v>
+        <v>2270880828210.21</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7318317226304</v>
+        <v>0.9841195130292738</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -2801,16 +2801,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001790724762100528</v>
+        <v>167553837103697.1</v>
       </c>
       <c r="C129" t="n">
-        <v>4.561219110830096e-06</v>
+        <v>4216196508045.745</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3727559434584468</v>
+        <v>0.9888633880519365</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -2820,16 +2820,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0001959134677370861</v>
+        <v>183473953042612.2</v>
       </c>
       <c r="C130" t="n">
-        <v>5.089077628326244e-06</v>
+        <v>4696915859144.479</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3041768944336496</v>
+        <v>0.9980974747372774</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -2839,16 +2839,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002059973343063441</v>
+        <v>192196496761091.3</v>
       </c>
       <c r="C131" t="n">
-        <v>5.490216915343684e-06</v>
+        <v>5038745207188.402</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3090208562189749</v>
+        <v>0.3471344122587808</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -2858,16 +2858,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002357433705071552</v>
+        <v>219174492244273.8</v>
       </c>
       <c r="C132" t="n">
-        <v>5.899847418375968e-06</v>
+        <v>5404997279429.759</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7884881118373439</v>
+        <v>0.9686701305582173</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002681366793096546</v>
+        <v>250605247638866.8</v>
       </c>
       <c r="C133" t="n">
-        <v>6.571513919814568e-06</v>
+        <v>6078298046782.861</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5719045235282452</v>
+        <v>0.9951148812527698</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0002823949404465356</v>
+        <v>263461852419616.9</v>
       </c>
       <c r="C134" t="n">
-        <v>6.889401869241958e-06</v>
+        <v>6359681413110.878</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5533171505671733</v>
+        <v>0.9943535106661517</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -2915,16 +2915,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002729044165321484</v>
+        <v>254514138195408.3</v>
       </c>
       <c r="C135" t="n">
-        <v>6.862076957705078e-06</v>
+        <v>6311422524588.105</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6516351837852399</v>
+        <v>0.989112703346961</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -2934,16 +2934,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.000248191843915478</v>
+        <v>232088446074654.7</v>
       </c>
       <c r="C136" t="n">
-        <v>6.188101343175086e-06</v>
+        <v>5723881273325.737</v>
       </c>
       <c r="D136" t="n">
-        <v>0.531960567571705</v>
+        <v>0.9938825386543326</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -2953,16 +2953,16 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001986155288190323</v>
+        <v>185907307488042.6</v>
       </c>
       <c r="C137" t="n">
-        <v>5.155137317545351e-06</v>
+        <v>4742382139201.39</v>
       </c>
       <c r="D137" t="n">
-        <v>0.313038257942413</v>
+        <v>0.8275740850288882</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001397712277168646</v>
+        <v>132139827516566.4</v>
       </c>
       <c r="C138" t="n">
-        <v>3.608055843395911e-06</v>
+        <v>3363625290542.472</v>
       </c>
       <c r="D138" t="n">
-        <v>0.03405104175780052</v>
+        <v>0.951695333847952</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -2991,16 +2991,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>9.598496097773475e-05</v>
+        <v>89403147660786.59</v>
       </c>
       <c r="C139" t="n">
-        <v>2.611594312299574e-06</v>
+        <v>2385808807873.293</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5344806751553914</v>
+        <v>0.964504837299163</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3010,16 +3010,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>7.799520302221238e-05</v>
+        <v>72465277565398.97</v>
       </c>
       <c r="C140" t="n">
-        <v>2.31653786036153e-06</v>
+        <v>2092434819763.496</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7668966134370832</v>
+        <v>0.7891270197137639</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3029,16 +3029,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>6.357353435406461e-05</v>
+        <v>59178085314862.94</v>
       </c>
       <c r="C141" t="n">
-        <v>1.771857675821897e-06</v>
+        <v>1612837471487.559</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5377149107532999</v>
+        <v>0.8866474159629933</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3048,16 +3048,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>5.344779186371237e-05</v>
+        <v>49979104080287.42</v>
       </c>
       <c r="C142" t="n">
-        <v>1.616992220435233e-06</v>
+        <v>1476975751273.085</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2998519034195899</v>
+        <v>0.5902475037058249</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3067,16 +3067,16 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>5.964991071525563e-05</v>
+        <v>55473840461636.96</v>
       </c>
       <c r="C143" t="n">
-        <v>1.819834217473156e-06</v>
+        <v>1653105832600.909</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8637351909163962</v>
+        <v>0.8996717353970096</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3086,16 +3086,16 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002225641007911923</v>
+        <v>208288347225201.8</v>
       </c>
       <c r="C144" t="n">
-        <v>5.863931262524989e-06</v>
+        <v>5406977609063.819</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2206455915469472</v>
+        <v>0.8838349313314193</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3105,16 +3105,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0004213239301090198</v>
+        <v>394329078688168</v>
       </c>
       <c r="C145" t="n">
-        <v>9.756826572800204e-06</v>
+        <v>9092503811439.889</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3955463187996712</v>
+        <v>0.8318644224222197</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3124,16 +3124,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0004679420490699201</v>
+        <v>438172222589403.4</v>
       </c>
       <c r="C146" t="n">
-        <v>1.109697884371533e-05</v>
+        <v>10327069980288.19</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4870943343495798</v>
+        <v>0.9381216267473841</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3143,16 +3143,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0004920633945198861</v>
+        <v>461572760340374.9</v>
       </c>
       <c r="C147" t="n">
-        <v>1.186046676339387e-05</v>
+        <v>11040923524765.45</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3483962818821095</v>
+        <v>0.9643208939215485</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0004812295019451203</v>
+        <v>452005989064727</v>
       </c>
       <c r="C148" t="n">
-        <v>1.157811118723136e-05</v>
+        <v>10808148551999.85</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2853883156296646</v>
+        <v>0.8864188552098906</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3181,16 +3181,16 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0004814533068235167</v>
+        <v>451106548554193.6</v>
       </c>
       <c r="C149" t="n">
-        <v>1.158175136576416e-05</v>
+        <v>10775482240767.02</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3991208428528575</v>
+        <v>0.9535198218600458</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3200,16 +3200,16 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0005958336363486988</v>
+        <v>557768344071548.9</v>
       </c>
       <c r="C150" t="n">
-        <v>1.416711845408635e-05</v>
+        <v>13144635988379.48</v>
       </c>
       <c r="D150" t="n">
-        <v>0.2736668274288681</v>
+        <v>0.9068143405629178</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0006212640943447996</v>
+        <v>583162975104215</v>
       </c>
       <c r="C151" t="n">
-        <v>1.460173260215803e-05</v>
+        <v>13638006190949.23</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2170055701628713</v>
+        <v>0.8859302277392622</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3238,16 +3238,16 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006218709723196476</v>
+        <v>581656399471979.8</v>
       </c>
       <c r="C152" t="n">
-        <v>1.472906713069685e-05</v>
+        <v>13671268083074.77</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3881209176542333</v>
+        <v>0.8354043890766223</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006268895006585215</v>
+        <v>589308804701255</v>
       </c>
       <c r="C153" t="n">
-        <v>1.4635373405462e-05</v>
+        <v>13697042275500.73</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1556927754970403</v>
+        <v>0.7482630961037771</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3276,16 +3276,16 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006374594663919428</v>
+        <v>595402809464343.8</v>
       </c>
       <c r="C154" t="n">
-        <v>1.505674943811791e-05</v>
+        <v>13938217179947.86</v>
       </c>
       <c r="D154" t="n">
-        <v>0.20700379876813</v>
+        <v>0.4768392460346808</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3295,16 +3295,16 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006286156524217504</v>
+        <v>587921992411044</v>
       </c>
       <c r="C155" t="n">
-        <v>1.479524752145032e-05</v>
+        <v>13756669983336.44</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4545708789907391</v>
+        <v>0.8453737618025872</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3314,16 +3314,16 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.000617223708246716</v>
+        <v>577441423189926.4</v>
       </c>
       <c r="C156" t="n">
-        <v>1.439749579822433e-05</v>
+        <v>13389740125518.11</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4422400082356567</v>
+        <v>0.9226932745746496</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3333,16 +3333,16 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005147397089845236</v>
+        <v>482269122227783</v>
       </c>
       <c r="C157" t="n">
-        <v>1.188471062112914e-05</v>
+        <v>11079661094127.04</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3611667893604139</v>
+        <v>0.9172637932291539</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3352,16 +3352,16 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0003791896666909078</v>
+        <v>354999723379331.7</v>
       </c>
       <c r="C158" t="n">
-        <v>9.234578157900583e-06</v>
+        <v>8556157518340.444</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2671594806459473</v>
+        <v>0.847587977893674</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3371,16 +3371,16 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002767524166901385</v>
+        <v>258226756034263.6</v>
       </c>
       <c r="C159" t="n">
-        <v>6.612196238292125e-06</v>
+        <v>6112219399208.492</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6622238163175364</v>
+        <v>0.9493780024621751</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3390,16 +3390,16 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002883086033306753</v>
+        <v>269739738754870.7</v>
       </c>
       <c r="C160" t="n">
-        <v>7.155538478050902e-06</v>
+        <v>6609450129918.681</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1611882982406646</v>
+        <v>0.3841389550107511</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3409,16 +3409,16 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0002221198303384071</v>
+        <v>207442943080650.2</v>
       </c>
       <c r="C161" t="n">
-        <v>5.393509183582107e-06</v>
+        <v>4972416245030.759</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4570560490450249</v>
+        <v>0.9837103568126067</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3428,16 +3428,16 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0002220386951991223</v>
+        <v>207344333306703</v>
       </c>
       <c r="C162" t="n">
-        <v>5.445009259159107e-06</v>
+        <v>5026236686578.706</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6836177939457656</v>
+        <v>0.9919125286599531</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3447,16 +3447,16 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002139780056771204</v>
+        <v>200809830766511</v>
       </c>
       <c r="C163" t="n">
-        <v>5.18759706433012e-06</v>
+        <v>4820327393424.592</v>
       </c>
       <c r="D163" t="n">
-        <v>0.257404614250549</v>
+        <v>0.9963946102983001</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3466,16 +3466,16 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.000197328803071349</v>
+        <v>184261027621349.4</v>
       </c>
       <c r="C164" t="n">
-        <v>4.85391671486998e-06</v>
+        <v>4475332046377.64</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5801968569428178</v>
+        <v>0.9994198746308094</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3485,16 +3485,16 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.000183419839739366</v>
+        <v>171747027829077.8</v>
       </c>
       <c r="C165" t="n">
-        <v>4.625884632231671e-06</v>
+        <v>4274647438655.415</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3001359556127002</v>
+        <v>0.9597283977996236</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3504,16 +3504,16 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001747737959840143</v>
+        <v>163708974464773.2</v>
       </c>
       <c r="C166" t="n">
-        <v>4.632145733250127e-06</v>
+        <v>4258962302309.416</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1707096765377125</v>
+        <v>0.4746242600677978</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3523,16 +3523,16 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001675593141011447</v>
+        <v>156366208156073.8</v>
       </c>
       <c r="C167" t="n">
-        <v>4.134578749264506e-06</v>
+        <v>3812630050366.769</v>
       </c>
       <c r="D167" t="n">
-        <v>0.402122077098497</v>
+        <v>0.8004365070678522</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.000140476862647785</v>
+        <v>131836463327140</v>
       </c>
       <c r="C168" t="n">
-        <v>3.524711142994441e-06</v>
+        <v>3269081957548.205</v>
       </c>
       <c r="D168" t="n">
-        <v>0.2795211429648685</v>
+        <v>0.8367854746862677</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3561,16 +3561,16 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001269106507144066</v>
+        <v>118462152815165.3</v>
       </c>
       <c r="C169" t="n">
-        <v>3.131136252425954e-06</v>
+        <v>2889549259796.113</v>
       </c>
       <c r="D169" t="n">
-        <v>0.7802461845680622</v>
+        <v>0.9493078978873364</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3580,16 +3580,16 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>8.071646996762628e-05</v>
+        <v>75546294054179.7</v>
       </c>
       <c r="C170" t="n">
-        <v>2.337428615543087e-06</v>
+        <v>2137383748682.563</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4784687497222494</v>
+        <v>0.7526421564138199</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3599,16 +3599,16 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>5.983802948090401e-05</v>
+        <v>55608679565638.44</v>
       </c>
       <c r="C171" t="n">
-        <v>1.641387973503063e-06</v>
+        <v>1497763699150.535</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3403165609174936</v>
+        <v>0.3749241079276779</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>6.600497163521159e-05</v>
+        <v>61120760268883.2</v>
       </c>
       <c r="C172" t="n">
-        <v>1.879332338361524e-06</v>
+        <v>1702322519542.132</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3649393868790528</v>
+        <v>0.3354571027050164</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>8.821880339716936e-05</v>
+        <v>82292629708484.28</v>
       </c>
       <c r="C173" t="n">
-        <v>2.74233064160577e-06</v>
+        <v>2510076831003.055</v>
       </c>
       <c r="D173" t="n">
-        <v>0.635912147733908</v>
+        <v>0.7828244256042904</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3656,16 +3656,16 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001137205254380706</v>
+        <v>106648790383300.2</v>
       </c>
       <c r="C174" t="n">
-        <v>3.051064053867918e-06</v>
+        <v>2833556791173.545</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4720361822967479</v>
+        <v>0.8059089719943776</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3675,16 +3675,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001261335720527543</v>
+        <v>117228512018284.7</v>
       </c>
       <c r="C175" t="n">
-        <v>3.859335973433331e-06</v>
+        <v>3541150706099.072</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4454936269863462</v>
+        <v>0.4880145746358506</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3694,16 +3694,16 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001728089850224592</v>
+        <v>160695439738095.8</v>
       </c>
       <c r="C176" t="n">
-        <v>5.589173989452801e-06</v>
+        <v>5096050877879.715</v>
       </c>
       <c r="D176" t="n">
-        <v>0.7447765042360355</v>
+        <v>0.7659486632319815</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3713,16 +3713,16 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002587386491283566</v>
+        <v>241425918098506.9</v>
       </c>
       <c r="C177" t="n">
-        <v>7.507050145142183e-06</v>
+        <v>6896544347187.64</v>
       </c>
       <c r="D177" t="n">
-        <v>0.6164854889104217</v>
+        <v>0.7941202816522503</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -3732,16 +3732,16 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003073466811827899</v>
+        <v>287007641816055.4</v>
       </c>
       <c r="C178" t="n">
-        <v>9.25081830731581e-06</v>
+        <v>8487292726398.383</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3581231851450458</v>
+        <v>0.486277044800177</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -3751,16 +3751,16 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003755769911170359</v>
+        <v>351470626002505.8</v>
       </c>
       <c r="C179" t="n">
-        <v>1.065913958788587e-05</v>
+        <v>9836570527898.961</v>
       </c>
       <c r="D179" t="n">
-        <v>0.6352785528893506</v>
+        <v>0.8888156801095761</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -3770,16 +3770,16 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005019030911133385</v>
+        <v>470983308249555.4</v>
       </c>
       <c r="C180" t="n">
-        <v>1.33918705934569e-05</v>
+        <v>12415450100914.65</v>
       </c>
       <c r="D180" t="n">
-        <v>0.5492422851185675</v>
+        <v>0.7295937513379211</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -3789,16 +3789,16 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0004989993897634522</v>
+        <v>466773114290185</v>
       </c>
       <c r="C181" t="n">
-        <v>1.217792319013086e-05</v>
+        <v>11288150561944.71</v>
       </c>
       <c r="D181" t="n">
-        <v>0.3782305214934744</v>
+        <v>0.9625221982565922</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -3808,16 +3808,16 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007526894261568073</v>
+        <v>704237191974450.9</v>
       </c>
       <c r="C182" t="n">
-        <v>1.960138373043308e-05</v>
+        <v>18097312081496.26</v>
       </c>
       <c r="D182" t="n">
-        <v>0.5697422006180801</v>
+        <v>0.9406681190650548</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -3827,16 +3827,16 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0009633180133935657</v>
+        <v>904315095361661.2</v>
       </c>
       <c r="C183" t="n">
-        <v>2.480986514359911e-05</v>
+        <v>23055665241270.73</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1192969147412924</v>
+        <v>0.2446822772919369</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -3846,16 +3846,16 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001262488129173153</v>
+        <v>1177473220068922</v>
       </c>
       <c r="C184" t="n">
-        <v>2.955077543494556e-05</v>
+        <v>27399297789840.27</v>
       </c>
       <c r="D184" t="n">
-        <v>0.258297855184591</v>
+        <v>0.2877359300867926</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001478420066147818</v>
+        <v>1384345298487093</v>
       </c>
       <c r="C185" t="n">
-        <v>3.416203433747902e-05</v>
+        <v>31814707094339.13</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3882306911871304</v>
+        <v>0.9729268463728129</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -3884,16 +3884,16 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001438395614859874</v>
+        <v>1348151023147123</v>
       </c>
       <c r="C186" t="n">
-        <v>3.208302817937662e-05</v>
+        <v>30085723482490.93</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1062229952734869</v>
+        <v>0.2744566367717167</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -3903,16 +3903,16 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001416300026610696</v>
+        <v>1328736063142971</v>
       </c>
       <c r="C187" t="n">
-        <v>3.209178438623055e-05</v>
+        <v>30041968011213.96</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2758843907474242</v>
+        <v>0.9758506165802492</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -3922,16 +3922,16 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001331046342980817</v>
+        <v>1248552128637073</v>
       </c>
       <c r="C188" t="n">
-        <v>3.045112599133121e-05</v>
+        <v>28508430021993.29</v>
       </c>
       <c r="D188" t="n">
-        <v>0.09410968936766596</v>
+        <v>0.2923399269297329</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -3941,16 +3941,16 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001156262864688409</v>
+        <v>1083072656046490</v>
       </c>
       <c r="C189" t="n">
-        <v>2.552189482431198e-05</v>
+        <v>23928448667922.55</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2227975990139678</v>
+        <v>0.500495035437541</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -3960,16 +3960,16 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001098426443494892</v>
+        <v>1028814972055605</v>
       </c>
       <c r="C190" t="n">
-        <v>2.447649602654942e-05</v>
+        <v>22912251401855.68</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1087365927111919</v>
+        <v>0.2514828203372818</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -3979,16 +3979,16 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0009416419643730322</v>
+        <v>883251224949459.5</v>
       </c>
       <c r="C191" t="n">
-        <v>2.104791911529774e-05</v>
+        <v>19732676201813.98</v>
       </c>
       <c r="D191" t="n">
-        <v>0.07856775593732311</v>
+        <v>0.2503744758793741</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -3998,16 +3998,16 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0007494748804475219</v>
+        <v>702542873009887.2</v>
       </c>
       <c r="C192" t="n">
-        <v>1.686681946981717e-05</v>
+        <v>15772043487224.39</v>
       </c>
       <c r="D192" t="n">
-        <v>0.08741146868359712</v>
+        <v>0.3173085879826165</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0006324374409487314</v>
+        <v>590590245812690.1</v>
       </c>
       <c r="C193" t="n">
-        <v>1.446154510996787e-05</v>
+        <v>13425876053638.07</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2176543752655591</v>
+        <v>0.3746407756711529</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4036,16 +4036,16 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0004651002747750747</v>
+        <v>435101575944067.9</v>
       </c>
       <c r="C194" t="n">
-        <v>1.109826244420523e-05</v>
+        <v>10259183503305.45</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2611250286502723</v>
+        <v>0.9683285543808791</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4055,16 +4055,16 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0004799837591596374</v>
+        <v>449985394570093.5</v>
       </c>
       <c r="C195" t="n">
-        <v>1.103410625682048e-05</v>
+        <v>10296735143251.23</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1854761191952952</v>
+        <v>0.4938818264270843</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4074,16 +4074,16 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.000323596511585794</v>
+        <v>302369826377690.1</v>
       </c>
       <c r="C196" t="n">
-        <v>7.625879251775777e-06</v>
+        <v>7062510555376.966</v>
       </c>
       <c r="D196" t="n">
-        <v>0.2221679383363439</v>
+        <v>0.3503690593929486</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4093,16 +4093,16 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0001995063779418909</v>
+        <v>186485446504874.4</v>
       </c>
       <c r="C197" t="n">
-        <v>5.08263341418064e-06</v>
+        <v>4671164075322.326</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2774680845918389</v>
+        <v>0.9898100923307189</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4112,16 +4112,16 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002016900827205353</v>
+        <v>187803700703165.9</v>
       </c>
       <c r="C198" t="n">
-        <v>4.965359194030042e-06</v>
+        <v>4557715766580.511</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6214555031238278</v>
+        <v>0.8335271658676278</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4131,16 +4131,16 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.000152128640339068</v>
+        <v>141816109001455.4</v>
       </c>
       <c r="C199" t="n">
-        <v>3.923327510089129e-06</v>
+        <v>3593811353192.456</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3687837256691844</v>
+        <v>0.9576786362140638</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4150,16 +4150,16 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0001443806652850121</v>
+        <v>134166824303271.2</v>
       </c>
       <c r="C200" t="n">
-        <v>3.615308381154529e-06</v>
+        <v>3302464012432.287</v>
       </c>
       <c r="D200" t="n">
-        <v>0.660544676425793</v>
+        <v>0.6962105896742772</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0001353433368086314</v>
+        <v>126056731800219</v>
       </c>
       <c r="C201" t="n">
-        <v>3.40486030946515e-06</v>
+        <v>3119157161294.838</v>
       </c>
       <c r="D201" t="n">
-        <v>0.4767042693679959</v>
+        <v>0.9405710862676681</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4188,16 +4188,16 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002271618673591836</v>
+        <v>212739753938484.6</v>
       </c>
       <c r="C202" t="n">
-        <v>5.786552361368406e-06</v>
+        <v>5336907404315.811</v>
       </c>
       <c r="D202" t="n">
-        <v>0.2620307668054148</v>
+        <v>0.9140144256699122</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4207,16 +4207,16 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0001759104720207768</v>
+        <v>164277810827545.2</v>
       </c>
       <c r="C203" t="n">
-        <v>4.120987387064062e-06</v>
+        <v>3816643613235.932</v>
       </c>
       <c r="D203" t="n">
-        <v>0.2384608733278347</v>
+        <v>0.5182394398771261</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4226,16 +4226,16 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002766682990923271</v>
+        <v>258291094477559.7</v>
       </c>
       <c r="C204" t="n">
-        <v>6.967085187918751e-06</v>
+        <v>6412575400334.952</v>
       </c>
       <c r="D204" t="n">
-        <v>0.6246378993967302</v>
+        <v>0.919776827974207</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4245,16 +4245,16 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002628376208242592</v>
+        <v>245245972670688.8</v>
       </c>
       <c r="C205" t="n">
-        <v>6.619302795325116e-06</v>
+        <v>6087374490907.386</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5585475872803929</v>
+        <v>0.9233375447151411</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4264,16 +4264,16 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002523913228537872</v>
+        <v>235574505469787.3</v>
       </c>
       <c r="C206" t="n">
-        <v>6.436796949769317e-06</v>
+        <v>5913539389506.283</v>
       </c>
       <c r="D206" t="n">
-        <v>0.2945163388650948</v>
+        <v>0.7193383412965748</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4283,16 +4283,16 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002499664822982917</v>
+        <v>232971957778017.2</v>
       </c>
       <c r="C207" t="n">
-        <v>6.347940908233775e-06</v>
+        <v>5819733668236.115</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2414689400473121</v>
+        <v>0.530185782309969</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4302,16 +4302,16 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002434515212549926</v>
+        <v>227823178615604.4</v>
       </c>
       <c r="C208" t="n">
-        <v>6.252251736096539e-06</v>
+        <v>5765132011798.405</v>
       </c>
       <c r="D208" t="n">
-        <v>0.4926404463890927</v>
+        <v>0.9779175860039409</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4321,16 +4321,16 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002309700224348668</v>
+        <v>216151328816244.1</v>
       </c>
       <c r="C209" t="n">
-        <v>5.5137817293881e-06</v>
+        <v>5110731721018.169</v>
       </c>
       <c r="D209" t="n">
-        <v>0.306276524656127</v>
+        <v>0.9832713168591578</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4340,16 +4340,16 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002342281548205718</v>
+        <v>218828870823395.8</v>
       </c>
       <c r="C210" t="n">
-        <v>5.905212740884756e-06</v>
+        <v>5446813688151.322</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6838612880338254</v>
+        <v>0.9842787481928233</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4359,16 +4359,16 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0001380192483883197</v>
+        <v>129023309767179.3</v>
       </c>
       <c r="C211" t="n">
-        <v>3.359864740650542e-06</v>
+        <v>3102438820410.233</v>
       </c>
       <c r="D211" t="n">
-        <v>0.3198869463366667</v>
+        <v>0.8028925887094447</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4378,16 +4378,16 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>6.049833045594503e-05</v>
+        <v>56579370072237.13</v>
       </c>
       <c r="C212" t="n">
-        <v>1.77828878752633e-06</v>
+        <v>1620550978322.688</v>
       </c>
       <c r="D212" t="n">
-        <v>0.4928263339449479</v>
+        <v>0.9601528407930906</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>3.908058341291929e-05</v>
+        <v>36351232686918.77</v>
       </c>
       <c r="C213" t="n">
-        <v>1.288567032569191e-06</v>
+        <v>1156406122123.611</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7104138485480638</v>
+        <v>0.9580764932608808</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4416,16 +4416,16 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>5.452532710797551e-05</v>
+        <v>50898374508371.69</v>
       </c>
       <c r="C214" t="n">
-        <v>1.511979760704522e-06</v>
+        <v>1377148766229.61</v>
       </c>
       <c r="D214" t="n">
-        <v>0.573967838250323</v>
+        <v>0.8175440569634949</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4435,16 +4435,16 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>3.415019850698269e-05</v>
+        <v>32013975171207.22</v>
       </c>
       <c r="C215" t="n">
-        <v>1.082075747047993e-06</v>
+        <v>981774427013.465</v>
       </c>
       <c r="D215" t="n">
-        <v>0.3341630268589853</v>
+        <v>0.5948004234806172</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4454,16 +4454,16 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>2.663972797194945e-05</v>
+        <v>24750216240650.18</v>
       </c>
       <c r="C216" t="n">
-        <v>9.207805942691743e-07</v>
+        <v>826630606593.3401</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9565374577836944</v>
+        <v>0.956677040304047</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4473,16 +4473,16 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>2.327815611840813e-05</v>
+        <v>21531201416699.08</v>
       </c>
       <c r="C217" t="n">
-        <v>8.11300161171087e-07</v>
+        <v>720040673926.2271</v>
       </c>
       <c r="D217" t="n">
-        <v>0.8083385022625652</v>
+        <v>0.8933932140714722</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>2.147164096995571e-05</v>
+        <v>20070521729201.61</v>
       </c>
       <c r="C218" t="n">
-        <v>7.979713419754361e-07</v>
+        <v>713632337440.0046</v>
       </c>
       <c r="D218" t="n">
-        <v>0.08726524613381409</v>
+        <v>0.0758647528761159</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>2.08598680768509e-05</v>
+        <v>19597799198428.11</v>
       </c>
       <c r="C219" t="n">
-        <v>7.864597343684813e-07</v>
+        <v>708535609688.0934</v>
       </c>
       <c r="D219" t="n">
-        <v>0.3141299692500977</v>
+        <v>0.2610480516229145</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4530,16 +4530,16 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>2.574043296857423e-05</v>
+        <v>23825441265634.2</v>
       </c>
       <c r="C220" t="n">
-        <v>9.20685332665641e-07</v>
+        <v>818872652064.3329</v>
       </c>
       <c r="D220" t="n">
-        <v>0.7561380435399729</v>
+        <v>0.7427959416884302</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4549,16 +4549,16 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>2.559400661006807e-05</v>
+        <v>23833664531125.26</v>
       </c>
       <c r="C221" t="n">
-        <v>9.388251464084269e-07</v>
+        <v>838044962370.4185</v>
       </c>
       <c r="D221" t="n">
-        <v>0.959993104291183</v>
+        <v>0.96149952505225</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4568,16 +4568,16 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>2.884235041808614e-05</v>
+        <v>26604553411862.84</v>
       </c>
       <c r="C222" t="n">
-        <v>8.962595007224503e-07</v>
+        <v>796490869623.9098</v>
       </c>
       <c r="D222" t="n">
-        <v>0.7639885614363912</v>
+        <v>0.6516968451102381</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4587,16 +4587,16 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>3.3164831435499e-05</v>
+        <v>30701444194480.7</v>
       </c>
       <c r="C223" t="n">
-        <v>1.040185270062815e-06</v>
+        <v>930256500349.9475</v>
       </c>
       <c r="D223" t="n">
-        <v>0.8890903385752584</v>
+        <v>0.8691257476550205</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>

--- a/legendre_out/DATA/p2/p2Fits.xlsx
+++ b/legendre_out/DATA/p2/p2Fits.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,16 +388,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>7721386813473.623</v>
+        <v>8.819466890209767e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>239236038712.9319</v>
+        <v>2.732584666044602e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0238275089888393</v>
+        <v>0.02382750995591031</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -407,16 +407,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>11994793614376.07</v>
+        <v>1.37006068424099e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>365106760435.7393</v>
+        <v>4.170296168476945e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4856764722443805</v>
+        <v>0.4856764861301395</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -426,16 +426,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>14325514672425.17</v>
+        <v>1.636278628159607e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>416588675094.7449</v>
+        <v>4.758329176442646e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1091659497740987</v>
+        <v>0.1091659539297891</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -445,16 +445,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>20152150038701.33</v>
+        <v>2.301804380779223e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>550163154280.5787</v>
+        <v>6.284033987358383e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6032142098632453</v>
+        <v>0.6032141940869522</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -464,16 +464,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>21517745256050.07</v>
+        <v>2.457784414984172e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>613206389594.0001</v>
+        <v>7.004121895482014e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4069823200112702</v>
+        <v>0.4069823406318539</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -483,16 +483,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>21671025141120.91</v>
+        <v>2.475292241020945e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>616319582356.4357</v>
+        <v>7.039681190690511e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7512638513734603</v>
+        <v>0.7512638571479361</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -502,16 +502,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>24795634391420.55</v>
+        <v>2.832189109232445e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>644437813168.057</v>
+        <v>7.360851201077147e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4355799287151366</v>
+        <v>0.4355799345287011</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -521,16 +521,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>24307513087251.76</v>
+        <v>2.776435269531485e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>616762311806.2173</v>
+        <v>7.044738091859971e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8227128937046537</v>
+        <v>0.8227129141772682</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -540,16 +540,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>22189333396202.77</v>
+        <v>2.534494073666331e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>610847826935.4426</v>
+        <v>6.977182087472301e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1902575113799557</v>
+        <v>0.1902575120820872</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -559,16 +559,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>22066215508454.26</v>
+        <v>2.520431388860458e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>609796139766.0254</v>
+        <v>6.965169590460649e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5907837036648138</v>
+        <v>0.5907837103103959</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -578,16 +578,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>18880247321605.98</v>
+        <v>2.156526024838602e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>514436201284.6808</v>
+        <v>5.875956156724549e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3462034779970451</v>
+        <v>0.3462034843270332</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -597,16 +597,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>14406834764860.3</v>
+        <v>1.645567114102098e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>415508678488.1277</v>
+        <v>4.745993324745952e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001537676976930648</v>
+        <v>0.001537676822872036</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -616,16 +616,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>8252738679750.604</v>
+        <v>9.426383791463163e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>282887661643.1622</v>
+        <v>3.231179092334539e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6991947818087452</v>
+        <v>0.6991947753321557</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -635,16 +635,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>11764960184231.79</v>
+        <v>1.343808816174539e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>372739987562.4401</v>
+        <v>4.257483861023175e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8693708022327562</v>
+        <v>0.8693708176374071</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -654,16 +654,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>16134371794105.88</v>
+        <v>1.842888605574057e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>498409272925.429</v>
+        <v>5.692894539346985e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6635164987351125</v>
+        <v>0.6635165130797021</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -673,16 +673,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>18869094791278.29</v>
+        <v>2.155252168109817e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>559778860828.7219</v>
+        <v>6.393865834049551e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1453569878480484</v>
+        <v>0.1453569948128901</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>22281069479169.2</v>
+        <v>2.544972283929159e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>648092638740.4064</v>
+        <v>7.402597106911302e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007473111672536711</v>
+        <v>0.007473111737717737</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -711,16 +711,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>26817480783008.19</v>
+        <v>3.063126991385826e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>744477538379.8451</v>
+        <v>8.503517765502457e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7374692587798745</v>
+        <v>0.7374692489658232</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -730,16 +730,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>30101472295370.13</v>
+        <v>3.438228707251985e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>846753201601.6395</v>
+        <v>9.671723484894378e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4305095795894317</v>
+        <v>0.4305095851548041</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -749,16 +749,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>45565028077914.12</v>
+        <v>5.204495849027794e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1212709026389.855</v>
+        <v>1.38517177647849e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7156220230942377</v>
+        <v>0.7156220199547845</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -768,16 +768,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>130451912951058.1</v>
+        <v>0.0001490038455283936</v>
       </c>
       <c r="C22" t="n">
-        <v>3320769156975.773</v>
+        <v>3.793025049742925e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8900079704188313</v>
+        <v>0.8900079626860835</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>206108230748798.1</v>
+        <v>0.000235419460155689</v>
       </c>
       <c r="C23" t="n">
-        <v>5192411678617.655</v>
+        <v>5.930839104838835e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5056333230999506</v>
+        <v>0.5056333248898033</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -806,16 +806,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>308723361594694.8</v>
+        <v>0.0003526277764173752</v>
       </c>
       <c r="C24" t="n">
-        <v>7662180814845.796</v>
+        <v>8.751841031121204e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6951828194518205</v>
+        <v>0.6951828167662081</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -825,16 +825,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>312630571053684.5</v>
+        <v>0.0003570906411034677</v>
       </c>
       <c r="C25" t="n">
-        <v>7566305287909.939</v>
+        <v>8.642330780705501e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6383221809720363</v>
+        <v>0.6383221763728335</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -844,16 +844,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>290648201353995.6</v>
+        <v>0.0003319820970842881</v>
       </c>
       <c r="C26" t="n">
-        <v>7190111285742.86</v>
+        <v>8.21263717148202e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4078501255624862</v>
+        <v>0.4078501266509035</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -863,16 +863,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>276251723586837.3</v>
+        <v>0.0003155382558392645</v>
       </c>
       <c r="C27" t="n">
-        <v>6977489233526.492</v>
+        <v>7.969777537857187e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4175990302027284</v>
+        <v>0.4175990246710425</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -882,16 +882,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>277584891121239.9</v>
+        <v>0.0003170610168818279</v>
       </c>
       <c r="C28" t="n">
-        <v>7010503354756.363</v>
+        <v>8.007486692738877e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5274913633996021</v>
+        <v>0.5274913626951149</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -901,16 +901,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>281989341898140.6</v>
+        <v>0.0003220918368906234</v>
       </c>
       <c r="C29" t="n">
-        <v>6984895668969.661</v>
+        <v>7.978237266162684e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6381246766087277</v>
+        <v>0.6381246830737346</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -920,16 +920,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>271929484020871.6</v>
+        <v>0.0003106013382673095</v>
       </c>
       <c r="C30" t="n">
-        <v>6763036136712.661</v>
+        <v>7.724826459839104e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>0.309762599240295</v>
+        <v>0.3097626028827134</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>274564814277344.2</v>
+        <v>0.0003136114463312155</v>
       </c>
       <c r="C31" t="n">
-        <v>6836366360803.684</v>
+        <v>7.80858519257057e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5565556921959443</v>
+        <v>0.5565557035703377</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -958,16 +958,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>273330254402903.6</v>
+        <v>0.0003122013164842701</v>
       </c>
       <c r="C32" t="n">
-        <v>6885387149617.343</v>
+        <v>7.864577363540937e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3371356074201325</v>
+        <v>0.3371356180075312</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -977,16 +977,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>265438540401236.5</v>
+        <v>0.0003031872997426252</v>
       </c>
       <c r="C33" t="n">
-        <v>6567936383560.923</v>
+        <v>7.501981045618106e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5039940869082669</v>
+        <v>0.5039940814606071</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>259034761724710.1</v>
+        <v>0.0002958728213515772</v>
       </c>
       <c r="C34" t="n">
-        <v>6556962223495.88</v>
+        <v>7.489446212684108e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>0.711876952570843</v>
+        <v>0.7118769534364933</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1015,16 +1015,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>241323014178667.2</v>
+        <v>0.0002756422368554605</v>
       </c>
       <c r="C35" t="n">
-        <v>6033334358583.57</v>
+        <v>6.891351751617953e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2669214855857543</v>
+        <v>0.2669214808677928</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>219563859687977.3</v>
+        <v>0.0002507886519229948</v>
       </c>
       <c r="C36" t="n">
-        <v>5476856551986.388</v>
+        <v>6.255735678294338e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1984855158733536</v>
+        <v>0.1984855066489429</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1053,16 +1053,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>178422696843763.6</v>
+        <v>0.0002037966887689798</v>
       </c>
       <c r="C37" t="n">
-        <v>4410945949236.481</v>
+        <v>5.038238927580641e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5153941074098113</v>
+        <v>0.5153941197554093</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1072,16 +1072,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>142323757112282.2</v>
+        <v>0.0001625640180041803</v>
       </c>
       <c r="C38" t="n">
-        <v>3507119036631.457</v>
+        <v>4.005876271424973e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6146483631476474</v>
+        <v>0.614648369133179</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>95725341402996.52</v>
+        <v>0.0001093387107647033</v>
       </c>
       <c r="C39" t="n">
-        <v>2387160426518.613</v>
+        <v>2.72664520485288e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3263978973492176</v>
+        <v>0.3263978818075528</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>135459738729064.9</v>
+        <v>0.0001547238482059898</v>
       </c>
       <c r="C40" t="n">
-        <v>3405256979896.177</v>
+        <v>3.889528123048973e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7781152840198553</v>
+        <v>0.7781152963098251</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1129,16 +1129,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>67707278445691.77</v>
+        <v>7.733612038922368e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1735815129098.486</v>
+        <v>1.982670266193871e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5232461035710634</v>
+        <v>0.5232461184360082</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>46001316239469.5</v>
+        <v>5.254329241434402e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1194169898247.184</v>
+        <v>1.363996147471463e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7947560850891799</v>
+        <v>0.7947560883266604</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>35157113130996.13</v>
+        <v>4.015690477570473e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>927143338401.3923</v>
+        <v>1.058994992869787e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3019025694815825</v>
+        <v>0.3019025783706989</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>21340838477139.95</v>
+        <v>2.437577896705834e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>608650404720.1685</v>
+        <v>6.952082861849813e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3155408705599239</v>
+        <v>0.3155408670790505</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1205,16 +1205,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>18937513786009.22</v>
+        <v>2.163067071527197e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>568799855405.0635</v>
+        <v>6.496904777191727e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05872018841558982</v>
+        <v>0.05872018647657259</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1224,16 +1224,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>18074694999434.38</v>
+        <v>2.06451480533105e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>531478944070.1121</v>
+        <v>6.070620557502889e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6494043536255441</v>
+        <v>0.6494043564852343</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>19768434244162.53</v>
+        <v>2.257975869554907e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>555908761365.5531</v>
+        <v>6.349661045738748e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4858327291408072</v>
+        <v>0.4858327272819065</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>25150014226828.13</v>
+        <v>2.872666827721698e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>678399228897.358</v>
+        <v>7.748762863726505e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8821625247693849</v>
+        <v>0.8821625228288366</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>34674509981723.06</v>
+        <v>3.960566927688777e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>909086920938.3792</v>
+        <v>1.038370720591826e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3567249890726178</v>
+        <v>0.3567249798599514</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>50227451751363.61</v>
+        <v>5.737043851205674e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>1289212343673.363</v>
+        <v>1.472554845493506e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2528410721965829</v>
+        <v>0.2528410734084642</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1319,16 +1319,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>63020350522555.77</v>
+        <v>7.198265129907533e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1558882559699.772</v>
+        <v>1.780575619537714e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7626982400964577</v>
+        <v>0.762698232892926</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1338,16 +1338,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>118410349359121.3</v>
+        <v>0.0001352498170400256</v>
       </c>
       <c r="C52" t="n">
-        <v>3033495058022.745</v>
+        <v>3.464896896038091e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5344088787050966</v>
+        <v>0.5344088286005895</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>185822818651899.6</v>
+        <v>0.0002122492029697301</v>
       </c>
       <c r="C53" t="n">
-        <v>4628172195518.131</v>
+        <v>5.286357541593251e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8954712625086172</v>
+        <v>0.8954712637583589</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1376,16 +1376,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>435309024868020.1</v>
+        <v>0.0004972155419920545</v>
       </c>
       <c r="C54" t="n">
-        <v>11022384846324.28</v>
+        <v>1.258990909967028e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.965296859023698</v>
+        <v>0.9652968622246553</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1395,16 +1395,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>651251046209255.5</v>
+        <v>0.0007438672839373054</v>
       </c>
       <c r="C55" t="n">
-        <v>16105033435649.56</v>
+        <v>1.8395375399521e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4944855728484546</v>
+        <v>0.4944855753252739</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>686727331313491.8</v>
+        <v>0.0007843887507856526</v>
       </c>
       <c r="C56" t="n">
-        <v>16704426697146.81</v>
+        <v>1.90800100575975e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0.314940785417221</v>
+        <v>0.3149407866652904</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>506365703660203.8</v>
+        <v>0.0005783773903470268</v>
       </c>
       <c r="C57" t="n">
-        <v>12588089183374.41</v>
+        <v>1.437827664721859e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5379140204377246</v>
+        <v>0.5379140272974566</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>240624732518166.8</v>
+        <v>0.0002748446504791263</v>
       </c>
       <c r="C58" t="n">
-        <v>6073561306637.576</v>
+        <v>6.937299496572314e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3683576322096381</v>
+        <v>0.3683576250551849</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1471,16 +1471,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>177043151214137.3</v>
+        <v>0.0002022209540902729</v>
       </c>
       <c r="C59" t="n">
-        <v>4508246845011.298</v>
+        <v>5.149377275988459e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6820647253602583</v>
+        <v>0.6820647491945745</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1490,16 +1490,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>236298048818852.2</v>
+        <v>0.0002699026568578708</v>
       </c>
       <c r="C60" t="n">
-        <v>5874441312859.572</v>
+        <v>6.709862081316827e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4511047694178517</v>
+        <v>0.4511047515657669</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1509,16 +1509,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>91220258369202.84</v>
+        <v>0.0001041929469791144</v>
       </c>
       <c r="C61" t="n">
-        <v>2369997602701.934</v>
+        <v>2.707041608326485e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3336981436796406</v>
+        <v>0.3336981654668602</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1528,16 +1528,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>61030555255486.98</v>
+        <v>6.970988166146895e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1557914301851.195</v>
+        <v>1.779469663511409e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3464619834988116</v>
+        <v>0.3464619894847884</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1547,16 +1547,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>34677756908311.16</v>
+        <v>3.960937796738595e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>941567629609.6213</v>
+        <v>1.075470602771379e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4640283703715926</v>
+        <v>0.4640283718891611</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1566,16 +1566,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>26025557824001.81</v>
+        <v>2.972672538263759e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>712127432432.0382</v>
+        <v>8.134010711668426e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5423432334602291</v>
+        <v>0.5423432481672725</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1585,16 +1585,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>58457265368013.01</v>
+        <v>6.677063701810879e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1545710814635.071</v>
+        <v>1.765530684130124e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7583844001199989</v>
+        <v>0.7583844005355773</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>173329757763573.6</v>
+        <v>0.0001979794688041133</v>
       </c>
       <c r="C66" t="n">
-        <v>4425875572742.378</v>
+        <v>5.055291760255296e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3006192660148261</v>
+        <v>0.3006192716185173</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>302361764295271.9</v>
+        <v>0.0003453614786437249</v>
       </c>
       <c r="C67" t="n">
-        <v>7419820741808.447</v>
+        <v>8.475014244582796e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7189062298905355</v>
+        <v>0.7189062304129257</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1642,16 +1642,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>550625864174920.3</v>
+        <v>0.0006289319120197563</v>
       </c>
       <c r="C68" t="n">
-        <v>13558679259940.72</v>
+        <v>1.548689705888168e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>0.340688952596323</v>
+        <v>0.3406889581874207</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>551069918138956.3</v>
+        <v>0.0006294391165801579</v>
       </c>
       <c r="C69" t="n">
-        <v>13039766264075.38</v>
+        <v>1.489418799343988e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7181191576319998</v>
+        <v>0.7181191659790728</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1680,16 +1680,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>956671828456326.1</v>
+        <v>0.001092722813166369</v>
       </c>
       <c r="C70" t="n">
-        <v>22868202711675.12</v>
+        <v>2.612035394116662e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8020295622882458</v>
+        <v>0.802029584448249</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1699,16 +1699,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>1061943690844194</v>
+        <v>0.001212965680799035</v>
       </c>
       <c r="C71" t="n">
-        <v>26170711057983.45</v>
+        <v>2.989252126052829e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5511694105367935</v>
+        <v>0.5511693979996027</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1718,16 +1718,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>1372064736075229</v>
+        <v>0.001567189909033125</v>
       </c>
       <c r="C72" t="n">
-        <v>30625503006842.43</v>
+        <v>3.498084166308145e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8740839044171624</v>
+        <v>0.8740839008917509</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>2075767865757876</v>
+        <v>0.002370968634621667</v>
       </c>
       <c r="C73" t="n">
-        <v>47572888726881.52</v>
+        <v>5.433836257782495e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3747265236344364</v>
+        <v>0.374726534078803</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>1914674979672317</v>
+        <v>0.002186966276395895</v>
       </c>
       <c r="C74" t="n">
-        <v>44251229820684.24</v>
+        <v>5.054432129725627e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4181759540064321</v>
+        <v>0.4181759589099833</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>976362044059050.1</v>
+        <v>0.001115213228359013</v>
       </c>
       <c r="C75" t="n">
-        <v>23969926327775.01</v>
+        <v>2.737875676101556e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3112989396897213</v>
+        <v>0.3112989666340721</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1794,16 +1794,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>522794302397261.1</v>
+        <v>0.00059714234606368</v>
       </c>
       <c r="C76" t="n">
-        <v>12708633280859.71</v>
+        <v>1.451596366423714e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8654547575205922</v>
+        <v>0.8654547592987999</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>422852538469050.4</v>
+        <v>0.0004829875837689778</v>
       </c>
       <c r="C77" t="n">
-        <v>10453840585745.69</v>
+        <v>1.194051057141555e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6048412305551103</v>
+        <v>0.6048412304010624</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1832,16 +1832,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>954769503794769.4</v>
+        <v>0.001090549952540108</v>
       </c>
       <c r="C78" t="n">
-        <v>22517531488639.72</v>
+        <v>2.571981278000994e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6632898660436395</v>
+        <v>0.6632898510666808</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>1073977293364180</v>
+        <v>0.001226710616262302</v>
       </c>
       <c r="C79" t="n">
-        <v>26027524073822.77</v>
+        <v>2.972897125299119e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5121406268370108</v>
+        <v>0.512140645577858</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1870,16 +1870,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>780797843178695.1</v>
+        <v>0.0008918372944228056</v>
       </c>
       <c r="C80" t="n">
-        <v>18497969222870.25</v>
+        <v>2.112861729582314e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9502499502887795</v>
+        <v>0.9502499529686265</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -1889,16 +1889,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>414024909323293.8</v>
+        <v>0.000472904552424753</v>
       </c>
       <c r="C81" t="n">
-        <v>10237841293784.14</v>
+        <v>1.169379341136864e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6735633845863972</v>
+        <v>0.6735633811688513</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -1908,16 +1908,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>244375841450667</v>
+        <v>0.000279129215221094</v>
       </c>
       <c r="C82" t="n">
-        <v>6188130828963.411</v>
+        <v>7.06816226826582e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7083616275695386</v>
+        <v>0.7083616194195466</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>201893492396413.4</v>
+        <v>0.0002306053320114696</v>
       </c>
       <c r="C83" t="n">
-        <v>5153284961550.874</v>
+        <v>5.88614807198882e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3916035650403735</v>
+        <v>0.3916035512629985</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>105951999445656.5</v>
+        <v>0.0001210197300616391</v>
       </c>
       <c r="C84" t="n">
-        <v>2762522561280.733</v>
+        <v>3.155388640801701e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9896694407632796</v>
+        <v>0.9896694417729699</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -1965,16 +1965,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>55716435845718.8</v>
+        <v>6.364002641319034e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1554383153958.386</v>
+        <v>1.775436341081586e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4446112441243506</v>
+        <v>0.4446112418445828</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -1984,16 +1984,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>42513730921553.62</v>
+        <v>4.855972779974285e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1186258002945.849</v>
+        <v>1.35495907957859e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2653305882766535</v>
+        <v>0.2653305912855904</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>33955806463695.47</v>
+        <v>3.878475689058965e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>897390687216.3076</v>
+        <v>1.025011132946812e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9858930861235287</v>
+        <v>0.9858930860787282</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2022,16 +2022,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>31521315801315.64</v>
+        <v>3.600405050019816e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>902265495665.1029</v>
+        <v>1.030579200888811e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8607210074094543</v>
+        <v>0.8607210134379815</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2041,16 +2041,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>42705068160589.98</v>
+        <v>4.877827566293231e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1223484906056.736</v>
+        <v>1.397480125387617e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6500675743993414</v>
+        <v>0.6500675827145692</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2060,16 +2060,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>76697060813822.81</v>
+        <v>8.760436490786277e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>2183223525044.124</v>
+        <v>2.493705864141665e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6812357782402702</v>
+        <v>0.6812357595002678</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>87199656972113.02</v>
+        <v>9.960056465754336e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>2426730883603.741</v>
+        <v>2.771843087304313e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7815022229347797</v>
+        <v>0.7815022014753887</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2098,16 +2098,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>106265704200534.6</v>
+        <v>0.0001213780478918344</v>
       </c>
       <c r="C92" t="n">
-        <v>2874446300578.66</v>
+        <v>3.283229369901124e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7063956805917202</v>
+        <v>0.706395665296075</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>161112850921255.9</v>
+        <v>0.000184025161328158</v>
       </c>
       <c r="C93" t="n">
-        <v>4170988766376.846</v>
+        <v>4.76415677675128e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8247446823450122</v>
+        <v>0.824744661379514</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2136,16 +2136,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>341957939031623.5</v>
+        <v>0.0003905887365525865</v>
       </c>
       <c r="C94" t="n">
-        <v>8685202006332.952</v>
+        <v>9.920348938879681e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5310273199327399</v>
+        <v>0.5310273232713441</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>425713080858664.2</v>
+        <v>0.0004862549318785271</v>
       </c>
       <c r="C95" t="n">
-        <v>10274040939927.38</v>
+        <v>1.173514110193078e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6507250775716962</v>
+        <v>0.6507250852166643</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>351880136982225.1</v>
+        <v>0.0004019219978755428</v>
       </c>
       <c r="C96" t="n">
-        <v>8477536181473.931</v>
+        <v>9.683150371342516e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8475576941039693</v>
+        <v>0.8475577010758897</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2193,16 +2193,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>168972558604918.4</v>
+        <v>0.0001930026199412954</v>
       </c>
       <c r="C97" t="n">
-        <v>4467592437208.807</v>
+        <v>5.102941289057669e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>0.735228066111518</v>
+        <v>0.73522806635962</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2212,16 +2212,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>81142879029885.78</v>
+        <v>9.268243540066439e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>2296807585778.064</v>
+        <v>2.623443032846276e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9912726369878153</v>
+        <v>0.9912726363803256</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>50213177080886.31</v>
+        <v>5.735413381580882e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1455148652029.459</v>
+        <v>1.662089422529753e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9028641849820261</v>
+        <v>0.9028641856680695</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>27586286573379.54</v>
+        <v>3.150940974655357e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>839458596492.075</v>
+        <v>9.588403583212399e-07</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9895345924394137</v>
+        <v>0.9895345919902017</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2269,16 +2269,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>17857465209026.25</v>
+        <v>2.039702541249189e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>536154916131.5477</v>
+        <v>6.124030096421082e-07</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6887621731907905</v>
+        <v>0.6887621792415186</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2288,16 +2288,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>12307126274714.89</v>
+        <v>1.405735720660923e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>425044675550.1993</v>
+        <v>4.85491471144162e-07</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3789929453876786</v>
+        <v>0.3789929710334002</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2307,16 +2307,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>11900875142676.17</v>
+        <v>1.359333195863349e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>439926667464.5685</v>
+        <v>5.024898724148606e-07</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3427072233092791</v>
+        <v>0.3427072273434412</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>14370237766893.13</v>
+        <v>1.641386957972163e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>439361402780.9331</v>
+        <v>5.018442196357787e-07</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2844324879737629</v>
+        <v>0.2844325010039231</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2345,16 +2345,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>27122202399583.24</v>
+        <v>3.097932684903099e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>856463098542.0408</v>
+        <v>9.782631174930411e-07</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7360349239117021</v>
+        <v>0.7360349295298446</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2364,16 +2364,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>38716969986331.7</v>
+        <v>4.422301886850919e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1066228690999.274</v>
+        <v>1.217860063026861e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5798746938516317</v>
+        <v>0.5798746926511573</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>49473146902110.71</v>
+        <v>5.650886186017354e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1378557575126.46</v>
+        <v>1.574606113564998e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6912587755869049</v>
+        <v>0.6912587714686853</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2402,16 +2402,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>50239816804044.71</v>
+        <v>5.738456203929793e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1261086195440.589</v>
+        <v>1.440428799962986e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8336744161752354</v>
+        <v>0.8336744164069165</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>50830184232776.69</v>
+        <v>5.805888727790106e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1373458650002.104</v>
+        <v>1.56878205462692e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4589630309051889</v>
+        <v>0.4589630282282189</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2440,16 +2440,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>48786039908561.75</v>
+        <v>5.572403944558085e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1230617375978.162</v>
+        <v>1.405626923569479e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4761066517405459</v>
+        <v>0.4761066544164752</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2459,16 +2459,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>50400979428113.06</v>
+        <v>5.756864404118397e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1279719046220.398</v>
+        <v>1.461711480940109e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1683015623211329</v>
+        <v>0.1683015568746469</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>51101034994360.48</v>
+        <v>5.836825649042447e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>1380888823812.116</v>
+        <v>1.57726889641521e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1491617061292226</v>
+        <v>0.1491617057563387</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>53963976321040.19</v>
+        <v>6.163834471237771e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1364987681141.782</v>
+        <v>1.559106405961015e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9395528079290754</v>
+        <v>0.9395528091478879</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>56432746220125.48</v>
+        <v>6.445820530606746e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>1410860697162.061</v>
+        <v>1.611503152264352e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7381795549240924</v>
+        <v>0.7381795547133816</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2535,16 +2535,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>60312594215350.2</v>
+        <v>6.888981736409084e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>1513403641465.711</v>
+        <v>1.728629017110443e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8822730435111279</v>
+        <v>0.8822730425561484</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2554,16 +2554,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>61057455891530.29</v>
+        <v>6.974060789769978e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>1543352260915.349</v>
+        <v>1.762836712920766e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6077079495271462</v>
+        <v>0.60770794972318</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>62698502585171.28</v>
+        <v>7.161503246086043e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>1665265396564.116</v>
+        <v>1.90208745759429e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1577311692348331</v>
+        <v>0.1577311698183317</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2592,16 +2592,16 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>60991508652065.77</v>
+        <v>6.966528212761617e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1476702498943.505</v>
+        <v>1.68670850187007e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6581786312111588</v>
+        <v>0.6581786375550596</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2611,16 +2611,16 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>60872386303325.45</v>
+        <v>6.952921904212643e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1545054216166.909</v>
+        <v>1.764780707314114e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5803495286029492</v>
+        <v>0.5803495297467183</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2630,16 +2630,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>50586429184858.24</v>
+        <v>5.778046714791061e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1288058954387.012</v>
+        <v>1.471237429753567e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8887039147383837</v>
+        <v>0.8887039123607535</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2649,16 +2649,16 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>49663933750784.97</v>
+        <v>5.672678103270706e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>1367169611456.58</v>
+        <v>1.561598636275732e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1873751917764018</v>
+        <v>0.1873751927104774</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2668,16 +2668,16 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>39546084855923.79</v>
+        <v>4.51700444840117e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1031267314702.86</v>
+        <v>1.177926731950893e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3451791521255627</v>
+        <v>0.3451791616321518</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2687,16 +2687,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>31693747201348.93</v>
+        <v>3.620100386118716e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>829230355093.1722</v>
+        <v>9.471575299214591e-07</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9898421537082488</v>
+        <v>0.9898421531473729</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2706,16 +2706,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>33681919491480.3</v>
+        <v>3.847191970193744e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>1009877186217.933</v>
+        <v>1.153494652233512e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7272904124261397</v>
+        <v>0.7272904221201293</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2725,16 +2725,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>42692819957290.62</v>
+        <v>4.876428559448091e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>1126629865106.597</v>
+        <v>1.286851056829854e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5969613210761111</v>
+        <v>0.5969613231951416</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>58094997114667.94</v>
+        <v>6.635684956150766e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1475958271404.957</v>
+        <v>1.685858435970718e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8137418492370063</v>
+        <v>0.8137418422452958</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2763,16 +2763,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>56141366709886.98</v>
+        <v>6.412538790112383e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>1427645512936.019</v>
+        <v>1.630674984527744e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9997581434278008</v>
+        <v>0.9997581434132489</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2782,16 +2782,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>90650940040291.53</v>
+        <v>0.0001035426644456031</v>
       </c>
       <c r="C128" t="n">
-        <v>2270880828210.21</v>
+        <v>2.593829159127094e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9841195130292738</v>
+        <v>0.9841195137281964</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -2801,16 +2801,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>167553837103697.1</v>
+        <v>0.0001913821382689526</v>
       </c>
       <c r="C129" t="n">
-        <v>4216196508045.745</v>
+        <v>4.815793632353479e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9888633880519365</v>
+        <v>0.9888633917714285</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -2820,16 +2820,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>183473953042612.2</v>
+        <v>0.000209566298583301</v>
       </c>
       <c r="C130" t="n">
-        <v>4696915859144.479</v>
+        <v>5.364877428916013e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9980974747372774</v>
+        <v>0.998097474840795</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -2839,16 +2839,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>192196496761091.3</v>
+        <v>0.0002195292994969912</v>
       </c>
       <c r="C131" t="n">
-        <v>5038745207188.402</v>
+        <v>5.75531929614576e-06</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3471344122587808</v>
+        <v>0.3471343966403105</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -2858,16 +2858,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>219174492244273.8</v>
+        <v>0.000250343911460666</v>
       </c>
       <c r="C132" t="n">
-        <v>5404997279429.759</v>
+        <v>6.173657092491692e-06</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9686701305582173</v>
+        <v>0.9686701327696398</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>250605247638866.8</v>
+        <v>0.0002862445226560407</v>
       </c>
       <c r="C133" t="n">
-        <v>6078298046782.861</v>
+        <v>6.942709851110234e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9951148812527698</v>
+        <v>0.9951148808164042</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>263461852419616.9</v>
+        <v>0.0003009295013520345</v>
       </c>
       <c r="C134" t="n">
-        <v>6359681413110.878</v>
+        <v>7.264109541223567e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9943535106661517</v>
+        <v>0.9943535109413143</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -2915,16 +2915,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>254514138195408.3</v>
+        <v>0.0002907093075823657</v>
       </c>
       <c r="C135" t="n">
-        <v>6311422524588.105</v>
+        <v>7.20898762897138e-06</v>
       </c>
       <c r="D135" t="n">
-        <v>0.989112703346961</v>
+        <v>0.9891127042086297</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -2934,16 +2934,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>232088446074654.7</v>
+        <v>0.0002650943948765073</v>
       </c>
       <c r="C136" t="n">
-        <v>5723881273325.737</v>
+        <v>6.537890487061279e-06</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9938825386543326</v>
+        <v>0.9938825395540958</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -2953,16 +2953,16 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>185907307488042.6</v>
+        <v>0.0002123457068919922</v>
       </c>
       <c r="C137" t="n">
-        <v>4742382139201.39</v>
+        <v>5.41680960561841e-06</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8275740850288882</v>
+        <v>0.8275740738006397</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>132139827516566.4</v>
+        <v>0.0001509318030536375</v>
       </c>
       <c r="C138" t="n">
-        <v>3363625290542.472</v>
+        <v>3.841975873408863e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>0.951695333847952</v>
+        <v>0.9516953486808254</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -2991,16 +2991,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>89403147660786.59</v>
+        <v>0.0001021174200618176</v>
       </c>
       <c r="C139" t="n">
-        <v>2385808807873.293</v>
+        <v>2.725101368617995e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>0.964504837299163</v>
+        <v>0.9645048369886217</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3010,16 +3010,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>72465277565398.97</v>
+        <v>8.277076788107198e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>2092434819763.496</v>
+        <v>2.390005843298764e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7891270197137639</v>
+        <v>0.789127011161514</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3029,16 +3029,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>59178085314862.94</v>
+        <v>6.759396677206918e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>1612837471487.559</v>
+        <v>1.842203611044869e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8866474159629933</v>
+        <v>0.8866474157647115</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3048,16 +3048,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>49979104080287.42</v>
+        <v>5.708677261999796e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>1476975751273.085</v>
+        <v>1.687020614101144e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5902475037058249</v>
+        <v>0.5902475035516697</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3067,16 +3067,16 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>55473840461636.96</v>
+        <v>6.336293085108886e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>1653105832600.909</v>
+        <v>1.888198649000581e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8996717353970096</v>
+        <v>0.8996717344738923</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3086,16 +3086,16 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>208288347225201.8</v>
+        <v>0.0002379096170875561</v>
       </c>
       <c r="C144" t="n">
-        <v>5406977609063.819</v>
+        <v>6.175919049113167e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>0.8838349313314193</v>
+        <v>0.8838349307113321</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3105,16 +3105,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>394329078688168</v>
+        <v>0.0004504077225360982</v>
       </c>
       <c r="C145" t="n">
-        <v>9092503811439.889</v>
+        <v>1.038557427293634e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8318644224222197</v>
+        <v>0.8318644219424397</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3124,16 +3124,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>438172222589403.4</v>
+        <v>0.0005004859231322117</v>
       </c>
       <c r="C146" t="n">
-        <v>10327069980288.19</v>
+        <v>1.179571155928384e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9381216267473841</v>
+        <v>0.9381216292849108</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3143,16 +3143,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>461572760340374.9</v>
+        <v>0.000527214316825175</v>
       </c>
       <c r="C147" t="n">
-        <v>11040923524765.45</v>
+        <v>1.261108422251219e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9643208939215485</v>
+        <v>0.9643208960316169</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>452005989064727</v>
+        <v>0.0005162870281401409</v>
       </c>
       <c r="C148" t="n">
-        <v>10808148551999.85</v>
+        <v>1.234520566069473e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>0.8864188552098906</v>
+        <v>0.8864188510305563</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3181,16 +3181,16 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>451106548554193.6</v>
+        <v>0.0005152596757638751</v>
       </c>
       <c r="C149" t="n">
-        <v>10775482240767.02</v>
+        <v>1.230789379332288e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9535198218600458</v>
+        <v>0.9535198257142362</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3200,16 +3200,16 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>557768344071548.9</v>
+        <v>0.0006370901440849822</v>
       </c>
       <c r="C150" t="n">
-        <v>13144635988379.48</v>
+        <v>1.501397153528914e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9068143405629178</v>
+        <v>0.9068143411032324</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>583162975104215</v>
+        <v>0.0006660962170282508</v>
       </c>
       <c r="C151" t="n">
-        <v>13638006190949.23</v>
+        <v>1.557750529474422e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>0.8859302277392622</v>
+        <v>0.8859302280381223</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3238,16 +3238,16 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>581656399471979.8</v>
+        <v>0.0006643753868759688</v>
       </c>
       <c r="C152" t="n">
-        <v>13671268083074.77</v>
+        <v>1.561549745594235e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>0.8354043890766223</v>
+        <v>0.8354043915219476</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>589308804701255</v>
+        <v>0.0006731160622428691</v>
       </c>
       <c r="C153" t="n">
-        <v>13697042275500.73</v>
+        <v>1.564493706530242e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7482630961037771</v>
+        <v>0.7482630966187138</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3276,16 +3276,16 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>595402809464343.8</v>
+        <v>0.0006800767124307872</v>
       </c>
       <c r="C154" t="n">
-        <v>13938217179947.86</v>
+        <v>1.592041012706686e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4768392460346808</v>
+        <v>0.4768392443885611</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3295,16 +3295,16 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>587921992411044</v>
+        <v>0.0006715320273751088</v>
       </c>
       <c r="C155" t="n">
-        <v>13756669983336.44</v>
+        <v>1.571304459365193e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>0.8453737618025872</v>
+        <v>0.8453737610407952</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3314,16 +3314,16 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>577441423189926.4</v>
+        <v>0.000659560987063785</v>
       </c>
       <c r="C156" t="n">
-        <v>13389740125518.11</v>
+        <v>1.529393261142999e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9226932745746496</v>
+        <v>0.922693275922135</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3333,16 +3333,16 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>482269122227783</v>
+        <v>0.0005508539665188287</v>
       </c>
       <c r="C157" t="n">
-        <v>11079661094127.04</v>
+        <v>1.26553307693197e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9172637932291539</v>
+        <v>0.9172637938649745</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3352,16 +3352,16 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>354999723379331.7</v>
+        <v>0.0004054852294850713</v>
       </c>
       <c r="C158" t="n">
-        <v>8556157518340.444</v>
+        <v>9.772952663213757e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>0.847587977893674</v>
+        <v>0.8475879751676303</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3371,16 +3371,16 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>258226756034263.6</v>
+        <v>0.0002949499070472892</v>
       </c>
       <c r="C159" t="n">
-        <v>6112219399208.492</v>
+        <v>6.981455263478608e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9493780024621751</v>
+        <v>0.9493780034184359</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3390,16 +3390,16 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>269739738754870.7</v>
+        <v>0.0003081001836791955</v>
       </c>
       <c r="C160" t="n">
-        <v>6609450129918.681</v>
+        <v>7.549398572317362e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>0.3841389550107511</v>
+        <v>0.3841389610909792</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3409,16 +3409,16 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>207442943080650.2</v>
+        <v>0.0002369439858325341</v>
       </c>
       <c r="C161" t="n">
-        <v>4972416245030.759</v>
+        <v>5.679557498405909e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9837103568126067</v>
+        <v>0.9837103566191041</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3428,16 +3428,16 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>207344333306703</v>
+        <v>0.0002368313524859272</v>
       </c>
       <c r="C162" t="n">
-        <v>5026236686578.706</v>
+        <v>5.741031900819886e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9919125286599531</v>
+        <v>0.9919125290902649</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3447,16 +3447,16 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>200809830766511</v>
+        <v>0.0002293675599069072</v>
       </c>
       <c r="C163" t="n">
-        <v>4820327393424.592</v>
+        <v>5.505839670840822e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9963946102983001</v>
+        <v>0.9963946103427236</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3466,16 +3466,16 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>184261027621349.4</v>
+        <v>0.0002104653051077955</v>
       </c>
       <c r="C164" t="n">
-        <v>4475332046377.64</v>
+        <v>5.111781570519635e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9994198746308094</v>
+        <v>0.9994198745692597</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3485,16 +3485,16 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>171747027829077.8</v>
+        <v>0.0001961716543723429</v>
       </c>
       <c r="C165" t="n">
-        <v>4274647438655.415</v>
+        <v>4.882557035887978e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9597283977996236</v>
+        <v>0.9597284018597433</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3504,16 +3504,16 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>163708974464773.2</v>
+        <v>0.0001869904868837698</v>
       </c>
       <c r="C166" t="n">
-        <v>4258962302309.416</v>
+        <v>4.864641267779169e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4746242600677978</v>
+        <v>0.4746242410484153</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3523,16 +3523,16 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>156366208156073.8</v>
+        <v>0.0001786034852003999</v>
       </c>
       <c r="C167" t="n">
-        <v>3812630050366.769</v>
+        <v>4.35483485543111e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>0.8004365070678522</v>
+        <v>0.8004365194186863</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>131836463327140</v>
+        <v>0.0001505852964449694</v>
       </c>
       <c r="C168" t="n">
-        <v>3269081957548.205</v>
+        <v>3.733987269229029e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8367854746862677</v>
+        <v>0.8367854715370291</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3561,16 +3561,16 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>118462152815165.3</v>
+        <v>0.0001353089877302645</v>
       </c>
       <c r="C169" t="n">
-        <v>2889549259796.113</v>
+        <v>3.300480161443944e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9493078978873364</v>
+        <v>0.949307908161143</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3580,16 +3580,16 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>75546294054179.7</v>
+        <v>8.628994435739832e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>2137383748682.563</v>
+        <v>2.441347085037138e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>0.7526421564138199</v>
+        <v>0.752642156007692</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3599,16 +3599,16 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>55608679565638.44</v>
+        <v>6.351694583518737e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>1497763699150.535</v>
+        <v>1.710764874932582e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3749241079276779</v>
+        <v>0.374924108411788</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>61120760268883.2</v>
+        <v>6.981291499272825e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1702322519542.132</v>
+        <v>1.944414579462254e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3354571027050164</v>
+        <v>0.3354571074339839</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>82292629708484.28</v>
+        <v>9.399569529924109e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>2510076831003.055</v>
+        <v>2.867041896384136e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>0.7828244256042904</v>
+        <v>0.7828244302182801</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3656,16 +3656,16 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>106648790383300.2</v>
+        <v>0.0001218156140864119</v>
       </c>
       <c r="C174" t="n">
-        <v>2833556791173.545</v>
+        <v>3.236524847656474e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8059089719943776</v>
+        <v>0.8059089666643475</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3675,16 +3675,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>117228512018284.7</v>
+        <v>0.0001338999073151358</v>
       </c>
       <c r="C175" t="n">
-        <v>3541150706099.072</v>
+        <v>4.044747680089972e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4880145746358506</v>
+        <v>0.488014601521358</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3694,16 +3694,16 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>160695439738095.8</v>
+        <v>0.0001835483887332382</v>
       </c>
       <c r="C176" t="n">
-        <v>5096050877879.715</v>
+        <v>5.820774556739693e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>0.7659486632319815</v>
+        <v>0.7659486474394244</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3713,16 +3713,16 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>241425918098506.9</v>
+        <v>0.0002757597748727502</v>
       </c>
       <c r="C177" t="n">
-        <v>6896544347187.64</v>
+        <v>7.877321259963538e-06</v>
       </c>
       <c r="D177" t="n">
-        <v>0.7941202816522503</v>
+        <v>0.7941202948147866</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -3732,16 +3732,16 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>287007641816055.4</v>
+        <v>0.0003278238036143371</v>
       </c>
       <c r="C178" t="n">
-        <v>8487292726398.383</v>
+        <v>9.694294418428982e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>0.486277044800177</v>
+        <v>0.4862770409778634</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -3751,16 +3751,16 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>351470626002505.8</v>
+        <v>0.0004014542491366684</v>
       </c>
       <c r="C179" t="n">
-        <v>9836570527898.961</v>
+        <v>1.12354568104308e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8888156801095761</v>
+        <v>0.8888156840799056</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -3770,16 +3770,16 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>470983308249555.4</v>
+        <v>0.0005352945659019833</v>
       </c>
       <c r="C180" t="n">
-        <v>12415450100914.65</v>
+        <v>9.539155909120014e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>0.7295937513379211</v>
+        <v>0.9792303085786227</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -3789,16 +3789,16 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>466773114290185</v>
+        <v>0.0008043887376760488</v>
       </c>
       <c r="C181" t="n">
-        <v>11288150561944.71</v>
+        <v>2.067098158059563e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9625221982565922</v>
+        <v>0.9406681274560214</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -3808,16 +3808,16 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>704237191974450.9</v>
+        <v>0.001032920282118864</v>
       </c>
       <c r="C182" t="n">
-        <v>18097312081496.26</v>
+        <v>2.633447603935776e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9406681190650548</v>
+        <v>0.2446822841789494</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -3827,16 +3827,16 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>904315095361661.2</v>
+        <v>0.0013449249885156</v>
       </c>
       <c r="C183" t="n">
-        <v>23055665241270.73</v>
+        <v>3.129582877008734e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2446822772919369</v>
+        <v>0.2877359256174082</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -3846,16 +3846,16 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>1177473220068922</v>
+        <v>0.001581216924535594</v>
       </c>
       <c r="C184" t="n">
-        <v>27399297789840.27</v>
+        <v>3.633916578686647e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2877359300867926</v>
+        <v>0.9729268477992089</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>1384345298487093</v>
+        <v>0.001539875358556875</v>
       </c>
       <c r="C185" t="n">
-        <v>31814707094339.13</v>
+        <v>3.436429859090065e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9729268463728129</v>
+        <v>0.2744566152688669</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -3884,16 +3884,16 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>1348151023147123</v>
+        <v>0.001517699344614204</v>
       </c>
       <c r="C186" t="n">
-        <v>30085723482490.93</v>
+        <v>3.431432051645466e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2744566367717167</v>
+        <v>0.9758506150594772</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -3903,16 +3903,16 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>1328736063142971</v>
+        <v>0.001426112228252969</v>
       </c>
       <c r="C187" t="n">
-        <v>30041968011213.96</v>
+        <v>3.256269379613996e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9758506165802492</v>
+        <v>0.2923399391885411</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -3922,16 +3922,16 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>1248552128637073</v>
+        <v>0.001237099456439774</v>
       </c>
       <c r="C188" t="n">
-        <v>28508430021993.29</v>
+        <v>2.733138045271675e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>0.2923399269297329</v>
+        <v>0.5004950139134343</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -3941,16 +3941,16 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>1083072656046490</v>
+        <v>0.001175125633196067</v>
       </c>
       <c r="C189" t="n">
-        <v>23928448667922.55</v>
+        <v>2.617066692579437e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>0.500495035437541</v>
+        <v>0.2514828391886629</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -3960,16 +3960,16 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>1028814972055605</v>
+        <v>0.001008860858740865</v>
       </c>
       <c r="C190" t="n">
-        <v>22912251401855.68</v>
+        <v>2.253891541621544e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2514828203372818</v>
+        <v>0.2503744851017359</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -3979,16 +3979,16 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>883251224949459.5</v>
+        <v>0.0008024534651359256</v>
       </c>
       <c r="C191" t="n">
-        <v>19732676201813.98</v>
+        <v>1.801503001862242e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>0.2503744758793741</v>
+        <v>0.317308574035001</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -3998,16 +3998,16 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>702542873009887.2</v>
+        <v>0.0006745797409200737</v>
       </c>
       <c r="C192" t="n">
-        <v>15772043487224.39</v>
+        <v>1.533520754032583e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3173085879826165</v>
+        <v>0.3746407770961955</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>590590245812690.1</v>
+        <v>0.0005054053635821784</v>
       </c>
       <c r="C193" t="n">
-        <v>13425876053638.07</v>
+        <v>8.300525334340274e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>0.3746407756711529</v>
+        <v>0.8971206158121876</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4036,16 +4036,16 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>435101575944067.9</v>
+        <v>0.0003453706871969044</v>
       </c>
       <c r="C194" t="n">
-        <v>10259183503305.45</v>
+        <v>8.066889985575434e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9683285543808791</v>
+        <v>0.3503690728502195</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4055,16 +4055,16 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>449985394570093.5</v>
+        <v>0.0002130060643840449</v>
       </c>
       <c r="C195" t="n">
-        <v>10296735143251.23</v>
+        <v>5.335463417650505e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4938818264270843</v>
+        <v>0.9898100920418564</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4074,16 +4074,16 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>302369826377690.1</v>
+        <v>0.0002145117916482188</v>
       </c>
       <c r="C196" t="n">
-        <v>7062510555376.966</v>
+        <v>5.205881308622086e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3503690593929486</v>
+        <v>0.8335271653240564</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4093,16 +4093,16 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>186485446504874.4</v>
+        <v>0.0001619841755045763</v>
       </c>
       <c r="C197" t="n">
-        <v>4671164075322.326</v>
+        <v>4.104897341184386e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9898100923307189</v>
+        <v>0.9576786372185735</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4112,16 +4112,16 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>187803700703165.9</v>
+        <v>0.0001532470645362727</v>
       </c>
       <c r="C198" t="n">
-        <v>4557715766580.511</v>
+        <v>3.772116680125377e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>0.8335271658676278</v>
+        <v>0.6962105957448798</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4131,16 +4131,16 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>141816109001455.4</v>
+        <v>0.00014398361320979</v>
       </c>
       <c r="C199" t="n">
-        <v>3593811353192.456</v>
+        <v>3.562741246787281e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9576786362140638</v>
+        <v>0.9405710842231413</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4150,16 +4150,16 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>134166824303271.2</v>
+        <v>0.0002429940708977036</v>
       </c>
       <c r="C200" t="n">
-        <v>3302464012432.287</v>
+        <v>6.095883973897378e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>0.6962105896742772</v>
+        <v>0.9140144266232521</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>126056731800219</v>
+        <v>0.0001876402190286787</v>
       </c>
       <c r="C201" t="n">
-        <v>3119157161294.838</v>
+        <v>4.359419205874858e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9405710862676681</v>
+        <v>0.5182394443519593</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4188,16 +4188,16 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>212739753938484.6</v>
+        <v>0.0002950233952544847</v>
       </c>
       <c r="C202" t="n">
-        <v>5336907404315.811</v>
+        <v>7.324525725537373e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9140144256699122</v>
+        <v>0.9197768213779222</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4207,16 +4207,16 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>164277810827545.2</v>
+        <v>0.0002801230900247097</v>
       </c>
       <c r="C203" t="n">
-        <v>3816643613235.932</v>
+        <v>6.953077088003923e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5182394398771261</v>
+        <v>0.9233375455778337</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4226,16 +4226,16 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>258291094477559.7</v>
+        <v>0.0002690762163659159</v>
       </c>
       <c r="C204" t="n">
-        <v>6412575400334.952</v>
+        <v>6.754520415808741e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>0.919776827974207</v>
+        <v>0.7193383435571805</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4245,16 +4245,16 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>245245972670688.8</v>
+        <v>0.0002661035532156613</v>
       </c>
       <c r="C205" t="n">
-        <v>6087374490907.386</v>
+        <v>6.64737430752726e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9233375447151411</v>
+        <v>0.5301857735278117</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4264,16 +4264,16 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>235574505469787.3</v>
+        <v>0.0002602225517699722</v>
       </c>
       <c r="C206" t="n">
-        <v>5913539389506.283</v>
+        <v>6.585007600053643e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>0.7193383412965748</v>
+        <v>0.9779175869106309</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4283,16 +4283,16 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>232971957778017.2</v>
+        <v>0.0002468908154376682</v>
       </c>
       <c r="C207" t="n">
-        <v>5819733668236.115</v>
+        <v>5.837543212123581e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>0.530185782309969</v>
+        <v>0.9832713178083932</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4302,16 +4302,16 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>227823178615604.4</v>
+        <v>0.0002499491381408085</v>
       </c>
       <c r="C208" t="n">
-        <v>5765132011798.405</v>
+        <v>6.221420331943708e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9779175860039409</v>
+        <v>0.9842787493427491</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4321,16 +4321,16 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>216151328816244.1</v>
+        <v>0.0001473720761739328</v>
       </c>
       <c r="C209" t="n">
-        <v>5110731721018.169</v>
+        <v>3.543645345663989e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9832713168591578</v>
+        <v>0.8028925841238388</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4340,16 +4340,16 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>218828870823395.8</v>
+        <v>6.462568092803534e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>5446813688151.322</v>
+        <v>1.851014077524145e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9842787481928233</v>
+        <v>0.9601528402412135</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4359,16 +4359,16 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>129023309767179.3</v>
+        <v>4.152084343061927e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>3102438820410.233</v>
+        <v>1.320861879358226e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>0.8028925887094447</v>
+        <v>0.9580764931844314</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4378,16 +4378,16 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>56579370072237.13</v>
+        <v>5.813677506437335e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>1620550978322.688</v>
+        <v>1.572996954305474e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9601528407930906</v>
+        <v>0.8175440543063899</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>36351232686918.77</v>
+        <v>3.656677237071036e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>1156406122123.611</v>
+        <v>1.121395320913172e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9580764932608808</v>
+        <v>0.5948004166491037</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4416,16 +4416,16 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>50898374508371.69</v>
+        <v>2.827001390205653e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>1377148766229.61</v>
+        <v>9.441880623237072e-07</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8175440569634949</v>
+        <v>0.9566770417514675</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4435,16 +4435,16 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>32013975171207.22</v>
+        <v>2.459321396886191e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>981774427013.465</v>
+        <v>8.224396774633243e-07</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5948004234806172</v>
+        <v>0.893393217394823</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4454,16 +4454,16 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>24750216240650.18</v>
+        <v>2.292480692273231e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>826630606593.3401</v>
+        <v>8.151199942247366e-07</v>
       </c>
       <c r="D216" t="n">
-        <v>0.956677040304047</v>
+        <v>0.07586475207549849</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4473,16 +4473,16 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>21531201416699.08</v>
+        <v>2.238485715656257e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>720040673926.2271</v>
+        <v>8.092984461665724e-07</v>
       </c>
       <c r="D217" t="n">
-        <v>0.8933932140714722</v>
+        <v>0.2610480512198931</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>20070521729201.61</v>
+        <v>2.721372409155437e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>713632337440.0046</v>
+        <v>9.353268281823746e-07</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0758647528761159</v>
+        <v>0.7427959392380428</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>19597799198428.11</v>
+        <v>2.72231168072582e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>708535609688.0934</v>
+        <v>9.572256870240536e-07</v>
       </c>
       <c r="D219" t="n">
-        <v>0.2610480516229145</v>
+        <v>0.9614995251488407</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4530,16 +4530,16 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>23825441265634.2</v>
+        <v>3.038806154693012e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>818872652064.3329</v>
+        <v>9.0976207003613e-07</v>
       </c>
       <c r="D220" t="n">
-        <v>0.7427959416884302</v>
+        <v>0.6516968432351159</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4549,56 +4549,18 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>23833664531125.26</v>
+        <v>3.50675826802906e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>838044962370.4185</v>
+        <v>1.062550885234915e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>0.96149952505225</v>
+        <v>0.8691257486715847</v>
       </c>
       <c r="E221" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>26604553411862.84</v>
-      </c>
-      <c r="C222" t="n">
-        <v>796490869623.9098</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.6516968451102381</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>30701444194480.7</v>
-      </c>
-      <c r="C223" t="n">
-        <v>930256500349.9475</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.8691257476550205</v>
-      </c>
-      <c r="E223" t="inlineStr">
         <is>
           <t>4</t>
         </is>

--- a/legendre_out/DATA/p2/p2Fits.xlsx
+++ b/legendre_out/DATA/p2/p2Fits.xlsx
@@ -391,13 +391,13 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>8.819466890209767e-06</v>
+        <v>8.661047933350191e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>2.732584666044602e-07</v>
+        <v>2.759057186776419e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02382750995591031</v>
+        <v>0.6502763212902591</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -410,13 +410,13 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>1.37006068424099e-05</v>
+        <v>1.371247270417061e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>4.170296168476945e-07</v>
+        <v>4.146955764205321e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4856764861301395</v>
+        <v>0.332914436762152</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -429,13 +429,13 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>1.636278628159607e-05</v>
+        <v>1.604205170015039e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.758329176442646e-07</v>
+        <v>4.709835724516272e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1091659539297891</v>
+        <v>0.05314817569675062</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -448,13 +448,13 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>2.301804380779223e-05</v>
+        <v>2.275878155591155e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>6.284033987358383e-07</v>
+        <v>6.28135972226269e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6032141940869522</v>
+        <v>0.4581685068175094</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -467,13 +467,13 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>2.457784414984172e-05</v>
+        <v>2.482249137216878e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>7.004121895482014e-07</v>
+        <v>7.038089623026592e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4069823406318539</v>
+        <v>0.7929354020815818</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -486,13 +486,13 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>2.475292241020945e-05</v>
+        <v>2.509090753277816e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>7.039681190690511e-07</v>
+        <v>7.103149056655022e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7512638571479361</v>
+        <v>0.1950473069171373</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -505,13 +505,13 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>2.832189109232445e-05</v>
+        <v>2.809685308202042e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>7.360851201077147e-07</v>
+        <v>7.329941091859544e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4355799345287011</v>
+        <v>0.9465607614691991</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -524,13 +524,13 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>2.776435269531485e-05</v>
+        <v>2.763881878447032e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>7.044738091859971e-07</v>
+        <v>7.014054345083405e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8227129141772682</v>
+        <v>0.7812560229484253</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>2.534494073666331e-05</v>
+        <v>2.548551427655535e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>6.977182087472301e-07</v>
+        <v>7.026079779125858e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1902575120820872</v>
+        <v>0.4116048378073299</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>2.520431388860458e-05</v>
+        <v>2.568738890212164e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>6.965169590460649e-07</v>
+        <v>7.091731880622944e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5907837103103959</v>
+        <v>0.7371305448493741</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -581,13 +581,13 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>2.156526024838602e-05</v>
+        <v>2.166322512840379e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>5.875956156724549e-07</v>
+        <v>5.865032798801845e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3462034843270332</v>
+        <v>0.6677780375049742</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -600,13 +600,13 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>1.645567114102098e-05</v>
+        <v>1.700698602516936e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>4.745993324745952e-07</v>
+        <v>4.868956685735083e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001537676822872036</v>
+        <v>0.01922166793786671</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -619,13 +619,13 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>9.426383791463163e-06</v>
+        <v>9.102359176498216e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>3.231179092334539e-07</v>
+        <v>3.119746197638599e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6991947753321557</v>
+        <v>0.5463331869707798</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -638,13 +638,13 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>1.343808816174539e-05</v>
+        <v>1.35195412838913e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>4.257483861023175e-07</v>
+        <v>4.23162478534824e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8693708176374071</v>
+        <v>0.8517482798363039</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>1.842888605574057e-05</v>
+        <v>1.848828529888727e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>5.692894539346985e-07</v>
+        <v>5.722296926086745e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6635165130797021</v>
+        <v>0.7692900015010342</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -676,13 +676,13 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>2.155252168109817e-05</v>
+        <v>2.197068418141153e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>6.393865834049551e-07</v>
+        <v>6.469230211181817e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1453569948128901</v>
+        <v>0.6375742732760452</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -695,13 +695,13 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>2.544972283929159e-05</v>
+        <v>2.509975934963318e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>7.402597106911302e-07</v>
+        <v>7.311344867129433e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007473111737717737</v>
+        <v>0.1122966917119836</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -714,13 +714,13 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>3.063126991385826e-05</v>
+        <v>3.083011127199409e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>8.503517765502457e-07</v>
+        <v>8.541565768205065e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7374692489658232</v>
+        <v>0.6448518002832021</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>3.438228707251985e-05</v>
+        <v>3.427820669971762e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>9.671723484894378e-07</v>
+        <v>9.675033866697971e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4305095851548041</v>
+        <v>0.4109057960343404</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -752,13 +752,13 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>5.204495849027794e-05</v>
+        <v>5.222911089710987e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.38517177647849e-06</v>
+        <v>1.388226195596997e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7156220199547845</v>
+        <v>0.3935565652065307</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001490038455283936</v>
+        <v>0.0001489710977067112</v>
       </c>
       <c r="C22" t="n">
-        <v>3.793025049742925e-06</v>
+        <v>3.794976910528223e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8900079626860835</v>
+        <v>0.7920278096838423</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -790,13 +790,13 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>0.000235419460155689</v>
+        <v>0.0002368254579795994</v>
       </c>
       <c r="C23" t="n">
-        <v>5.930839104838835e-06</v>
+        <v>5.956832562013413e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5056333248898033</v>
+        <v>0.5316868006162596</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -809,13 +809,13 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003526277764173752</v>
+        <v>0.0003536084412688356</v>
       </c>
       <c r="C24" t="n">
-        <v>8.751841031121204e-06</v>
+        <v>8.766171806419906e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6951828167662081</v>
+        <v>0.7426839475742041</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -828,13 +828,13 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0003570906411034677</v>
+        <v>0.0003562557472264524</v>
       </c>
       <c r="C25" t="n">
-        <v>8.642330780705501e-06</v>
+        <v>8.62833333550474e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6383221763728335</v>
+        <v>0.6808086098956563</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -847,13 +847,13 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0003319820970842881</v>
+        <v>0.0003319739698688344</v>
       </c>
       <c r="C26" t="n">
-        <v>8.21263717148202e-06</v>
+        <v>8.219057478694586e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4078501266509035</v>
+        <v>0.451959889888272</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0003155382558392645</v>
+        <v>0.0003158883308226975</v>
       </c>
       <c r="C27" t="n">
-        <v>7.969777537857187e-06</v>
+        <v>7.971257480356986e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4175990246710425</v>
+        <v>0.4920744388932808</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -885,13 +885,13 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0003170610168818279</v>
+        <v>0.0003165450168351961</v>
       </c>
       <c r="C28" t="n">
-        <v>8.007486692738877e-06</v>
+        <v>7.99293017772673e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5274913626951149</v>
+        <v>0.5821050341235813</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -904,13 +904,13 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0003220918368906234</v>
+        <v>0.0003231029115490132</v>
       </c>
       <c r="C29" t="n">
-        <v>7.978237266162684e-06</v>
+        <v>7.994349901808716e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6381246830737346</v>
+        <v>0.6662360977410267</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -923,13 +923,13 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0003106013382673095</v>
+        <v>0.0003108034755382158</v>
       </c>
       <c r="C30" t="n">
-        <v>7.724826459839104e-06</v>
+        <v>7.73293128639239e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3097626028827134</v>
+        <v>0.4830596747035329</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -942,13 +942,13 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0003136114463312155</v>
+        <v>0.0003130878222275883</v>
       </c>
       <c r="C31" t="n">
-        <v>7.80858519257057e-06</v>
+        <v>7.800282470488079e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5565557035703377</v>
+        <v>0.6601409634284048</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0003122013164842701</v>
+        <v>0.0003112242938597056</v>
       </c>
       <c r="C32" t="n">
-        <v>7.864577363540937e-06</v>
+        <v>7.839956150355129e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3371356180075312</v>
+        <v>0.341536064664331</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -980,13 +980,13 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0003031872997426252</v>
+        <v>0.0003041093072476322</v>
       </c>
       <c r="C33" t="n">
-        <v>7.501981045618106e-06</v>
+        <v>7.517892281119834e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5039940814606071</v>
+        <v>0.6099966106800263</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0002958728213515772</v>
+        <v>0.000294955447082057</v>
       </c>
       <c r="C34" t="n">
-        <v>7.489446212684108e-06</v>
+        <v>7.465179106742239e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7118769534364933</v>
+        <v>0.7261488060704195</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0002756422368554605</v>
+        <v>0.0002761161000598676</v>
       </c>
       <c r="C35" t="n">
-        <v>6.891351751617953e-06</v>
+        <v>6.893472866762361e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2669214808677928</v>
+        <v>0.3548552390073119</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0002507886519229948</v>
+        <v>0.0002511183216349825</v>
       </c>
       <c r="C36" t="n">
-        <v>6.255735678294338e-06</v>
+        <v>6.259663893243992e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1984855066489429</v>
+        <v>0.2812634285587179</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1056,13 +1056,13 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0002037966887689798</v>
+        <v>0.0002031814400571333</v>
       </c>
       <c r="C37" t="n">
-        <v>5.038238927580641e-06</v>
+        <v>5.025252216270507e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5153941197554093</v>
+        <v>0.5719044752183146</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0001625640180041803</v>
+        <v>0.000162656668112932</v>
       </c>
       <c r="C38" t="n">
-        <v>4.005876271424973e-06</v>
+        <v>4.008320588710153e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>0.614648369133179</v>
+        <v>0.6609872382857886</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1094,13 +1094,13 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0001093387107647033</v>
+        <v>0.0001103075075665546</v>
       </c>
       <c r="C39" t="n">
-        <v>2.72664520485288e-06</v>
+        <v>2.745880338581859e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3263978818075528</v>
+        <v>0.3985431047687933</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1113,13 +1113,13 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001547238482059898</v>
+        <v>0.0001556760288386659</v>
       </c>
       <c r="C40" t="n">
-        <v>3.889528123048973e-06</v>
+        <v>3.903887917427986e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7781152963098251</v>
+        <v>0.814569405624553</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1132,13 +1132,13 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>7.733612038922368e-05</v>
+        <v>7.800713629193299e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1.982670266193871e-06</v>
+        <v>1.995360941463854e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5232461184360082</v>
+        <v>0.8015657748469287</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1151,13 +1151,13 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>5.254329241434402e-05</v>
+        <v>5.24012386154456e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1.363996147471463e-06</v>
+        <v>1.365962599773394e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7947560883266604</v>
+        <v>0.7948400521766681</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1170,13 +1170,13 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>4.015690477570473e-05</v>
+        <v>4.003179333670344e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1.058994992869787e-06</v>
+        <v>1.056384740886714e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3019025783706989</v>
+        <v>0.6142073178768841</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>2.437577896705834e-05</v>
+        <v>2.419577393407826e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>6.952082861849813e-07</v>
+        <v>6.941613607726214e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3155408670790505</v>
+        <v>0.753354553580337</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1208,13 +1208,13 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>2.163067071527197e-05</v>
+        <v>2.153753105100043e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>6.496904777191727e-07</v>
+        <v>6.50160519634547e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05872018647657259</v>
+        <v>0.07292400303394343</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1227,13 +1227,13 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>2.06451480533105e-05</v>
+        <v>2.016816623866864e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>6.070620557502889e-07</v>
+        <v>5.943855150833864e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6494043564852343</v>
+        <v>0.7355657216651923</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1246,13 +1246,13 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>2.257975869554907e-05</v>
+        <v>2.194105780542804e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>6.349661045738748e-07</v>
+        <v>6.249005046437237e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4858327272819065</v>
+        <v>0.2511636723427456</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1265,13 +1265,13 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>2.872666827721698e-05</v>
+        <v>2.885485303328734e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>7.748762863726505e-07</v>
+        <v>7.808256708076537e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8821625228288366</v>
+        <v>0.9129039748862318</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1284,13 +1284,13 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>3.960566927688777e-05</v>
+        <v>3.891522478845504e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>1.038370720591826e-06</v>
+        <v>1.02713769777079e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3567249798599514</v>
+        <v>0.2838096094761119</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1303,13 +1303,13 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>5.737043851205674e-05</v>
+        <v>5.75037022228124e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>1.472554845493506e-06</v>
+        <v>1.475556705741531e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2528410734084642</v>
+        <v>0.3368631299362739</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1322,13 +1322,13 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>7.198265129907533e-05</v>
+        <v>7.164364265350434e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1.780575619537714e-06</v>
+        <v>1.775289921217264e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>0.762698232892926</v>
+        <v>0.7325005108457258</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1341,13 +1341,13 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0001352498170400256</v>
+        <v>0.0001362221165767451</v>
       </c>
       <c r="C52" t="n">
-        <v>3.464896896038091e-06</v>
+        <v>3.48431657688431e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5344088286005895</v>
+        <v>0.5286428985089833</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1360,13 +1360,13 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0002122492029697301</v>
+        <v>0.0002124943659444857</v>
       </c>
       <c r="C53" t="n">
-        <v>5.286357541593251e-06</v>
+        <v>5.287518526640151e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8954712637583589</v>
+        <v>0.9571207754190393</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1379,13 +1379,13 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004972155419920545</v>
+        <v>0.0004983022180633358</v>
       </c>
       <c r="C54" t="n">
-        <v>1.258990909967028e-05</v>
+        <v>1.260377513818691e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9652968622246553</v>
+        <v>0.9786750861668229</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1398,13 +1398,13 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0007438672839373054</v>
+        <v>0.0007439638796530426</v>
       </c>
       <c r="C55" t="n">
-        <v>1.8395375399521e-05</v>
+        <v>1.839218104830326e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4944855753252739</v>
+        <v>0.4862042879509806</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1417,13 +1417,13 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007843887507856526</v>
+        <v>0.0007855044415125878</v>
       </c>
       <c r="C56" t="n">
-        <v>1.90800100575975e-05</v>
+        <v>1.909833995057912e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3149407866652904</v>
+        <v>0.3469430200430144</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1436,13 +1436,13 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005783773903470268</v>
+        <v>0.0005789023634797877</v>
       </c>
       <c r="C57" t="n">
-        <v>1.437827664721859e-05</v>
+        <v>1.438606480956239e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5379140272974566</v>
+        <v>0.5319953707940397</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1455,13 +1455,13 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002748446504791263</v>
+        <v>0.0002751684401139762</v>
       </c>
       <c r="C58" t="n">
-        <v>6.937299496572314e-06</v>
+        <v>6.942580056259863e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3683576250551849</v>
+        <v>0.5239626985301195</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1474,13 +1474,13 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0002022209540902729</v>
+        <v>0.0002039882747641075</v>
       </c>
       <c r="C59" t="n">
-        <v>5.149377275988459e-06</v>
+        <v>5.188737603427452e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6820647491945745</v>
+        <v>0.7957108900947256</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1493,13 +1493,13 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002699026568578708</v>
+        <v>0.0002699155665295807</v>
       </c>
       <c r="C60" t="n">
-        <v>6.709862081316827e-06</v>
+        <v>6.70742500182131e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4511047515657669</v>
+        <v>0.3835568369211542</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1512,13 +1512,13 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001041929469791144</v>
+        <v>0.0001034252945298241</v>
       </c>
       <c r="C61" t="n">
-        <v>2.707041608326485e-06</v>
+        <v>2.690450397426369e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3336981654668602</v>
+        <v>0.2699407438959294</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1531,13 +1531,13 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>6.970988166146895e-05</v>
+        <v>6.924421410740606e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.779469663511409e-06</v>
+        <v>1.77123695575549e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3464619894847884</v>
+        <v>0.3651956319134849</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1550,13 +1550,13 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>3.960937796738595e-05</v>
+        <v>3.944128699599986e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1.075470602771379e-06</v>
+        <v>1.077229699859248e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4640283718891611</v>
+        <v>0.8893176609429475</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>2.972672538263759e-05</v>
+        <v>2.996098551101448e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>8.134010711668426e-07</v>
+        <v>8.206044587532796e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5423432481672725</v>
+        <v>0.9048357965169374</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1588,13 +1588,13 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>6.677063701810879e-05</v>
+        <v>6.781873553751389e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.765530684130124e-06</v>
+        <v>1.791577158649025e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7583844005355773</v>
+        <v>0.801554602911333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1607,13 +1607,13 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0001979794688041133</v>
+        <v>0.0001980493500225599</v>
       </c>
       <c r="C66" t="n">
-        <v>5.055291760255296e-06</v>
+        <v>5.063068539011172e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3006192716185173</v>
+        <v>0.3290367426682064</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1626,13 +1626,13 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0003453614786437249</v>
+        <v>0.0003466208758540724</v>
       </c>
       <c r="C67" t="n">
-        <v>8.475014244582796e-06</v>
+        <v>8.495835014368116e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7189062304129257</v>
+        <v>0.7556598686171418</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1645,13 +1645,13 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0006289319120197563</v>
+        <v>0.0006288405867343501</v>
       </c>
       <c r="C68" t="n">
-        <v>1.548689705888168e-05</v>
+        <v>1.548791654431497e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3406889581874207</v>
+        <v>0.2577641029535542</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1664,13 +1664,13 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0006294391165801579</v>
+        <v>0.0006299736705505915</v>
       </c>
       <c r="C69" t="n">
-        <v>1.489418799343988e-05</v>
+        <v>1.489633805376559e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7181191659790728</v>
+        <v>0.7430986276833934</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1683,13 +1683,13 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001092722813166369</v>
+        <v>0.001095608196434682</v>
       </c>
       <c r="C70" t="n">
-        <v>2.612035394116662e-05</v>
+        <v>2.618351913201931e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>0.802029584448249</v>
+        <v>0.8330015493188975</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1702,13 +1702,13 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001212965680799035</v>
+        <v>0.001219769286817288</v>
       </c>
       <c r="C71" t="n">
-        <v>2.989252126052829e-05</v>
+        <v>3.004827495733499e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5511693979996027</v>
+        <v>0.4762339385902021</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1721,13 +1721,13 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001567189909033125</v>
+        <v>0.001569372312411237</v>
       </c>
       <c r="C72" t="n">
-        <v>3.498084166308145e-05</v>
+        <v>3.502665932740763e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8740839008917509</v>
+        <v>0.8625190672460941</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1740,13 +1740,13 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002370968634621667</v>
+        <v>0.002377968459633469</v>
       </c>
       <c r="C73" t="n">
-        <v>5.433836257782495e-05</v>
+        <v>5.445395512602684e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.374726534078803</v>
+        <v>0.4204190391924307</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1759,13 +1759,13 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002186966276395895</v>
+        <v>0.002190993228014409</v>
       </c>
       <c r="C74" t="n">
-        <v>5.054432129725627e-05</v>
+        <v>5.062565487694661e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4181759589099833</v>
+        <v>0.3548625533107204</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1778,13 +1778,13 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001115213228359013</v>
+        <v>0.001114564469398428</v>
       </c>
       <c r="C75" t="n">
-        <v>2.737875676101556e-05</v>
+        <v>2.736243789355103e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3112989666340721</v>
+        <v>0.3357563275324528</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1797,13 +1797,13 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>0.00059714234606368</v>
+        <v>0.0005970951682923644</v>
       </c>
       <c r="C76" t="n">
-        <v>1.451596366423714e-05</v>
+        <v>1.45153199761731e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8654547592987999</v>
+        <v>0.8141268686554473</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1816,13 +1816,13 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0004829875837689778</v>
+        <v>0.0004846929959118938</v>
       </c>
       <c r="C77" t="n">
-        <v>1.194051057141555e-05</v>
+        <v>1.196333487157681e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6048412304010624</v>
+        <v>0.6643890400319021</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1835,13 +1835,13 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001090549952540108</v>
+        <v>0.001087713057943667</v>
       </c>
       <c r="C78" t="n">
-        <v>2.571981278000994e-05</v>
+        <v>2.565603573587044e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6632898510666808</v>
+        <v>0.6470281656372892</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1854,13 +1854,13 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001226710616262302</v>
+        <v>0.001225429477024724</v>
       </c>
       <c r="C79" t="n">
-        <v>2.972897125299119e-05</v>
+        <v>2.972164558403498e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>0.512140645577858</v>
+        <v>0.437218319584786</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1873,13 +1873,13 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0008918372944228056</v>
+        <v>0.0008931651360823134</v>
       </c>
       <c r="C80" t="n">
-        <v>2.112861729582314e-05</v>
+        <v>2.115962276882134e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9502499529686265</v>
+        <v>0.9549484155677764</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -1892,13 +1892,13 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>0.000472904552424753</v>
+        <v>0.000472741882769378</v>
       </c>
       <c r="C81" t="n">
-        <v>1.169379341136864e-05</v>
+        <v>1.169435007380777e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6735633811688513</v>
+        <v>0.6413538356498407</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -1911,13 +1911,13 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>0.000279129215221094</v>
+        <v>0.0002810964597579035</v>
       </c>
       <c r="C82" t="n">
-        <v>7.06816226826582e-06</v>
+        <v>7.107599269269162e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7083616194195466</v>
+        <v>0.8716002562161564</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -1930,13 +1930,13 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0002306053320114696</v>
+        <v>0.0002316218944013016</v>
       </c>
       <c r="C83" t="n">
-        <v>5.88614807198882e-06</v>
+        <v>5.904760830872471e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3916035512629985</v>
+        <v>0.350044110796223</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -1949,13 +1949,13 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001210197300616391</v>
+        <v>0.0001206907591487756</v>
       </c>
       <c r="C84" t="n">
-        <v>3.155388640801701e-06</v>
+        <v>3.150541789792232e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9896694417729699</v>
+        <v>0.9270904141279301</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -1968,13 +1968,13 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>6.364002641319034e-05</v>
+        <v>6.244820041244206e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1.775436341081586e-06</v>
+        <v>1.753546459053013e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4446112418445828</v>
+        <v>0.5032702851819746</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -1987,13 +1987,13 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>4.855972779974285e-05</v>
+        <v>4.810767952055132e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1.35495907957859e-06</v>
+        <v>1.342408965755737e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2653305912855904</v>
+        <v>0.8083038301273812</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2006,13 +2006,13 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>3.878475689058965e-05</v>
+        <v>3.823178098968587e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.025011132946812e-06</v>
+        <v>1.014759344267606e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9858930860787282</v>
+        <v>0.658934943879095</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2025,13 +2025,13 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>3.600405050019816e-05</v>
+        <v>3.56576812272857e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1.030579200888811e-06</v>
+        <v>1.025104216767143e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8607210134379815</v>
+        <v>0.9533018383359738</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2044,13 +2044,13 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>4.877827566293231e-05</v>
+        <v>4.874560003443701e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1.397480125387617e-06</v>
+        <v>1.385371111559447e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6500675827145692</v>
+        <v>0.6265002766203605</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>8.760436490786277e-05</v>
+        <v>8.760214575068655e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>2.493705864141665e-06</v>
+        <v>2.493960443131707e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6812357595002678</v>
+        <v>0.7122364605458643</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>9.960056465754336e-05</v>
+        <v>0.0001001507991849955</v>
       </c>
       <c r="C91" t="n">
-        <v>2.771843087304313e-06</v>
+        <v>2.79143380661422e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7815022014753887</v>
+        <v>0.7314679964775926</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2101,13 +2101,13 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001213780478918344</v>
+        <v>0.0001218214730450004</v>
       </c>
       <c r="C92" t="n">
-        <v>3.283229369901124e-06</v>
+        <v>3.290225626928585e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>0.706395665296075</v>
+        <v>0.5896147619073098</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2120,13 +2120,13 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.000184025161328158</v>
+        <v>0.0001843464361052312</v>
       </c>
       <c r="C93" t="n">
-        <v>4.76415677675128e-06</v>
+        <v>4.764900541477537e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>0.824744661379514</v>
+        <v>0.7946813840887001</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2139,13 +2139,13 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0003905887365525865</v>
+        <v>0.0003907792301510192</v>
       </c>
       <c r="C94" t="n">
-        <v>9.920348938879681e-06</v>
+        <v>9.921357875032006e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5310273232713441</v>
+        <v>0.4807525713445452</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2158,13 +2158,13 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0004862549318785271</v>
+        <v>0.0004867669646414603</v>
       </c>
       <c r="C95" t="n">
-        <v>1.173514110193078e-05</v>
+        <v>1.173442178864987e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6507250852166643</v>
+        <v>0.7055227014379548</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0004019219978755428</v>
+        <v>0.0004017061555101058</v>
       </c>
       <c r="C96" t="n">
-        <v>9.683150371342516e-06</v>
+        <v>9.68361740714448e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8475577010758897</v>
+        <v>0.8539976425838207</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2196,13 +2196,13 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001930026199412954</v>
+        <v>0.0001924714998430938</v>
       </c>
       <c r="C97" t="n">
-        <v>5.102941289057669e-06</v>
+        <v>5.091891673489817e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>0.73522806635962</v>
+        <v>0.7248651849601677</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2215,13 +2215,13 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>9.268243540066439e-05</v>
+        <v>9.274069376876875e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>2.623443032846276e-06</v>
+        <v>2.625673843955955e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9912726363803256</v>
+        <v>0.9934614328189081</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2234,13 +2234,13 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>5.735413381580882e-05</v>
+        <v>5.745189897251122e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1.662089422529753e-06</v>
+        <v>1.669866602301572e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9028641856680695</v>
+        <v>0.8664133050120446</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2253,13 +2253,13 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>3.150940974655357e-05</v>
+        <v>3.162112109489806e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>9.588403583212399e-07</v>
+        <v>9.579528962602432e-07</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9895345919902017</v>
+        <v>0.9787155951859667</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2272,13 +2272,13 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>2.039702541249189e-05</v>
+        <v>2.009140464280277e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>6.124030096421082e-07</v>
+        <v>6.075267412748005e-07</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6887621792415186</v>
+        <v>0.6163789228692007</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2291,13 +2291,13 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>1.405735720660923e-05</v>
+        <v>1.380811835228099e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>4.85491471144162e-07</v>
+        <v>4.856312826246275e-07</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3789929710334002</v>
+        <v>0.2601183232775913</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2310,13 +2310,13 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>1.359333195863349e-05</v>
+        <v>1.392461415788086e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>5.024898724148606e-07</v>
+        <v>5.070891979352021e-07</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3427072273434412</v>
+        <v>0.7601989307233517</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2329,13 +2329,13 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>1.641386957972163e-05</v>
+        <v>1.615968269356434e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>5.018442196357787e-07</v>
+        <v>4.987237444967583e-07</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2844325010039231</v>
+        <v>0.3074161941960706</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2348,13 +2348,13 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>3.097932684903099e-05</v>
+        <v>3.137236300980057e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>9.782631174930411e-07</v>
+        <v>9.864115979053095e-07</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7360349295298446</v>
+        <v>0.8766827703495949</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2367,13 +2367,13 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>4.422301886850919e-05</v>
+        <v>4.448856732012597e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.217860063026861e-06</v>
+        <v>1.221967830445656e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5798746926511573</v>
+        <v>0.4397427641137581</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2386,13 +2386,13 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>5.650886186017354e-05</v>
+        <v>5.730266049905961e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1.574606113564998e-06</v>
+        <v>1.589251667049406e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6912587714686853</v>
+        <v>0.6175959274273581</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2405,13 +2405,13 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>5.738456203929793e-05</v>
+        <v>5.788216938242044e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1.440428799962986e-06</v>
+        <v>1.450722841328783e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8336744164069165</v>
+        <v>0.8639531999183245</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2424,13 +2424,13 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>5.805888727790106e-05</v>
+        <v>5.816558298434941e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1.56878205462692e-06</v>
+        <v>1.571892400116212e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4589630282282189</v>
+        <v>0.6579496143033365</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2443,13 +2443,13 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>5.572403944558085e-05</v>
+        <v>5.602598081000481e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.405626923569479e-06</v>
+        <v>1.412446020368215e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4761066544164752</v>
+        <v>0.3329645185160392</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2462,13 +2462,13 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>5.756864404118397e-05</v>
+        <v>5.769548325709356e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1.461711480940109e-06</v>
+        <v>1.463049340476558e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1683015568746469</v>
+        <v>0.336732061899693</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2481,13 +2481,13 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>5.836825649042447e-05</v>
+        <v>5.773661862985634e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>1.57726889641521e-06</v>
+        <v>1.568089643193112e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1491617057563387</v>
+        <v>0.2554533504513927</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2500,13 +2500,13 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>6.163834471237771e-05</v>
+        <v>6.364636094580221e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1.559106405961015e-06</v>
+        <v>1.601168315999886e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9395528091478879</v>
+        <v>0.9492325776842988</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2519,13 +2519,13 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>6.445820530606746e-05</v>
+        <v>6.680239375064768e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>1.611503152264352e-06</v>
+        <v>1.667326397496298e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7381795547133816</v>
+        <v>0.7462997521820904</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2538,13 +2538,13 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>6.888981736409084e-05</v>
+        <v>7.126453679189529e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>1.728629017110443e-06</v>
+        <v>1.783828272554366e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8822730425561484</v>
+        <v>0.8826183043780669</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>6.974060789769978e-05</v>
+        <v>7.130761813611476e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>1.762836712920766e-06</v>
+        <v>1.799228407270453e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>0.60770794972318</v>
+        <v>0.7470521317988426</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2576,13 +2576,13 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>7.161503246086043e-05</v>
+        <v>7.217720273170845e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>1.90208745759429e-06</v>
+        <v>1.913666206857235e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1577311698183317</v>
+        <v>0.1388028750773486</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2595,13 +2595,13 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>6.966528212761617e-05</v>
+        <v>7.157560484743392e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1.68670850187007e-06</v>
+        <v>1.72729717962288e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6581786375550596</v>
+        <v>0.7002015861789453</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2614,13 +2614,13 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>6.952921904212643e-05</v>
+        <v>7.169626211964261e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1.764780707314114e-06</v>
+        <v>1.810534824552949e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5803495297467183</v>
+        <v>0.6645161341042327</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2633,13 +2633,13 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>5.778046714791061e-05</v>
+        <v>6.041002797150384e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1.471237429753567e-06</v>
+        <v>1.527594115647844e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8887039123607535</v>
+        <v>0.656290123442564</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2652,13 +2652,13 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>5.672678103270706e-05</v>
+        <v>5.694112587521841e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>1.561598636275732e-06</v>
+        <v>1.567651329430532e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1873751927104774</v>
+        <v>0.3287495807419141</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2671,13 +2671,13 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>4.51700444840117e-05</v>
+        <v>4.62951807795883e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1.177926731950893e-06</v>
+        <v>1.203294216638218e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3451791616321518</v>
+        <v>0.6097006616582479</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2690,13 +2690,13 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>3.620100386118716e-05</v>
+        <v>3.723820128997261e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>9.471575299214591e-07</v>
+        <v>9.664228246720908e-07</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9898421531473729</v>
+        <v>0.9989601341556867</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2709,13 +2709,13 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>3.847191970193744e-05</v>
+        <v>3.839777076800151e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>1.153494652233512e-06</v>
+        <v>1.161261457078464e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7272904221201293</v>
+        <v>0.6710336297868837</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2728,13 +2728,13 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>4.876428559448091e-05</v>
+        <v>5.018950560891209e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>1.286851056829854e-06</v>
+        <v>1.317007698130247e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5969613231951416</v>
+        <v>0.7105524315393353</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>6.635684956150766e-05</v>
+        <v>6.833310461051742e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1.685858435970718e-06</v>
+        <v>1.731359306079396e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8137418422452958</v>
+        <v>0.7977091297561723</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2766,13 +2766,13 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>6.412538790112383e-05</v>
+        <v>6.599205009986171e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>1.630674984527744e-06</v>
+        <v>1.666359591666459e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9997581434132489</v>
+        <v>0.9968685436943222</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2785,13 +2785,13 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001035426644456031</v>
+        <v>0.0001067552583607539</v>
       </c>
       <c r="C128" t="n">
-        <v>2.593829159127094e-06</v>
+        <v>2.668284743646018e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9841195137281964</v>
+        <v>0.9901816468860638</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -2804,13 +2804,13 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001913821382689526</v>
+        <v>0.0001962193940118006</v>
       </c>
       <c r="C129" t="n">
-        <v>4.815793632353479e-06</v>
+        <v>4.916724030715988e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9888633917714285</v>
+        <v>0.9676217384228225</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -2823,13 +2823,13 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.000209566298583301</v>
+        <v>0.0002133368485716505</v>
       </c>
       <c r="C130" t="n">
-        <v>5.364877428916013e-06</v>
+        <v>5.443185735698627e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>0.998097474840795</v>
+        <v>0.9971196837853382</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -2842,13 +2842,13 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002195292994969912</v>
+        <v>0.0002206105103503802</v>
       </c>
       <c r="C131" t="n">
-        <v>5.75531929614576e-06</v>
+        <v>5.784830880145438e-06</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3471343966403105</v>
+        <v>0.2563059652074846</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -2861,13 +2861,13 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.000250343911460666</v>
+        <v>0.0002555911214846017</v>
       </c>
       <c r="C132" t="n">
-        <v>6.173657092491692e-06</v>
+        <v>6.295232474274493e-06</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9686701327696398</v>
+        <v>0.9738778956513563</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -2880,13 +2880,13 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002862445226560407</v>
+        <v>0.0002923630687670209</v>
       </c>
       <c r="C133" t="n">
-        <v>6.942709851110234e-06</v>
+        <v>7.077881356957104e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9951148808164042</v>
+        <v>0.9623401985099005</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -2899,13 +2899,13 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003009295013520345</v>
+        <v>0.0003069354876369401</v>
       </c>
       <c r="C134" t="n">
-        <v>7.264109541223567e-06</v>
+        <v>7.395759577334851e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9943535109413143</v>
+        <v>0.9354822122047594</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -2918,13 +2918,13 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002907093075823657</v>
+        <v>0.0002945099159832664</v>
       </c>
       <c r="C135" t="n">
-        <v>7.20898762897138e-06</v>
+        <v>7.296585048372289e-06</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9891127042086297</v>
+        <v>0.9551418348701053</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -2937,13 +2937,13 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002650943948765073</v>
+        <v>0.0002695234811786928</v>
       </c>
       <c r="C136" t="n">
-        <v>6.537890487061279e-06</v>
+        <v>6.633480643097727e-06</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9938825395540958</v>
+        <v>0.9773096671807712</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -2956,13 +2956,13 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0002123457068919922</v>
+        <v>0.0002130434840345107</v>
       </c>
       <c r="C137" t="n">
-        <v>5.41680960561841e-06</v>
+        <v>5.423876549092267e-06</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8275740738006397</v>
+        <v>0.7081093712868252</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -2975,13 +2975,13 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001509318030536375</v>
+        <v>0.0001549261055847976</v>
       </c>
       <c r="C138" t="n">
-        <v>3.841975873408863e-06</v>
+        <v>3.924287957916034e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9516953486808254</v>
+        <v>0.9852429947230968</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -2994,13 +2994,13 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0001021174200618176</v>
+        <v>0.0001037591639178373</v>
       </c>
       <c r="C139" t="n">
-        <v>2.725101368617995e-06</v>
+        <v>2.757232689435889e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9645048369886217</v>
+        <v>0.9801430950887573</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3013,13 +3013,13 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>8.277076788107198e-05</v>
+        <v>8.368662068400456e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>2.390005843298764e-06</v>
+        <v>2.415807020760483e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>0.789127011161514</v>
+        <v>0.8470686630277018</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3032,13 +3032,13 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>6.759396677206918e-05</v>
+        <v>6.848494319271213e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>1.842203611044869e-06</v>
+        <v>1.858927220582628e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8866474157647115</v>
+        <v>0.8317768907804212</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3051,13 +3051,13 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>5.708677261999796e-05</v>
+        <v>5.810167886054775e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>1.687020614101144e-06</v>
+        <v>1.703342410072463e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5902475035516697</v>
+        <v>0.6742952116721517</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3070,13 +3070,13 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>6.336293085108886e-05</v>
+        <v>6.370089733542292e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>1.888198649000581e-06</v>
+        <v>1.899902454738775e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8996717344738923</v>
+        <v>0.8985568762691235</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3089,13 +3089,13 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002379096170875561</v>
+        <v>0.0002407351444336984</v>
       </c>
       <c r="C144" t="n">
-        <v>6.175919049113167e-06</v>
+        <v>6.234631568956492e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>0.8838349307113321</v>
+        <v>0.9294226666625415</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3108,13 +3108,13 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0004504077225360982</v>
+        <v>0.0004550744425370752</v>
       </c>
       <c r="C145" t="n">
-        <v>1.038557427293634e-05</v>
+        <v>1.049457389250486e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8318644219424397</v>
+        <v>0.8208562726242218</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3127,13 +3127,13 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0005004859231322117</v>
+        <v>0.000503202029921632</v>
       </c>
       <c r="C146" t="n">
-        <v>1.179571155928384e-05</v>
+        <v>1.185615206338863e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9381216292849108</v>
+        <v>0.9562190075400891</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3146,13 +3146,13 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.000527214316825175</v>
+        <v>0.0005322865568016408</v>
       </c>
       <c r="C147" t="n">
-        <v>1.261108422251219e-05</v>
+        <v>1.271421358440015e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9643208960316169</v>
+        <v>0.9821208505029934</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3165,13 +3165,13 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0005162870281401409</v>
+        <v>0.000519649956726188</v>
       </c>
       <c r="C148" t="n">
-        <v>1.234520566069473e-05</v>
+        <v>1.241444102994963e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>0.8864188510305563</v>
+        <v>0.8831388931354813</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3184,13 +3184,13 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0005152596757638751</v>
+        <v>0.0005169584516348936</v>
       </c>
       <c r="C149" t="n">
-        <v>1.230789379332288e-05</v>
+        <v>1.233494623310781e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9535198257142362</v>
+        <v>0.9413939111842502</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3203,13 +3203,13 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0006370901440849822</v>
+        <v>0.0006386272365307753</v>
       </c>
       <c r="C150" t="n">
-        <v>1.501397153528914e-05</v>
+        <v>1.505286389382083e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9068143411032324</v>
+        <v>0.8880187566654101</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3222,13 +3222,13 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0006660962170282508</v>
+        <v>0.0006671309475854316</v>
       </c>
       <c r="C151" t="n">
-        <v>1.557750529474422e-05</v>
+        <v>1.560085537581511e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>0.8859302280381223</v>
+        <v>0.8982740700482834</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3241,13 +3241,13 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006643753868759688</v>
+        <v>0.0006677119708404409</v>
       </c>
       <c r="C152" t="n">
-        <v>1.561549745594235e-05</v>
+        <v>1.568860468532959e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>0.8354043915219476</v>
+        <v>0.881137851768856</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3260,13 +3260,13 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006731160622428691</v>
+        <v>0.0006758320094886558</v>
       </c>
       <c r="C153" t="n">
-        <v>1.564493706530242e-05</v>
+        <v>1.570911688684867e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7482630966187138</v>
+        <v>0.768390671421824</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3279,13 +3279,13 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006800767124307872</v>
+        <v>0.0006789863124467485</v>
       </c>
       <c r="C154" t="n">
-        <v>1.592041012706686e-05</v>
+        <v>1.589654972522722e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4768392443885611</v>
+        <v>0.4260239910972972</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3298,13 +3298,13 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006715320273751088</v>
+        <v>0.0006742125499441976</v>
       </c>
       <c r="C155" t="n">
-        <v>1.571304459365193e-05</v>
+        <v>1.578939308494547e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>0.8453737610407952</v>
+        <v>0.8215834692687174</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3317,13 +3317,13 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.000659560987063785</v>
+        <v>0.0006600053620363425</v>
       </c>
       <c r="C156" t="n">
-        <v>1.529393261142999e-05</v>
+        <v>1.530878609505554e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>0.922693275922135</v>
+        <v>0.9139619957135905</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005508539665188287</v>
+        <v>0.000552112953453812</v>
       </c>
       <c r="C157" t="n">
-        <v>1.26553307693197e-05</v>
+        <v>1.268241873959212e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9172637938649745</v>
+        <v>0.9033939339382958</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3355,13 +3355,13 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0004054852294850713</v>
+        <v>0.0004065976439112983</v>
       </c>
       <c r="C158" t="n">
-        <v>9.772952663213757e-06</v>
+        <v>9.794859238988367e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8475879751676303</v>
+        <v>0.8438092326532489</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3374,13 +3374,13 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002949499070472892</v>
+        <v>0.0002959761483420547</v>
       </c>
       <c r="C159" t="n">
-        <v>6.981455263478608e-06</v>
+        <v>7.010706759410069e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9493780034184359</v>
+        <v>0.9341938758604432</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3393,13 +3393,13 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0003081001836791955</v>
+        <v>0.0003104766367252959</v>
       </c>
       <c r="C160" t="n">
-        <v>7.549398572317362e-06</v>
+        <v>7.59374754113571e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>0.3841389610909792</v>
+        <v>0.4231679886775958</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3412,13 +3412,13 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0002369439858325341</v>
+        <v>0.0002393226222169926</v>
       </c>
       <c r="C161" t="n">
-        <v>5.679557498405909e-06</v>
+        <v>5.727782112627539e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9837103566191041</v>
+        <v>0.9899111216728962</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3431,13 +3431,13 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0002368313524859272</v>
+        <v>0.0002396511148972813</v>
       </c>
       <c r="C162" t="n">
-        <v>5.741031900819886e-06</v>
+        <v>5.802732653917647e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9919125290902649</v>
+        <v>0.9876518251860493</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3450,13 +3450,13 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002293675599069072</v>
+        <v>0.0002294064655481808</v>
       </c>
       <c r="C163" t="n">
-        <v>5.505839670840822e-06</v>
+        <v>5.510243726678211e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9963946103427236</v>
+        <v>0.9763973713347751</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3469,13 +3469,13 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0002104653051077955</v>
+        <v>0.0002118385547167838</v>
       </c>
       <c r="C164" t="n">
-        <v>5.111781570519635e-06</v>
+        <v>5.132124669331203e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9994198745692597</v>
+        <v>0.979601040261602</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3488,13 +3488,13 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001961716543723429</v>
+        <v>0.0001960657073210968</v>
       </c>
       <c r="C165" t="n">
-        <v>4.882557035887978e-06</v>
+        <v>4.882733622551409e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9597284018597433</v>
+        <v>0.9326158487997571</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3507,13 +3507,13 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001869904868837698</v>
+        <v>0.0001874755205652943</v>
       </c>
       <c r="C166" t="n">
-        <v>4.864641267779169e-06</v>
+        <v>4.872613139463907e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4746242410484153</v>
+        <v>0.7481186436232989</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3526,13 +3526,13 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001786034852003999</v>
+        <v>0.0001797932933027008</v>
       </c>
       <c r="C167" t="n">
-        <v>4.35483485543111e-06</v>
+        <v>4.377366616900808e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>0.8004365194186863</v>
+        <v>0.8630778408928401</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3545,13 +3545,13 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001505852964449694</v>
+        <v>0.000151729320505196</v>
       </c>
       <c r="C168" t="n">
-        <v>3.733987269229029e-06</v>
+        <v>3.754351438961044e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8367854715370291</v>
+        <v>0.9563611765471128</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3564,13 +3564,13 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001353089877302645</v>
+        <v>0.0001358085337158742</v>
       </c>
       <c r="C169" t="n">
-        <v>3.300480161443944e-06</v>
+        <v>3.311156665932673e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>0.949307908161143</v>
+        <v>0.9430412049041111</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3583,13 +3583,13 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>8.628994435739832e-05</v>
+        <v>8.61640228317054e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>2.441347085037138e-06</v>
+        <v>2.441827263407993e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>0.752642156007692</v>
+        <v>0.8771322059995538</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3602,13 +3602,13 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>6.351694583518737e-05</v>
+        <v>6.37515839921197e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>1.710764874932582e-06</v>
+        <v>1.71586285469708e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>0.374924108411788</v>
+        <v>0.5234251071908681</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3621,13 +3621,13 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>6.981291499272825e-05</v>
+        <v>6.983103104795888e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1.944414579462254e-06</v>
+        <v>1.944956847517937e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3354571074339839</v>
+        <v>0.5837379564283165</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3640,13 +3640,13 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>9.399569529924109e-05</v>
+        <v>9.427694951520282e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>2.867041896384136e-06</v>
+        <v>2.869217102863531e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>0.7828244302182801</v>
+        <v>0.7585641628518495</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3659,13 +3659,13 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001218156140864119</v>
+        <v>0.0001223251598150046</v>
       </c>
       <c r="C174" t="n">
-        <v>3.236524847656474e-06</v>
+        <v>3.251250811977008e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8059089666643475</v>
+        <v>0.7183682785878865</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3678,13 +3678,13 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001338999073151358</v>
+        <v>0.0001337531144688743</v>
       </c>
       <c r="C175" t="n">
-        <v>4.044747680089972e-06</v>
+        <v>4.054160671920855e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>0.488014601521358</v>
+        <v>0.4838460587522839</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3697,13 +3697,13 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001835483887332382</v>
+        <v>0.0001838822404205091</v>
       </c>
       <c r="C176" t="n">
-        <v>5.820774556739693e-06</v>
+        <v>5.825184211926461e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>0.7659486474394244</v>
+        <v>0.9339413987916277</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3716,13 +3716,13 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002757597748727502</v>
+        <v>0.0002757224019771057</v>
       </c>
       <c r="C177" t="n">
-        <v>7.877321259963538e-06</v>
+        <v>7.890115930234627e-06</v>
       </c>
       <c r="D177" t="n">
-        <v>0.7941202948147866</v>
+        <v>0.6702433233471442</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -3735,13 +3735,13 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003278238036143371</v>
+        <v>0.0003268707977405368</v>
       </c>
       <c r="C178" t="n">
-        <v>9.694294418428982e-06</v>
+        <v>9.67894491971284e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>0.4862770409778634</v>
+        <v>0.6162213883621219</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -3754,13 +3754,13 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004014542491366684</v>
+        <v>0.0004008363756407143</v>
       </c>
       <c r="C179" t="n">
-        <v>1.12354568104308e-05</v>
+        <v>1.123803141578486e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8888156840799056</v>
+        <v>0.9258239837495892</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -3773,13 +3773,13 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005352945659019833</v>
+        <v>0.0005340795701133519</v>
       </c>
       <c r="C180" t="n">
-        <v>9.539155909120014e-06</v>
+        <v>9.531183902138036e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9792303085786227</v>
+        <v>0.9750699180996892</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -3792,13 +3792,13 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0008043887376760488</v>
+        <v>0.0008055981731951681</v>
       </c>
       <c r="C181" t="n">
-        <v>2.067098158059563e-05</v>
+        <v>2.071353179827597e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9406681274560214</v>
+        <v>0.9297373945475174</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -3811,13 +3811,13 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001032920282118864</v>
+        <v>0.001028524319429948</v>
       </c>
       <c r="C182" t="n">
-        <v>2.633447603935776e-05</v>
+        <v>2.628457785206072e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2446822841789494</v>
+        <v>0.3683144802927106</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -3830,13 +3830,13 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0013449249885156</v>
+        <v>0.001344674830566008</v>
       </c>
       <c r="C183" t="n">
-        <v>3.129582877008734e-05</v>
+        <v>3.129908174991454e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2877359256174082</v>
+        <v>0.3117949748781789</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -3849,13 +3849,13 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001581216924535594</v>
+        <v>0.001581597145710941</v>
       </c>
       <c r="C184" t="n">
-        <v>3.633916578686647e-05</v>
+        <v>3.634988164693762e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9729268477992089</v>
+        <v>0.9678729089625717</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -3868,13 +3868,13 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001539875358556875</v>
+        <v>0.001543546904439715</v>
       </c>
       <c r="C185" t="n">
-        <v>3.436429859090065e-05</v>
+        <v>3.444996679523391e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2744566152688669</v>
+        <v>0.2666539406086346</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -3887,13 +3887,13 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001517699344614204</v>
+        <v>0.001517782795071599</v>
       </c>
       <c r="C186" t="n">
-        <v>3.431432051645466e-05</v>
+        <v>3.432966190259711e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9758506150594772</v>
+        <v>0.9750115989363526</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -3906,13 +3906,13 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001426112228252969</v>
+        <v>0.001425672430445999</v>
       </c>
       <c r="C187" t="n">
-        <v>3.256269379613996e-05</v>
+        <v>3.256166470037983e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2923399391885411</v>
+        <v>0.2869504309947887</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -3925,13 +3925,13 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001237099456439774</v>
+        <v>0.001239110422598792</v>
       </c>
       <c r="C188" t="n">
-        <v>2.733138045271675e-05</v>
+        <v>2.737529306111253e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5004950139134343</v>
+        <v>0.5139423235546648</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -3944,13 +3944,13 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001175125633196067</v>
+        <v>0.001176216428211216</v>
       </c>
       <c r="C189" t="n">
-        <v>2.617066692579437e-05</v>
+        <v>2.618702128521178e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2514828391886629</v>
+        <v>0.2807872221545521</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -3963,13 +3963,13 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001008860858740865</v>
+        <v>0.001008441410623053</v>
       </c>
       <c r="C190" t="n">
-        <v>2.253891541621544e-05</v>
+        <v>2.253392779857131e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2503744851017359</v>
+        <v>0.2718600286395877</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -3982,13 +3982,13 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0008024534651359256</v>
+        <v>0.0008026935966843711</v>
       </c>
       <c r="C191" t="n">
-        <v>1.801503001862242e-05</v>
+        <v>1.801975194343811e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>0.317308574035001</v>
+        <v>0.3247093123662779</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4001,13 +4001,13 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0006745797409200737</v>
+        <v>0.0006760600292517717</v>
       </c>
       <c r="C192" t="n">
-        <v>1.533520754032583e-05</v>
+        <v>1.536305849821381e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3746407770961955</v>
+        <v>0.4057901661173921</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4020,13 +4020,13 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0005054053635821784</v>
+        <v>0.0005057066404334942</v>
       </c>
       <c r="C193" t="n">
-        <v>8.300525334340274e-06</v>
+        <v>8.307580567308653e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>0.8971206158121876</v>
+        <v>0.8906621565957322</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4039,13 +4039,13 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003453706871969044</v>
+        <v>0.0003454764588730777</v>
       </c>
       <c r="C194" t="n">
-        <v>8.066889985575434e-06</v>
+        <v>8.06850263223697e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>0.3503690728502195</v>
+        <v>0.3470708589971431</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4058,13 +4058,13 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0002130060643840449</v>
+        <v>0.0002138518661143487</v>
       </c>
       <c r="C195" t="n">
-        <v>5.335463417650505e-06</v>
+        <v>5.347171789669514e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9898100920418564</v>
+        <v>0.9592047234070178</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4077,13 +4077,13 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0002145117916482188</v>
+        <v>0.00021425566116242</v>
       </c>
       <c r="C196" t="n">
-        <v>5.205881308622086e-06</v>
+        <v>5.202834538729542e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>0.8335271653240564</v>
+        <v>0.8227182861892719</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4096,13 +4096,13 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0001619841755045763</v>
+        <v>0.0001619310817411895</v>
       </c>
       <c r="C197" t="n">
-        <v>4.104897341184386e-06</v>
+        <v>4.100289852449041e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9576786372185735</v>
+        <v>0.9666322401054589</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4115,13 +4115,13 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0001532470645362727</v>
+        <v>0.0001526148791446537</v>
       </c>
       <c r="C198" t="n">
-        <v>3.772116680125377e-06</v>
+        <v>3.757482064156623e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6962105957448798</v>
+        <v>0.7078386306728058</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4134,13 +4134,13 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.00014398361320979</v>
+        <v>0.0001439941481266084</v>
       </c>
       <c r="C199" t="n">
-        <v>3.562741246787281e-06</v>
+        <v>3.563587212300266e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9405710842231413</v>
+        <v>0.9543856965982008</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4153,13 +4153,13 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002429940708977036</v>
+        <v>0.0002431822841067035</v>
       </c>
       <c r="C200" t="n">
-        <v>6.095883973897378e-06</v>
+        <v>6.099191629891149e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9140144266232521</v>
+        <v>0.9289800272299157</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4172,13 +4172,13 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0001876402190286787</v>
+        <v>0.000187562044025708</v>
       </c>
       <c r="C201" t="n">
-        <v>4.359419205874858e-06</v>
+        <v>4.356065192017154e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>0.5182394443519593</v>
+        <v>0.5572653348995099</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4191,13 +4191,13 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002950233952544847</v>
+        <v>0.0002952426843518269</v>
       </c>
       <c r="C202" t="n">
-        <v>7.324525725537373e-06</v>
+        <v>7.325752178660145e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9197768213779222</v>
+        <v>0.9350230328611611</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4210,13 +4210,13 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002801230900247097</v>
+        <v>0.0002799539411216511</v>
       </c>
       <c r="C203" t="n">
-        <v>6.953077088003923e-06</v>
+        <v>6.955108330019738e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9233375455778337</v>
+        <v>0.9602990193737446</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4229,13 +4229,13 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002690762163659159</v>
+        <v>0.0002698937364061351</v>
       </c>
       <c r="C204" t="n">
-        <v>6.754520415808741e-06</v>
+        <v>6.773181919850186e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>0.7193383435571805</v>
+        <v>0.6105236981274227</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4248,13 +4248,13 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002661035532156613</v>
+        <v>0.0002661728964720266</v>
       </c>
       <c r="C205" t="n">
-        <v>6.64737430752726e-06</v>
+        <v>6.643767239644083e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5301857735278117</v>
+        <v>0.5739881788055959</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4267,13 +4267,13 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002602225517699722</v>
+        <v>0.0002591593385591818</v>
       </c>
       <c r="C206" t="n">
-        <v>6.585007600053643e-06</v>
+        <v>6.575235861992024e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9779175869106309</v>
+        <v>0.9693806806500265</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4286,13 +4286,13 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002468908154376682</v>
+        <v>0.0002469097321252252</v>
       </c>
       <c r="C207" t="n">
-        <v>5.837543212123581e-06</v>
+        <v>5.838543057736661e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9832713178083932</v>
+        <v>0.9787981449731539</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002499491381408085</v>
+        <v>0.0002494777160791864</v>
       </c>
       <c r="C208" t="n">
-        <v>6.221420331943708e-06</v>
+        <v>6.213427990538795e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9842787493427491</v>
+        <v>0.964089102749066</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4324,13 +4324,13 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0001473720761739328</v>
+        <v>0.0001480727274824221</v>
       </c>
       <c r="C209" t="n">
-        <v>3.543645345663989e-06</v>
+        <v>3.557752870889933e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8028925841238388</v>
+        <v>0.8406610074705347</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4343,13 +4343,13 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>6.462568092803534e-05</v>
+        <v>6.495588499746181e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>1.851014077524145e-06</v>
+        <v>1.861165743475088e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9601528402412135</v>
+        <v>0.9790292011997753</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4362,13 +4362,13 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>4.152084343061927e-05</v>
+        <v>4.160174954675669e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>1.320861879358226e-06</v>
+        <v>1.32230434097638e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9580764931844314</v>
+        <v>0.9474349079432144</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4381,13 +4381,13 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>5.813677506437335e-05</v>
+        <v>5.835443964257037e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>1.572996954305474e-06</v>
+        <v>1.579071352500367e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>0.8175440543063899</v>
+        <v>0.7619477515953865</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4400,13 +4400,13 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>3.656677237071036e-05</v>
+        <v>3.628362716844796e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>1.121395320913172e-06</v>
+        <v>1.13031881784625e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>0.5948004166491037</v>
+        <v>0.5629227185982986</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4419,13 +4419,13 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>2.827001390205653e-05</v>
+        <v>2.816616717786715e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>9.441880623237072e-07</v>
+        <v>9.576250668311064e-07</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9566770417514675</v>
+        <v>0.9395891368082879</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4438,13 +4438,13 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>2.459321396886191e-05</v>
+        <v>2.448997106495252e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>8.224396774633243e-07</v>
+        <v>8.214264955252953e-07</v>
       </c>
       <c r="D215" t="n">
-        <v>0.893393217394823</v>
+        <v>0.8577179673710758</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4457,13 +4457,13 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>2.292480692273231e-05</v>
+        <v>2.289399002218816e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>8.151199942247366e-07</v>
+        <v>8.150521165884153e-07</v>
       </c>
       <c r="D216" t="n">
-        <v>0.07586475207549849</v>
+        <v>0.1038901586719982</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4476,13 +4476,13 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>2.238485715656257e-05</v>
+        <v>2.283365182682441e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>8.092984461665724e-07</v>
+        <v>8.132839983732441e-07</v>
       </c>
       <c r="D217" t="n">
-        <v>0.2610480512198931</v>
+        <v>0.3217632047757981</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4495,13 +4495,13 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>2.721372409155437e-05</v>
+        <v>2.689078636727987e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>9.353268281823746e-07</v>
+        <v>9.28175488816142e-07</v>
       </c>
       <c r="D218" t="n">
-        <v>0.7427959392380428</v>
+        <v>0.7935307039981281</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4514,13 +4514,13 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>2.72231168072582e-05</v>
+        <v>2.73695940526254e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>9.572256870240536e-07</v>
+        <v>9.579344462423645e-07</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9614995251488407</v>
+        <v>0.9228099004359485</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4533,13 +4533,13 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>3.038806154693012e-05</v>
+        <v>3.038054127051847e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>9.0976207003613e-07</v>
+        <v>9.078342551054784e-07</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6516968432351159</v>
+        <v>0.6435409984842224</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4552,13 +4552,13 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>3.50675826802906e-05</v>
+        <v>3.519945292857943e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>1.062550885234915e-06</v>
+        <v>1.064469138589667e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8691257486715847</v>
+        <v>0.8669249055380253</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
